--- a/Algo_Compare.xlsx
+++ b/Algo_Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77722217-A0E3-492C-A12B-415866723BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32FBEC-0560-4E19-BBCF-380908B072C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>Proposed(MaOEAC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTEA-AD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2475,15 +2479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE13C404-55DA-435B-BE7D-F59554E6A5CA}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2502,6 +2507,9 @@
       <c r="J1" t="s">
         <v>62</v>
       </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -2520,8 +2528,7 @@
         <v>1.8993999999999999E-4</v>
       </c>
       <c r="K2" s="5">
-        <f>I2-J2</f>
-        <v>2.2837600000000001E-3</v>
+        <v>1.3470000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2539,8 +2546,7 @@
         <v>3.0370000000000001E-4</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K66" si="0">I3-J3</f>
-        <v>2.2959E-3</v>
+        <v>1.5908000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2558,8 +2564,7 @@
         <v>3.0422000000000001E-4</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5243800000000001E-3</v>
+        <v>1.4783000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2577,8 +2582,7 @@
         <v>3.3336999999999999E-4</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7069300000000002E-3</v>
+        <v>2.9104000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2596,8 +2600,7 @@
         <v>3.3839999999999999E-4</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2166E-3</v>
+        <v>1.8782E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2615,8 +2618,7 @@
         <v>2.7677000000000002E-4</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8068300000000002E-3</v>
+        <v>2.2829999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2634,8 +2636,7 @@
         <v>3.2759E-4</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>2.76231E-3</v>
+        <v>1.9302E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2653,8 +2654,7 @@
         <v>3.5696000000000002E-4</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8763400000000002E-3</v>
+        <v>1.6404E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2672,8 +2672,7 @@
         <v>3.3056999999999997E-4</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3820300000000002E-3</v>
+        <v>9.6714000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2691,8 +2690,7 @@
         <v>3.0372E-4</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7941799999999998E-3</v>
+        <v>2.0555E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2710,8 +2708,7 @@
         <v>3.2359000000000001E-4</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5156100000000002E-3</v>
+        <v>1.1475000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2729,8 +2726,7 @@
         <v>3.4183999999999999E-4</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="0"/>
-        <v>1.84396E-3</v>
+        <v>2.2790000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2748,8 +2744,7 @@
         <v>3.3610999999999998E-4</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2492899999999997E-3</v>
+        <v>1.9364E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2767,8 +2762,7 @@
         <v>2.7307999999999998E-4</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4156200000000003E-3</v>
+        <v>2.0619000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2786,8 +2780,7 @@
         <v>3.3627E-4</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.85943E-3</v>
+        <v>2.2658999999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2805,8 +2798,7 @@
         <v>3.0410000000000002E-4</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2334E-3</v>
+        <v>1.8856999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2824,8 +2816,7 @@
         <v>3.0739E-4</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="0"/>
-        <v>2.1368100000000003E-3</v>
+        <v>2.5666E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2843,8 +2834,7 @@
         <v>2.8289E-4</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9354099999999998E-3</v>
+        <v>1.8924E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2862,8 +2852,7 @@
         <v>3.3589999999999998E-4</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5025E-3</v>
+        <v>1.5751999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2881,8 +2870,7 @@
         <v>3.3348999999999998E-4</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9525099999999997E-3</v>
+        <v>2.8302000000000002E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2900,8 +2888,7 @@
         <v>3.2771999999999999E-4</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8177799999999997E-3</v>
+        <v>1.9583000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2919,8 +2906,7 @@
         <v>3.2342999999999998E-4</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="0"/>
-        <v>1.86557E-3</v>
+        <v>1.2903999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2938,8 +2924,7 @@
         <v>3.077E-4</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1521000000000001E-3</v>
+        <v>9.3754999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2957,8 +2942,7 @@
         <v>2.9353000000000002E-4</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9431699999999999E-3</v>
+        <v>1.6048E-3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2976,8 +2960,7 @@
         <v>3.0035000000000001E-4</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2176499999999998E-3</v>
+        <v>2.0920000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2995,8 +2978,7 @@
         <v>2.9150999999999998E-4</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0232900000000001E-3</v>
+        <v>2.4729999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3014,8 +2996,7 @@
         <v>3.2867999999999998E-4</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6814199999999999E-3</v>
+        <v>1.2623000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3033,8 +3014,7 @@
         <v>3.3572000000000002E-4</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0514800000000001E-3</v>
+        <v>1.4101999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3052,8 +3032,7 @@
         <v>3.4984000000000003E-4</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="0"/>
-        <v>1.57996E-3</v>
+        <v>1.5901000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3071,8 +3050,7 @@
         <v>2.7192999999999998E-4</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4817699999999999E-3</v>
+        <v>1.7325999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3090,8 +3068,7 @@
         <v>3.2264000000000001E-4</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6339600000000003E-3</v>
+        <v>1.3711999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3109,8 +3086,7 @@
         <v>3.5773000000000001E-4</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9753699999999997E-3</v>
+        <v>1.9511999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3128,8 +3104,7 @@
         <v>3.0111E-4</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="0"/>
-        <v>1.4506899999999999E-3</v>
+        <v>1.4312000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3147,8 +3122,7 @@
         <v>3.6170000000000001E-4</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5885999999999999E-3</v>
+        <v>1.6861999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3166,8 +3140,7 @@
         <v>2.9421999999999999E-4</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7016800000000001E-3</v>
+        <v>2.3758E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3185,8 +3158,7 @@
         <v>2.7352000000000002E-4</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="0"/>
-        <v>1.85378E-3</v>
+        <v>1.9556E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3204,8 +3176,7 @@
         <v>3.3536999999999998E-4</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5194299999999996E-3</v>
+        <v>2.0744000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3223,8 +3194,7 @@
         <v>3.5451999999999999E-4</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2789799999999999E-3</v>
+        <v>1.8924E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3242,8 +3212,7 @@
         <v>2.8058E-4</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="0"/>
-        <v>1.74602E-3</v>
+        <v>2.2063999999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,8 +3230,7 @@
         <v>3.5323E-4</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="0"/>
-        <v>1.61247E-3</v>
+        <v>1.8351999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3280,8 +3248,7 @@
         <v>3.5055999999999998E-4</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3444399999999999E-3</v>
+        <v>1.7373E-3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3299,8 +3266,7 @@
         <v>3.5620999999999998E-4</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7446900000000001E-3</v>
+        <v>2.3644999999999998E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3318,8 +3284,7 @@
         <v>2.9828E-4</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4730199999999998E-3</v>
+        <v>1.5891E-3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3337,8 +3302,7 @@
         <v>3.1577999999999999E-4</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8295200000000003E-3</v>
+        <v>9.5790999999999997E-4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3356,8 +3320,7 @@
         <v>3.1532000000000001E-4</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7178799999999998E-3</v>
+        <v>1.6811E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3375,8 +3338,7 @@
         <v>3.1207000000000001E-4</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6046299999999999E-3</v>
+        <v>1.7713E-3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3394,8 +3356,7 @@
         <v>3.0812999999999999E-4</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0866699999999997E-3</v>
+        <v>2.2504000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3413,8 +3374,7 @@
         <v>3.0835999999999998E-4</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2410399999999997E-3</v>
+        <v>1.7251E-3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3432,8 +3392,7 @@
         <v>3.0896E-4</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="0"/>
-        <v>4.2044400000000003E-3</v>
+        <v>2.5607999999999998E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3451,8 +3410,7 @@
         <v>3.2705000000000001E-4</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9064499999999999E-3</v>
+        <v>1.7156999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,8 +3430,7 @@
         <v>3.8700999999999999</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1124000000000001</v>
+        <v>5.0514000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -3491,8 +3448,7 @@
         <v>3.008</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="0"/>
-        <v>2.9748000000000001</v>
+        <v>4.3623000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3510,8 +3466,7 @@
         <v>3.9203999999999999</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="0"/>
-        <v>0.4430000000000005</v>
+        <v>4.4233000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3529,8 +3484,7 @@
         <v>4.0903999999999998</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1215999999999999</v>
+        <v>3.5579000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3548,8 +3502,7 @@
         <v>4.5182000000000002</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.46820000000000039</v>
+        <v>5.7664</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3567,8 +3520,7 @@
         <v>4.7830000000000004</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13699999999999957</v>
+        <v>7.2294999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3586,8 +3538,7 @@
         <v>4.7008000000000001</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.23859999999999992</v>
+        <v>5.0152000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3605,8 +3556,7 @@
         <v>4.1471</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6451000000000002</v>
+        <v>6.0016999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3624,8 +3574,7 @@
         <v>3.9203999999999999</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9480000000000004</v>
+        <v>4.1650999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3643,8 +3592,7 @@
         <v>3.4931999999999999</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3990999999999998</v>
+        <v>6.8716999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3662,8 +3610,7 @@
         <v>3.8197000000000001</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="0"/>
-        <v>0.47550000000000026</v>
+        <v>4.1985999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -3681,8 +3628,7 @@
         <v>4.3170999999999999</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7900000000000027E-2</v>
+        <v>5.9442000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -3700,8 +3646,7 @@
         <v>3.9203999999999999</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.53819999999999979</v>
+        <v>5.1809000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3719,8 +3664,7 @@
         <v>3.839</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56900000000000039</v>
+        <v>5.6882999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3738,8 +3682,7 @@
         <v>4.4555999999999996</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="0"/>
-        <v>9.9300000000000388E-2</v>
+        <v>4.2503000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3757,8 +3700,7 @@
         <v>3.5428000000000002</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" ref="K67:K130" si="1">I67-J67</f>
-        <v>0.80279999999999996</v>
+        <v>4.8464999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3776,8 +3718,7 @@
         <v>3.6876000000000002</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.54640000000000022</v>
+        <v>8.4674999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3795,8 +3736,7 @@
         <v>4.2037000000000004</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="1"/>
-        <v>0.79499999999999993</v>
+        <v>4.9572000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3814,8 +3754,7 @@
         <v>4.6315</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.1090999999999998</v>
+        <v>5.4946000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3833,8 +3772,7 @@
         <v>4.7637</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5353000000000003</v>
+        <v>5.133</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3852,8 +3790,7 @@
         <v>3.9146999999999998</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8464</v>
+        <v>4.4039000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3871,8 +3808,7 @@
         <v>4.5685000000000002</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="1"/>
-        <v>0.32430000000000003</v>
+        <v>5.4500999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3890,8 +3826,7 @@
         <v>4.0274000000000001</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.3226</v>
+        <v>4.3674999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3909,8 +3844,7 @@
         <v>4.4679000000000002</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="1"/>
-        <v>0.2195999999999998</v>
+        <v>3.9116</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3928,8 +3862,7 @@
         <v>5.0155000000000003</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.78990000000000027</v>
+        <v>5.2636000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3947,8 +3880,7 @@
         <v>5.1852</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.5939000000000001</v>
+        <v>4.0072000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3966,8 +3898,7 @@
         <v>3.1905000000000001</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98639999999999972</v>
+        <v>4.7931999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3985,8 +3916,7 @@
         <v>3.8391000000000002</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2292999999999994</v>
+        <v>3.7237</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4004,8 +3934,7 @@
         <v>4.2225999999999999</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.0899999999999714E-2</v>
+        <v>3.1135999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4023,8 +3952,7 @@
         <v>4.1406999999999998</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8398000000000003</v>
+        <v>4.2664999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4042,8 +3970,7 @@
         <v>3.2094999999999998</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8386</v>
+        <v>5.6635999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4061,8 +3988,7 @@
         <v>3.8264</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="1"/>
-        <v>0.85739999999999972</v>
+        <v>3.3801000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -4080,8 +4006,7 @@
         <v>4.1688000000000001</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="1"/>
-        <v>0.22360000000000024</v>
+        <v>3.9758</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -4099,8 +4024,7 @@
         <v>4.0022000000000002</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1521999999999997</v>
+        <v>4.6093999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -4118,8 +4042,7 @@
         <v>4.9588000000000001</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46110000000000007</v>
+        <v>4.4397000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -4137,8 +4060,7 @@
         <v>3.8197999999999999</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="1"/>
-        <v>3.2686000000000002</v>
+        <v>7.0738000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -4156,8 +4078,7 @@
         <v>3.8071000000000002</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="1"/>
-        <v>0.48209999999999997</v>
+        <v>4.5998000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4175,8 +4096,7 @@
         <v>4.2096</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.18919999999999959</v>
+        <v>5.4218999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4194,8 +4114,7 @@
         <v>4.3799000000000001</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.99270000000000014</v>
+        <v>5.5067000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4213,8 +4132,7 @@
         <v>3.3414999999999999</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1421999999999999</v>
+        <v>5.6180000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -4232,8 +4150,7 @@
         <v>4.5875000000000004</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="1"/>
-        <v>0.26839999999999975</v>
+        <v>3.7465000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4251,8 +4168,7 @@
         <v>3.7387999999999999</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="1"/>
-        <v>0.37759999999999971</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -4270,8 +4186,7 @@
         <v>3.8513000000000002</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2908999999999997</v>
+        <v>2.8218999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -4289,8 +4204,7 @@
         <v>3.6183999999999998</v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8826000000000005</v>
+        <v>5.4391999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -4308,8 +4222,7 @@
         <v>3.8831000000000002</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2552999999999996</v>
+        <v>5.6024000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4327,8 +4240,7 @@
         <v>4.1281999999999996</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2906000000000004</v>
+        <v>5.7740999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4346,8 +4258,7 @@
         <v>3.8953000000000002</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8764999999999996</v>
+        <v>3.5766</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4365,8 +4276,7 @@
         <v>4.3734999999999999</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="1"/>
-        <v>0.47379999999999978</v>
+        <v>2.9622000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4384,8 +4294,7 @@
         <v>4.2350000000000003</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0753999999999992</v>
+        <v>5.2111999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4403,8 +4312,7 @@
         <v>3.6623999999999999</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="1"/>
-        <v>1.024</v>
+        <v>5.4960000000000004</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4424,8 +4332,7 @@
         <v>6.3316999999999996E-4</v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="1"/>
-        <v>9.2313000000000009E-4</v>
+        <v>1.3682E-3</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4443,8 +4350,7 @@
         <v>5.375E-4</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6618999999999998E-3</v>
+        <v>8.8009000000000004E-4</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4462,8 +4368,7 @@
         <v>3.8790999999999999E-4</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="1"/>
-        <v>6.0662999999999993E-4</v>
+        <v>1.3438E-3</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4481,8 +4386,7 @@
         <v>4.1412000000000003E-4</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="1"/>
-        <v>9.4888000000000004E-4</v>
+        <v>1.4044999999999999E-3</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -4500,8 +4404,7 @@
         <v>5.8945999999999998E-4</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="1"/>
-        <v>8.5363999999999991E-4</v>
+        <v>1.0406E-3</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4519,8 +4422,7 @@
         <v>3.4790999999999999E-4</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="1"/>
-        <v>1.31759E-3</v>
+        <v>1.2508E-3</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4538,8 +4440,7 @@
         <v>3.4752999999999997E-4</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1843700000000001E-3</v>
+        <v>1.5601E-3</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4557,8 +4458,7 @@
         <v>6.5837000000000003E-4</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" si="1"/>
-        <v>4.827299999999999E-4</v>
+        <v>8.3668999999999996E-4</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -4576,8 +4476,7 @@
         <v>7.4098000000000002E-4</v>
       </c>
       <c r="K110" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7352000000000002E-4</v>
+        <v>1.32E-3</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4595,8 +4494,7 @@
         <v>5.5884000000000001E-4</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5289599999999998E-3</v>
+        <v>1.0942E-3</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4614,8 +4512,7 @@
         <v>4.7605999999999999E-4</v>
       </c>
       <c r="K112" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5454000000000007E-4</v>
+        <v>1.0346000000000001E-3</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4633,8 +4530,7 @@
         <v>8.6017000000000005E-4</v>
       </c>
       <c r="K113" s="5">
-        <f t="shared" si="1"/>
-        <v>8.8422999999999985E-4</v>
+        <v>1.4599000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -4652,8 +4548,7 @@
         <v>5.9736000000000001E-4</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4447999999999998E-4</v>
+        <v>1.1896999999999999E-3</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4671,8 +4566,7 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3564E-3</v>
+        <v>1.2612000000000001E-3</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4690,8 +4584,7 @@
         <v>7.8554000000000004E-4</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5751599999999999E-3</v>
+        <v>8.4550000000000001E-4</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -4709,8 +4602,7 @@
         <v>5.8076000000000004E-4</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8943999999999989E-4</v>
+        <v>1.0242000000000001E-3</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4728,8 +4620,7 @@
         <v>5.5663999999999996E-4</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="1"/>
-        <v>8.9216000000000013E-4</v>
+        <v>1.0346000000000001E-3</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4747,8 +4638,7 @@
         <v>7.9885000000000004E-4</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1915000000000003E-4</v>
+        <v>1.2340999999999999E-3</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4766,8 +4656,7 @@
         <v>4.2201000000000001E-4</v>
       </c>
       <c r="K120" s="5">
-        <f t="shared" si="1"/>
-        <v>1.09089E-3</v>
+        <v>8.3405999999999997E-4</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4785,8 +4674,7 @@
         <v>3.5483999999999998E-4</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="1"/>
-        <v>7.6696000000000012E-4</v>
+        <v>1.0474E-3</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -4804,8 +4692,7 @@
         <v>4.4653999999999999E-4</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="1"/>
-        <v>4.4190000000000001E-4</v>
+        <v>5.4211000000000005E-4</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4823,8 +4710,7 @@
         <v>4.3512999999999999E-4</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="1"/>
-        <v>6.5247000000000005E-4</v>
+        <v>1.1029E-3</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4842,8 +4728,7 @@
         <v>3.1698000000000002E-4</v>
       </c>
       <c r="K124" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0619200000000001E-3</v>
+        <v>8.6715000000000002E-4</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -4861,8 +4746,7 @@
         <v>3.8184999999999998E-4</v>
       </c>
       <c r="K125" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0872500000000001E-3</v>
+        <v>1.1528E-3</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -4880,8 +4764,7 @@
         <v>6.4272000000000005E-4</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5447999999999994E-4</v>
+        <v>1.0020999999999999E-3</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4899,8 +4782,7 @@
         <v>4.1356999999999999E-4</v>
       </c>
       <c r="K127" s="5">
-        <f t="shared" si="1"/>
-        <v>2.9951000000000006E-4</v>
+        <v>1.108E-3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -4918,8 +4800,7 @@
         <v>9.1553999999999995E-4</v>
       </c>
       <c r="K128" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9656000000000003E-4</v>
+        <v>1.1429000000000001E-3</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -4937,8 +4818,7 @@
         <v>5.6333999999999996E-4</v>
       </c>
       <c r="K129" s="5">
-        <f t="shared" si="1"/>
-        <v>7.0346000000000004E-4</v>
+        <v>9.7517000000000003E-4</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -4956,8 +4836,7 @@
         <v>5.2170000000000005E-4</v>
       </c>
       <c r="K130" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5514000000000001E-3</v>
+        <v>1.7340000000000001E-3</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -4975,8 +4854,7 @@
         <v>3.9316999999999998E-4</v>
       </c>
       <c r="K131" s="5">
-        <f t="shared" ref="K131:K194" si="2">I131-J131</f>
-        <v>9.6483000000000007E-4</v>
+        <v>8.6016E-4</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -4994,8 +4872,7 @@
         <v>4.7822000000000001E-4</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" si="2"/>
-        <v>1.04228E-3</v>
+        <v>9.4401000000000001E-4</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -5013,8 +4890,7 @@
         <v>6.2558999999999998E-4</v>
       </c>
       <c r="K133" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8701000000000011E-4</v>
+        <v>7.7846999999999996E-4</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -5032,8 +4908,7 @@
         <v>4.526E-4</v>
       </c>
       <c r="K134" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0423999999999999E-4</v>
+        <v>1.7493000000000001E-3</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5051,8 +4926,7 @@
         <v>5.5265000000000002E-4</v>
       </c>
       <c r="K135" s="5">
-        <f t="shared" si="2"/>
-        <v>4.7185E-4</v>
+        <v>2.0157E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5070,8 +4944,7 @@
         <v>5.0142000000000003E-4</v>
       </c>
       <c r="K136" s="5">
-        <f t="shared" si="2"/>
-        <v>9.0427999999999993E-4</v>
+        <v>7.1727E-4</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -5089,8 +4962,7 @@
         <v>6.2708000000000002E-4</v>
       </c>
       <c r="K137" s="5">
-        <f t="shared" si="2"/>
-        <v>1.62452E-3</v>
+        <v>1.1654E-3</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -5108,8 +4980,7 @@
         <v>5.0737999999999998E-4</v>
       </c>
       <c r="K138" s="5">
-        <f t="shared" si="2"/>
-        <v>6.8501999999999994E-4</v>
+        <v>9.8237999999999993E-4</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -5127,8 +4998,7 @@
         <v>5.4257000000000003E-4</v>
       </c>
       <c r="K139" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5462E-4</v>
+        <v>1.0778999999999999E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -5146,8 +5016,7 @@
         <v>4.7396E-4</v>
       </c>
       <c r="K140" s="5">
-        <f t="shared" si="2"/>
-        <v>1.36294E-3</v>
+        <v>1.3813E-3</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -5165,8 +5034,7 @@
         <v>3.0173999999999999E-4</v>
       </c>
       <c r="K141" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5226599999999999E-3</v>
+        <v>1.1023999999999999E-3</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -5184,8 +5052,7 @@
         <v>3.5396000000000001E-4</v>
       </c>
       <c r="K142" s="5">
-        <f t="shared" si="2"/>
-        <v>9.5534000000000005E-4</v>
+        <v>6.8199000000000005E-4</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -5203,8 +5070,7 @@
         <v>3.9952E-4</v>
       </c>
       <c r="K143" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7073800000000001E-3</v>
+        <v>1.4515000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -5222,8 +5088,7 @@
         <v>4.4156000000000002E-4</v>
       </c>
       <c r="K144" s="5">
-        <f t="shared" si="2"/>
-        <v>8.2534000000000004E-4</v>
+        <v>1.2321999999999999E-3</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,8 +5106,7 @@
         <v>5.5250000000000004E-4</v>
       </c>
       <c r="K145" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3008E-3</v>
+        <v>7.8636000000000005E-4</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -5260,8 +5124,7 @@
         <v>5.5811999999999995E-4</v>
       </c>
       <c r="K146" s="5">
-        <f t="shared" si="2"/>
-        <v>5.5228000000000015E-4</v>
+        <v>1.5219999999999999E-3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -5279,8 +5142,7 @@
         <v>3.9284999999999998E-4</v>
       </c>
       <c r="K147" s="5">
-        <f t="shared" si="2"/>
-        <v>9.0115000000000008E-4</v>
+        <v>9.7433999999999997E-4</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -5298,8 +5160,7 @@
         <v>5.1409000000000003E-4</v>
       </c>
       <c r="K148" s="5">
-        <f t="shared" si="2"/>
-        <v>4.6761999999999997E-4</v>
+        <v>1.011E-3</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -5317,8 +5178,7 @@
         <v>5.2139999999999999E-4</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="2"/>
-        <v>5.953E-4</v>
+        <v>1.0104999999999999E-3</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -5336,8 +5196,7 @@
         <v>4.6932000000000001E-4</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="2"/>
-        <v>3.1158800000000001E-3</v>
+        <v>8.8336999999999997E-4</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5355,8 +5214,7 @@
         <v>3.6904E-4</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="2"/>
-        <v>9.3076000000000009E-4</v>
+        <v>1.3998000000000001E-3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5376,8 +5234,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K152" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1516100000000003E-2</v>
+        <v>1.0686999999999999E-3</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -5395,8 +5252,7 @@
         <v>5.3617999999999997</v>
       </c>
       <c r="K153" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.7333999999999996</v>
+        <v>42.194000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -5414,8 +5270,7 @@
         <v>0.10433000000000001</v>
       </c>
       <c r="K154" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.8196000000000004E-2</v>
+        <v>9.6353999999999995E-2</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -5433,8 +5288,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K155" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1138300000000002E-2</v>
+        <v>1.6811E-3</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -5452,8 +5306,7 @@
         <v>17.917000000000002</v>
       </c>
       <c r="K156" s="5">
-        <f t="shared" si="2"/>
-        <v>6.3309999999999995</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -5471,8 +5324,7 @@
         <v>9.7276000000000001E-2</v>
       </c>
       <c r="K157" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.2764000000000001E-2</v>
+        <v>9.4946000000000003E-2</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -5490,8 +5342,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K158" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.0622400000000003E-2</v>
+        <v>1.0835E-3</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5509,8 +5360,7 @@
         <v>6.4855</v>
       </c>
       <c r="K159" s="5">
-        <f t="shared" si="2"/>
-        <v>-4.6197999999999997</v>
+        <v>36.375</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -5528,8 +5378,7 @@
         <v>0.10843</v>
       </c>
       <c r="K160" s="5">
-        <f t="shared" si="2"/>
-        <v>-4.5987E-2</v>
+        <v>5.9867999999999998E-2</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -5547,8 +5396,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K161" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.14903E-2</v>
+        <v>2.1783000000000002E-3</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5566,8 +5414,7 @@
         <v>9.0648</v>
       </c>
       <c r="K162" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.7846000000000002</v>
+        <v>4.8882000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -5585,8 +5432,7 @@
         <v>0.10285999999999999</v>
       </c>
       <c r="K163" s="5">
-        <f t="shared" si="2"/>
-        <v>3.5700000000000037E-3</v>
+        <v>6.8144999999999997E-2</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -5604,8 +5450,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K164" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.10913E-2</v>
+        <v>1.5562E-3</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -5623,8 +5468,7 @@
         <v>9.3116000000000003</v>
       </c>
       <c r="K165" s="5">
-        <f t="shared" si="2"/>
-        <v>-7.7018000000000004</v>
+        <v>1.8093999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -5642,8 +5486,7 @@
         <v>0.12124</v>
       </c>
       <c r="K166" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.0119999999999994E-2</v>
+        <v>7.3025999999999994E-2</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -5661,8 +5504,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K167" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.0028800000000003E-2</v>
+        <v>9.2613999999999999E-4</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5680,8 +5522,7 @@
         <v>3.1558000000000002</v>
       </c>
       <c r="K168" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33989999999999965</v>
+        <v>1.7027000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -5699,8 +5540,7 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="K169" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.4577999999999989E-2</v>
+        <v>7.4482000000000007E-2</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -5718,8 +5558,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K170" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.15067E-2</v>
+        <v>1.6879E-3</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -5737,8 +5576,7 @@
         <v>3.8247</v>
       </c>
       <c r="K171" s="5">
-        <f t="shared" si="2"/>
-        <v>19.709299999999999</v>
+        <v>86.950999999999993</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -5756,8 +5594,7 @@
         <v>0.12163</v>
       </c>
       <c r="K172" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.1880000000000006E-2</v>
+        <v>8.3693000000000004E-2</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -5775,8 +5612,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K173" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.09366E-2</v>
+        <v>1.3955E-3</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -5794,8 +5630,7 @@
         <v>4.8087999999999997</v>
       </c>
       <c r="K174" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.5770999999999997</v>
+        <v>3.5948000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -5813,8 +5648,7 @@
         <v>0.10575</v>
       </c>
       <c r="K175" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.696599999999999E-2</v>
+        <v>6.8562999999999999E-2</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -5832,8 +5666,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K176" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1649100000000001E-2</v>
+        <v>1.9456E-3</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -5851,8 +5684,7 @@
         <v>2.3883000000000001</v>
       </c>
       <c r="K177" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.27039999999999997</v>
+        <v>2.8235000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -5870,8 +5702,7 @@
         <v>9.4905000000000003E-2</v>
       </c>
       <c r="K178" s="5">
-        <f t="shared" si="2"/>
-        <v>2.463999999999994E-3</v>
+        <v>9.5014000000000001E-2</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -5889,8 +5720,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K179" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.0026100000000002E-2</v>
+        <v>1.2788000000000001E-3</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -5908,8 +5738,7 @@
         <v>4.4968000000000004</v>
       </c>
       <c r="K180" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0905999999999993</v>
+        <v>1.6227</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -5927,8 +5756,7 @@
         <v>0.10926</v>
       </c>
       <c r="K181" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.4476999999999999E-2</v>
+        <v>8.3765000000000006E-2</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5946,8 +5774,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K182" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1165000000000003E-2</v>
+        <v>1.4376E-3</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -5965,8 +5792,7 @@
         <v>14.004</v>
       </c>
       <c r="K183" s="5">
-        <f t="shared" si="2"/>
-        <v>8.9210000000000012</v>
+        <v>3.3818000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5984,8 +5810,7 @@
         <v>0.11423</v>
       </c>
       <c r="K184" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.6402000000000004E-2</v>
+        <v>6.3510999999999998E-2</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -6003,8 +5828,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K185" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1871500000000002E-2</v>
+        <v>2.4986000000000001E-3</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -6022,8 +5846,7 @@
         <v>12.762</v>
       </c>
       <c r="K186" s="5">
-        <f t="shared" si="2"/>
-        <v>-6.1386000000000003</v>
+        <v>25.824999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -6041,8 +5864,7 @@
         <v>0.11165</v>
       </c>
       <c r="K187" s="5">
-        <f t="shared" si="2"/>
-        <v>-5.2241999999999997E-2</v>
+        <v>6.6003000000000006E-2</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -6060,8 +5882,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K188" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1381600000000001E-2</v>
+        <v>1.0551E-3</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -6079,8 +5900,7 @@
         <v>12.291</v>
       </c>
       <c r="K189" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8679999999999986</v>
+        <v>4.7568000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -6098,8 +5918,7 @@
         <v>9.9318000000000004E-2</v>
       </c>
       <c r="K190" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.2259999999999997E-2</v>
+        <v>7.4371000000000007E-2</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -6117,8 +5936,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K191" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1127E-2</v>
+        <v>1.6517999999999999E-3</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -6136,8 +5954,7 @@
         <v>5.7041000000000004</v>
       </c>
       <c r="K192" s="5">
-        <f t="shared" si="2"/>
-        <v>12.0669</v>
+        <v>1.5541</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -6155,8 +5972,7 @@
         <v>0.12501999999999999</v>
       </c>
       <c r="K193" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.7573999999999996E-2</v>
+        <v>5.8958000000000003E-2</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -6174,8 +5990,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K194" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.1452800000000001E-2</v>
+        <v>1.5853E-3</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -6193,8 +6008,7 @@
         <v>9.6426999999999996</v>
       </c>
       <c r="K195" s="5">
-        <f t="shared" ref="K195:K258" si="3">I195-J195</f>
-        <v>-0.34079999999999977</v>
+        <v>11.587999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -6212,8 +6026,7 @@
         <v>0.12776999999999999</v>
       </c>
       <c r="K196" s="5">
-        <f t="shared" si="3"/>
-        <v>-5.5600999999999998E-2</v>
+        <v>9.6464999999999995E-2</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -6231,8 +6044,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K197" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.0771600000000001E-2</v>
+        <v>2.2642999999999999E-3</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -6250,8 +6062,7 @@
         <v>2.895</v>
       </c>
       <c r="K198" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.3079000000000001</v>
+        <v>11.867000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -6269,8 +6080,7 @@
         <v>0.11022</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8720000000000004E-2</v>
+        <v>9.1718999999999995E-2</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -6288,8 +6098,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.0696200000000001E-2</v>
+        <v>1.3634000000000001E-3</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -6307,8 +6116,7 @@
         <v>12.612</v>
       </c>
       <c r="K201" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5139999999999993</v>
+        <v>2.1535000000000002</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -6328,8 +6136,7 @@
         <v>6.6493000000000002</v>
       </c>
       <c r="K202" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.72449999999999992</v>
+        <v>5.7815000000000003</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -6347,8 +6154,7 @@
         <v>2.3237000000000001E-2</v>
       </c>
       <c r="K203" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1349900000000002E-2</v>
+        <v>1.4672000000000001E-3</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -6366,8 +6172,7 @@
         <v>0.58996999999999999</v>
       </c>
       <c r="K204" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10399000000000003</v>
+        <v>1.3177000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -6385,8 +6190,7 @@
         <v>6.8696000000000002</v>
       </c>
       <c r="K205" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.7016</v>
+        <v>5.7476000000000003</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -6404,8 +6208,7 @@
         <v>2.3331999999999999E-2</v>
       </c>
       <c r="K206" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.2037899999999999E-2</v>
+        <v>7.9555999999999995E-4</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -6423,8 +6226,7 @@
         <v>0.58909999999999996</v>
       </c>
       <c r="K207" s="5">
-        <f t="shared" si="3"/>
-        <v>0.32613000000000003</v>
+        <v>0.94962000000000002</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -6442,8 +6244,7 @@
         <v>6.7122999999999999</v>
       </c>
       <c r="K208" s="5">
-        <f t="shared" si="3"/>
-        <v>0.76400000000000023</v>
+        <v>3.5333999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -6461,8 +6262,7 @@
         <v>2.3175999999999999E-2</v>
       </c>
       <c r="K209" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.2129199999999998E-2</v>
+        <v>7.9224999999999999E-4</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -6480,8 +6280,7 @@
         <v>0.54801999999999995</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="3"/>
-        <v>0.15811000000000008</v>
+        <v>1.3880999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -6499,8 +6298,7 @@
         <v>7.4673999999999996</v>
       </c>
       <c r="K211" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1046999999999993</v>
+        <v>6.2567000000000004</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -6518,8 +6316,7 @@
         <v>2.3196999999999999E-2</v>
       </c>
       <c r="K212" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1831399999999997E-2</v>
+        <v>8.9265000000000004E-4</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -6537,8 +6334,7 @@
         <v>0.49785000000000001</v>
       </c>
       <c r="K213" s="5">
-        <f t="shared" si="3"/>
-        <v>5.4259999999999975E-2</v>
+        <v>1.0532999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -6556,8 +6352,7 @@
         <v>7.3604000000000003</v>
       </c>
       <c r="K214" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.0876999999999999</v>
+        <v>3.2589999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -6575,8 +6370,7 @@
         <v>2.3179000000000002E-2</v>
       </c>
       <c r="K215" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.14529E-2</v>
+        <v>1.0931000000000001E-3</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -6594,8 +6388,7 @@
         <v>0.50085999999999997</v>
       </c>
       <c r="K216" s="5">
-        <f t="shared" si="3"/>
-        <v>0.52714000000000005</v>
+        <v>1.6187</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -6613,8 +6406,7 @@
         <v>6.7436999999999996</v>
       </c>
       <c r="K217" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.64369999999999994</v>
+        <v>5.9424999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -6632,8 +6424,7 @@
         <v>2.3120999999999999E-2</v>
       </c>
       <c r="K218" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1711499999999998E-2</v>
+        <v>1.4288E-3</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -6651,8 +6442,7 @@
         <v>0.58601999999999999</v>
       </c>
       <c r="K219" s="5">
-        <f t="shared" si="3"/>
-        <v>7.6579999999999981E-2</v>
+        <v>1.1322000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -6670,8 +6460,7 @@
         <v>6.5423999999999998</v>
       </c>
       <c r="K220" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.0528999999999997</v>
+        <v>6.7039</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -6689,8 +6478,7 @@
         <v>2.3217999999999999E-2</v>
       </c>
       <c r="K221" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1652299999999999E-2</v>
+        <v>1.3587E-3</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -6708,8 +6496,7 @@
         <v>0.56577999999999995</v>
       </c>
       <c r="K222" s="5">
-        <f t="shared" si="3"/>
-        <v>0.11594000000000004</v>
+        <v>0.90519000000000005</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -6727,8 +6514,7 @@
         <v>6.4417</v>
       </c>
       <c r="K223" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0280999999999993</v>
+        <v>5.4893000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -6746,8 +6532,7 @@
         <v>2.3164000000000001E-2</v>
       </c>
       <c r="K224" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.20419E-2</v>
+        <v>1.3308E-3</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -6765,8 +6550,7 @@
         <v>0.55828999999999995</v>
       </c>
       <c r="K225" s="5">
-        <f t="shared" si="3"/>
-        <v>0.35532000000000008</v>
+        <v>1.2630999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -6784,8 +6568,7 @@
         <v>7.6623999999999999</v>
       </c>
       <c r="K226" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.4737</v>
+        <v>4.9802999999999997</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -6803,8 +6586,7 @@
         <v>2.3193999999999999E-2</v>
       </c>
       <c r="K227" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.18912E-2</v>
+        <v>1.206E-3</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -6822,8 +6604,7 @@
         <v>0.60992999999999997</v>
       </c>
       <c r="K228" s="5">
-        <f t="shared" si="3"/>
-        <v>3.1320000000000014E-2</v>
+        <v>1.1031</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -6841,8 +6622,7 @@
         <v>7.3163</v>
       </c>
       <c r="K229" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.29079999999999995</v>
+        <v>7.9775</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -6860,8 +6640,7 @@
         <v>2.3226E-2</v>
       </c>
       <c r="K230" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1616E-2</v>
+        <v>1.3940999999999999E-3</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -6879,8 +6658,7 @@
         <v>0.58240000000000003</v>
       </c>
       <c r="K231" s="5">
-        <f t="shared" si="3"/>
-        <v>0.38527</v>
+        <v>1.246</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -6898,8 +6676,7 @@
         <v>7.5366</v>
       </c>
       <c r="K232" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.3113999999999999</v>
+        <v>8.7779000000000007</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -6917,8 +6694,7 @@
         <v>2.3283999999999999E-2</v>
       </c>
       <c r="K233" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1521800000000001E-2</v>
+        <v>1.1888999999999999E-3</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
@@ -6936,8 +6712,7 @@
         <v>0.54698999999999998</v>
       </c>
       <c r="K234" s="5">
-        <f t="shared" si="3"/>
-        <v>0.18139000000000005</v>
+        <v>1.2241</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -6955,8 +6730,7 @@
         <v>7.1212999999999997</v>
       </c>
       <c r="K235" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.9399999999999871E-2</v>
+        <v>6.5362</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -6974,8 +6748,7 @@
         <v>2.3144999999999999E-2</v>
       </c>
       <c r="K236" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1836399999999999E-2</v>
+        <v>1.0449000000000001E-3</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -6993,8 +6766,7 @@
         <v>0.54432999999999998</v>
       </c>
       <c r="K237" s="5">
-        <f t="shared" si="3"/>
-        <v>8.4350000000000036E-2</v>
+        <v>1.0845</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
@@ -7012,8 +6784,7 @@
         <v>6.8883999999999999</v>
       </c>
       <c r="K238" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.8628999999999998</v>
+        <v>5.1398000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -7031,8 +6802,7 @@
         <v>2.3175999999999999E-2</v>
       </c>
       <c r="K239" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.14244E-2</v>
+        <v>1.1354E-3</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -7050,8 +6820,7 @@
         <v>0.54620999999999997</v>
       </c>
       <c r="K240" s="5">
-        <f t="shared" si="3"/>
-        <v>0.13665000000000005</v>
+        <v>1.3486</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
@@ -7069,8 +6838,7 @@
         <v>7.0519999999999996</v>
       </c>
       <c r="K241" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.3651</v>
+        <v>8.6760999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
@@ -7088,8 +6856,7 @@
         <v>2.3171000000000001E-2</v>
       </c>
       <c r="K242" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.19192E-2</v>
+        <v>1.1462E-3</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -7107,8 +6874,7 @@
         <v>0.61946000000000001</v>
       </c>
       <c r="K243" s="5">
-        <f t="shared" si="3"/>
-        <v>6.4919999999999978E-2</v>
+        <v>1.1617</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -7126,8 +6892,7 @@
         <v>7.4862000000000002</v>
       </c>
       <c r="K244" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.6132</v>
+        <v>8.6110000000000007</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -7145,8 +6910,7 @@
         <v>2.3220999999999999E-2</v>
       </c>
       <c r="K245" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1613999999999998E-2</v>
+        <v>9.7161999999999997E-4</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -7164,8 +6928,7 @@
         <v>0.51739999999999997</v>
       </c>
       <c r="K246" s="5">
-        <f t="shared" si="3"/>
-        <v>5.5740000000000012E-2</v>
+        <v>1.1611</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -7183,8 +6946,7 @@
         <v>5.6425000000000001</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1272000000000002</v>
+        <v>7.6641000000000004</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -7202,8 +6964,7 @@
         <v>2.3119000000000001E-2</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1786099999999999E-2</v>
+        <v>1.4552E-3</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -7221,8 +6982,7 @@
         <v>0.58855999999999997</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="3"/>
-        <v>8.232000000000006E-2</v>
+        <v>0.85699000000000003</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
@@ -7240,8 +7000,7 @@
         <v>5.9570999999999996</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="3"/>
-        <v>0.6850000000000005</v>
+        <v>8.6455000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -7259,8 +7018,7 @@
         <v>2.3148999999999999E-2</v>
       </c>
       <c r="K251" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1540299999999998E-2</v>
+        <v>1.6779E-3</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
@@ -7280,8 +7038,7 @@
         <v>7.1822999999999997</v>
       </c>
       <c r="K252" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.6688999999999998</v>
+        <v>1.6486000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
@@ -7299,8 +7056,7 @@
         <v>2.3217999999999999E-2</v>
       </c>
       <c r="K253" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.15464E-2</v>
+        <v>1.5474E-3</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
@@ -7318,8 +7074,7 @@
         <v>0.47483999999999998</v>
       </c>
       <c r="K254" s="5">
-        <f t="shared" si="3"/>
-        <v>0.39479000000000003</v>
+        <v>1.3892</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
@@ -7337,8 +7092,7 @@
         <v>16.548999999999999</v>
       </c>
       <c r="K255" s="5">
-        <f t="shared" si="3"/>
-        <v>-12.427199999999999</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -7356,8 +7110,7 @@
         <v>2.3144000000000001E-2</v>
       </c>
       <c r="K256" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.1718300000000003E-2</v>
+        <v>8.6269999999999999E-4</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
@@ -7375,8 +7128,7 @@
         <v>0.61041999999999996</v>
       </c>
       <c r="K257" s="5">
-        <f t="shared" si="3"/>
-        <v>0.31018000000000001</v>
+        <v>1.1255999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -7394,8 +7146,7 @@
         <v>2.6859999999999999</v>
       </c>
       <c r="K258" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.33420000000000005</v>
+        <v>2.0068999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
@@ -7413,8 +7164,7 @@
         <v>2.3179999999999999E-2</v>
       </c>
       <c r="K259" s="5">
-        <f t="shared" ref="K259:K322" si="4">I259-J259</f>
-        <v>-2.1687999999999999E-2</v>
+        <v>1.9017999999999999E-3</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -7432,8 +7182,7 @@
         <v>0.49213000000000001</v>
       </c>
       <c r="K260" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17704000000000003</v>
+        <v>0.79063000000000005</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -7451,8 +7200,7 @@
         <v>12.279</v>
       </c>
       <c r="K261" s="5">
-        <f t="shared" si="4"/>
-        <v>-10.2852</v>
+        <v>13.058999999999999</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
@@ -7470,8 +7218,7 @@
         <v>2.3212E-2</v>
       </c>
       <c r="K262" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1162799999999999E-2</v>
+        <v>1.4138E-3</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -7489,8 +7236,7 @@
         <v>0.60890999999999995</v>
       </c>
       <c r="K263" s="5">
-        <f t="shared" si="4"/>
-        <v>9.3670000000000031E-2</v>
+        <v>1.1785000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -7508,8 +7254,7 @@
         <v>3.7787999999999999</v>
       </c>
       <c r="K264" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8900000000000166E-2</v>
+        <v>3.1955</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -7527,8 +7272,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
       <c r="K265" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1861600000000002E-2</v>
+        <v>9.7408E-4</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -7546,8 +7290,7 @@
         <v>0.52473999999999998</v>
       </c>
       <c r="K266" s="5">
-        <f t="shared" si="4"/>
-        <v>0.19434000000000007</v>
+        <v>1.0441</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -7565,8 +7308,7 @@
         <v>3.7631999999999999</v>
       </c>
       <c r="K267" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.2706</v>
+        <v>4.9976000000000003</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -7584,8 +7326,7 @@
         <v>2.3140999999999998E-2</v>
       </c>
       <c r="K268" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1195899999999997E-2</v>
+        <v>1.2876999999999999E-3</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -7603,8 +7344,7 @@
         <v>0.57942000000000005</v>
       </c>
       <c r="K269" s="5">
-        <f t="shared" si="4"/>
-        <v>0.26613999999999993</v>
+        <v>1.2622</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -7622,8 +7362,7 @@
         <v>27.751999999999999</v>
       </c>
       <c r="K270" s="5">
-        <f t="shared" si="4"/>
-        <v>-25.970299999999998</v>
+        <v>21.568000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -7641,8 +7380,7 @@
         <v>2.3189000000000001E-2</v>
       </c>
       <c r="K271" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.16627E-2</v>
+        <v>6.7628999999999996E-4</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -7660,8 +7398,7 @@
         <v>0.52915000000000001</v>
       </c>
       <c r="K272" s="5">
-        <f t="shared" si="4"/>
-        <v>0.39978999999999998</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -7679,8 +7416,7 @@
         <v>4.9009</v>
       </c>
       <c r="K273" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.327</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -7698,8 +7434,7 @@
         <v>2.3122E-2</v>
       </c>
       <c r="K274" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.05364E-2</v>
+        <v>9.5679000000000001E-4</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -7717,8 +7452,7 @@
         <v>0.55484999999999995</v>
       </c>
       <c r="K275" s="5">
-        <f t="shared" si="4"/>
-        <v>0.16791</v>
+        <v>1.1292</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -7736,8 +7470,7 @@
         <v>22.623999999999999</v>
       </c>
       <c r="K276" s="5">
-        <f t="shared" si="4"/>
-        <v>-8.4899999999999984</v>
+        <v>246.93</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -7755,8 +7488,7 @@
         <v>2.3266999999999999E-2</v>
       </c>
       <c r="K277" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1917800000000001E-2</v>
+        <v>1.3623999999999999E-3</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -7774,8 +7506,7 @@
         <v>0.60711000000000004</v>
       </c>
       <c r="K278" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14960999999999991</v>
+        <v>1.0015000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -7793,8 +7524,7 @@
         <v>35.834000000000003</v>
       </c>
       <c r="K279" s="5">
-        <f t="shared" si="4"/>
-        <v>19.052999999999997</v>
+        <v>6.7859999999999996</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -7812,8 +7542,7 @@
         <v>2.3161000000000001E-2</v>
       </c>
       <c r="K280" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.10399E-2</v>
+        <v>1.5981999999999999E-3</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -7831,8 +7560,7 @@
         <v>0.51324000000000003</v>
       </c>
       <c r="K281" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23961999999999994</v>
+        <v>1.3068</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
@@ -7850,8 +7578,7 @@
         <v>24.536999999999999</v>
       </c>
       <c r="K282" s="5">
-        <f t="shared" si="4"/>
-        <v>-14.8919</v>
+        <v>3.649</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -7869,8 +7596,7 @@
         <v>2.3192000000000001E-2</v>
       </c>
       <c r="K283" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1949300000000001E-2</v>
+        <v>1.1295999999999999E-3</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -7888,8 +7614,7 @@
         <v>0.53059999999999996</v>
       </c>
       <c r="K284" s="5">
-        <f t="shared" si="4"/>
-        <v>0.15697000000000005</v>
+        <v>1.3474999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -7907,8 +7632,7 @@
         <v>11.526</v>
       </c>
       <c r="K285" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.5815999999999999</v>
+        <v>47.268999999999998</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -7926,8 +7650,7 @@
         <v>2.3217000000000002E-2</v>
       </c>
       <c r="K286" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1414600000000002E-2</v>
+        <v>1.3718999999999999E-3</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -7945,8 +7668,7 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="K287" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10026999999999997</v>
+        <v>0.94262000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -7964,8 +7686,7 @@
         <v>5.7127999999999997</v>
       </c>
       <c r="K288" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.4223999999999997</v>
+        <v>44.512</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -7983,8 +7704,7 @@
         <v>2.3193999999999999E-2</v>
       </c>
       <c r="K289" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0868299999999999E-2</v>
+        <v>1.5826E-3</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -8002,8 +7722,7 @@
         <v>0.56730000000000003</v>
       </c>
       <c r="K290" s="5">
-        <f t="shared" si="4"/>
-        <v>0.22033000000000003</v>
+        <v>1.1727000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -8021,8 +7740,7 @@
         <v>4.5119999999999996</v>
       </c>
       <c r="K291" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.9432999999999998</v>
+        <v>1.6733</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -8040,8 +7758,7 @@
         <v>2.3251000000000001E-2</v>
       </c>
       <c r="K292" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1590500000000002E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -8059,8 +7776,7 @@
         <v>0.59033000000000002</v>
       </c>
       <c r="K293" s="5">
-        <f t="shared" si="4"/>
-        <v>0.22292000000000001</v>
+        <v>1.1424000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -8078,8 +7794,7 @@
         <v>4.7869999999999999</v>
       </c>
       <c r="K294" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.2121999999999997</v>
+        <v>9.3312000000000008</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
@@ -8097,8 +7812,7 @@
         <v>2.3167E-2</v>
       </c>
       <c r="K295" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.15044E-2</v>
+        <v>7.2156E-4</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -8116,8 +7830,7 @@
         <v>0.64595000000000002</v>
       </c>
       <c r="K296" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17708000000000002</v>
+        <v>1.0357000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
@@ -8135,8 +7848,7 @@
         <v>2.6162000000000001</v>
       </c>
       <c r="K297" s="5">
-        <f t="shared" si="4"/>
-        <v>0.89400000000000013</v>
+        <v>15.798</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -8154,8 +7866,7 @@
         <v>2.3215E-2</v>
       </c>
       <c r="K298" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.21856E-2</v>
+        <v>1.3785E-3</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
@@ -8173,8 +7884,7 @@
         <v>0.59014</v>
       </c>
       <c r="K299" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14097000000000004</v>
+        <v>1.0091000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
@@ -8192,8 +7902,7 @@
         <v>3.5448</v>
       </c>
       <c r="K300" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.53350000000000009</v>
+        <v>1.6457999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
@@ -8211,8 +7920,7 @@
         <v>2.3165999999999999E-2</v>
       </c>
       <c r="K301" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1678699999999999E-2</v>
+        <v>1.2309E-3</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
@@ -8232,8 +7940,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K302" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.15902E-2</v>
+        <v>1.9675999999999999E-3</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
@@ -8251,8 +7958,7 @@
         <v>0.11175</v>
       </c>
       <c r="K303" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.4049000000000005E-2</v>
+        <v>0.64326000000000005</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
@@ -8270,8 +7976,7 @@
         <v>6.5864000000000003</v>
       </c>
       <c r="K304" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.9675000000000002</v>
+        <v>8.6396999999999995</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
@@ -8289,8 +7994,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K305" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0631200000000002E-2</v>
+        <v>1.4882999999999999E-3</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
@@ -8308,8 +8012,7 @@
         <v>0.11076</v>
       </c>
       <c r="K306" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.9013999999999993E-2</v>
+        <v>9.3473000000000001E-2</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
@@ -8327,8 +8030,7 @@
         <v>5.7683999999999997</v>
       </c>
       <c r="K307" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7602000000000011</v>
+        <v>6.5419999999999998</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
@@ -8346,8 +8048,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K308" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0408900000000001E-2</v>
+        <v>2.2268000000000001E-3</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
@@ -8365,8 +8066,7 @@
         <v>0.10242999999999999</v>
       </c>
       <c r="K309" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.9887999999999989E-2</v>
+        <v>8.3176E-2</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
@@ -8384,8 +8084,7 @@
         <v>6.4103000000000003</v>
       </c>
       <c r="K310" s="5">
-        <f t="shared" si="4"/>
-        <v>0.35489999999999977</v>
+        <v>6.5834999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
@@ -8403,8 +8102,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K311" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1216700000000002E-2</v>
+        <v>1.3140999999999999E-3</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
@@ -8422,8 +8120,7 @@
         <v>0.11607000000000001</v>
       </c>
       <c r="K312" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.2672000000000012E-2</v>
+        <v>8.0293000000000003E-2</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
@@ -8441,8 +8138,7 @@
         <v>7.9141000000000004</v>
       </c>
       <c r="K313" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.4823000000000004</v>
+        <v>5.5892999999999997</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
@@ -8460,8 +8156,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K314" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0918200000000001E-2</v>
+        <v>1.1887E-3</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
@@ -8479,8 +8174,7 @@
         <v>0.12016</v>
       </c>
       <c r="K315" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.3287000000000006E-2</v>
+        <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
@@ -8498,8 +8192,7 @@
         <v>6.4730999999999996</v>
       </c>
       <c r="K316" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.2710999999999997</v>
+        <v>8.3598999999999997</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
@@ -8517,8 +8210,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K317" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0158800000000001E-2</v>
+        <v>1.4218E-3</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -8536,8 +8228,7 @@
         <v>0.11242000000000001</v>
       </c>
       <c r="K318" s="5">
-        <f t="shared" si="4"/>
-        <v>-5.2726000000000009E-2</v>
+        <v>7.8460000000000002E-2</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
@@ -8555,8 +8246,7 @@
         <v>6.6557000000000004</v>
       </c>
       <c r="K319" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.48030000000000062</v>
+        <v>7.5739999999999998</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
@@ -8574,8 +8264,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K320" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.0476500000000002E-2</v>
+        <v>1.5498E-3</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
@@ -8593,8 +8282,7 @@
         <v>0.10365000000000001</v>
       </c>
       <c r="K321" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.3515000000000003E-2</v>
+        <v>4.9969E-2</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
@@ -8612,8 +8300,7 @@
         <v>6.5109000000000004</v>
       </c>
       <c r="K322" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1802999999999999</v>
+        <v>7.1494</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
@@ -8631,8 +8318,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K323" s="5">
-        <f t="shared" ref="K323:K386" si="5">I323-J323</f>
-        <v>-2.1126000000000002E-2</v>
+        <v>1.6373E-3</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
@@ -8650,8 +8336,7 @@
         <v>0.10609</v>
       </c>
       <c r="K324" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.6773000000000005E-2</v>
+        <v>0.12114</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -8669,8 +8354,7 @@
         <v>6.6116000000000001</v>
       </c>
       <c r="K325" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.6356999999999999</v>
+        <v>8.8147000000000002</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
@@ -8688,8 +8372,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K326" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.1243000000000001E-2</v>
+        <v>1.8586E-3</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
@@ -8707,8 +8390,7 @@
         <v>0.10599</v>
       </c>
       <c r="K327" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.6293999999999998E-2</v>
+        <v>9.9337999999999996E-2</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
@@ -8726,8 +8408,7 @@
         <v>6.8570000000000002</v>
       </c>
       <c r="K328" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.68670000000000009</v>
+        <v>8.9618000000000002</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
@@ -8745,8 +8426,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K329" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.13904E-2</v>
+        <v>1.7606E-3</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
@@ -8764,8 +8444,7 @@
         <v>0.10539</v>
       </c>
       <c r="K330" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.1268999999999991E-2</v>
+        <v>7.2878999999999999E-2</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
@@ -8783,8 +8462,7 @@
         <v>6.5548999999999999</v>
       </c>
       <c r="K331" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.86369999999999969</v>
+        <v>7.5128000000000004</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
@@ -8802,8 +8480,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K332" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.0699500000000003E-2</v>
+        <v>1.3167999999999999E-3</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
@@ -8821,8 +8498,7 @@
         <v>9.1209999999999999E-2</v>
       </c>
       <c r="K333" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.9550000000000011E-3</v>
+        <v>7.4564000000000005E-2</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
@@ -8840,8 +8516,7 @@
         <v>7.2408000000000001</v>
       </c>
       <c r="K334" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.71530000000000005</v>
+        <v>5.1130000000000004</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
@@ -8859,8 +8534,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K335" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.1366900000000001E-2</v>
+        <v>1.4643E-3</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
@@ -8878,8 +8552,7 @@
         <v>0.11926</v>
       </c>
       <c r="K336" s="5">
-        <f t="shared" si="5"/>
-        <v>-5.5355000000000001E-2</v>
+        <v>7.4579999999999994E-2</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -8897,8 +8570,7 @@
         <v>7.6813000000000002</v>
       </c>
       <c r="K337" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.5360000000000005</v>
+        <v>5.7878999999999996</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
@@ -8916,8 +8588,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K338" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.0469400000000002E-2</v>
+        <v>9.8540999999999993E-4</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -8935,8 +8606,7 @@
         <v>9.5906000000000005E-2</v>
       </c>
       <c r="K339" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.3709999999999999E-3</v>
+        <v>7.1027000000000007E-2</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -8954,8 +8624,7 @@
         <v>7.2161999999999997</v>
       </c>
       <c r="K340" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.4193999999999996</v>
+        <v>4.7309999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -8973,8 +8642,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K341" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.04271E-2</v>
+        <v>1.4698000000000001E-3</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
@@ -8992,8 +8660,7 @@
         <v>0.10964</v>
       </c>
       <c r="K342" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.5992999999999997E-2</v>
+        <v>8.2350000000000007E-2</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
@@ -9011,8 +8678,7 @@
         <v>5.6048</v>
       </c>
       <c r="K343" s="5">
-        <f t="shared" si="5"/>
-        <v>2.0850999999999997</v>
+        <v>6.9476000000000004</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
@@ -9030,8 +8696,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K344" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.13565E-2</v>
+        <v>1.6017E-3</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
@@ -9049,8 +8714,7 @@
         <v>0.1094</v>
       </c>
       <c r="K345" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.8991999999999994E-2</v>
+        <v>8.2054000000000002E-2</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
@@ -9068,8 +8732,7 @@
         <v>7.4611000000000001</v>
       </c>
       <c r="K346" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.0448000000000004</v>
+        <v>7.5092999999999996</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
@@ -9087,8 +8750,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K347" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.1045800000000003E-2</v>
+        <v>2.2449000000000002E-3</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -9106,8 +8768,7 @@
         <v>0.11212999999999999</v>
       </c>
       <c r="K348" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.9977999999999991E-2</v>
+        <v>6.9780999999999996E-2</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
@@ -9125,8 +8786,7 @@
         <v>6.0137999999999998</v>
       </c>
       <c r="K349" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.25889999999999969</v>
+        <v>7.6573000000000002</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
@@ -9144,8 +8804,7 @@
         <v>2.3113000000000002E-2</v>
       </c>
       <c r="K350" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.0929700000000002E-2</v>
+        <v>2.2989E-3</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
@@ -9163,8 +8822,7 @@
         <v>0.11964</v>
       </c>
       <c r="K351" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.1436000000000001E-2</v>
+        <v>0.10732</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
@@ -9184,8 +8842,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K352" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7477700000000001E-2</v>
+        <v>1.0403000000000001E-3</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
@@ -9203,8 +8860,7 @@
         <v>20.655000000000001</v>
       </c>
       <c r="K353" s="5">
-        <f t="shared" si="5"/>
-        <v>14.674999999999997</v>
+        <v>326.37</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
@@ -9222,8 +8878,7 @@
         <v>8.1785999999999998E-2</v>
       </c>
       <c r="K354" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.6908999999999999E-2</v>
+        <v>3.4042000000000003E-2</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
@@ -9241,8 +8896,7 @@
         <v>7.0149999999999997</v>
       </c>
       <c r="K355" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.0289999999999995</v>
+        <v>6.1786000000000003</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
@@ -9260,8 +8914,7 @@
         <v>0.85055000000000003</v>
       </c>
       <c r="K356" s="5">
-        <f t="shared" si="5"/>
-        <v>0.12247999999999992</v>
+        <v>0.82448999999999995</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
@@ -9279,8 +8932,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K357" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.6869000000000001E-2</v>
+        <v>1.1839000000000001E-3</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -9298,8 +8950,7 @@
         <v>9.1847999999999992</v>
       </c>
       <c r="K358" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.3736999999999995</v>
+        <v>10.313000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
@@ -9317,8 +8968,7 @@
         <v>7.1589E-2</v>
       </c>
       <c r="K359" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.8057000000000001E-2</v>
+        <v>2.7979E-2</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
@@ -9336,8 +8986,7 @@
         <v>6.1597</v>
       </c>
       <c r="K360" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.1218000000000004</v>
+        <v>7.0052000000000003</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
@@ -9355,8 +9004,7 @@
         <v>0.77385999999999999</v>
       </c>
       <c r="K361" s="5">
-        <f t="shared" si="5"/>
-        <v>0.21447000000000005</v>
+        <v>0.92139000000000004</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
@@ -9374,8 +9022,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K362" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.64012E-2</v>
+        <v>8.3204000000000004E-4</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -9393,8 +9040,7 @@
         <v>10.846</v>
       </c>
       <c r="K363" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.9859</v>
+        <v>1.7762</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
@@ -9412,8 +9058,7 @@
         <v>5.2878000000000001E-2</v>
       </c>
       <c r="K364" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.0510000000000042E-3</v>
+        <v>4.1167000000000002E-2</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
@@ -9431,8 +9076,7 @@
         <v>7.4615999999999998</v>
       </c>
       <c r="K365" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.9161000000000001</v>
+        <v>7.4058000000000002</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
@@ -9450,8 +9094,7 @@
         <v>0.83225000000000005</v>
       </c>
       <c r="K366" s="5">
-        <f t="shared" si="5"/>
-        <v>2.8799999999999937E-3</v>
+        <v>1.2494000000000001</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
@@ -9469,8 +9112,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K367" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7178899999999999E-2</v>
+        <v>1.4792E-3</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
@@ -9488,8 +9130,7 @@
         <v>14.29</v>
       </c>
       <c r="K368" s="5">
-        <f t="shared" si="5"/>
-        <v>-12.989799999999999</v>
+        <v>3.5916000000000001</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
@@ -9507,8 +9148,7 @@
         <v>6.2506999999999993E-2</v>
       </c>
       <c r="K369" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.1746999999999992E-2</v>
+        <v>3.5749999999999997E-2</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -9526,8 +9166,7 @@
         <v>7.8704000000000001</v>
       </c>
       <c r="K370" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.3975999999999997</v>
+        <v>4.2450000000000001</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
@@ -9545,8 +9184,7 @@
         <v>0.78495999999999999</v>
       </c>
       <c r="K371" s="5">
-        <f t="shared" si="5"/>
-        <v>7.4119999999999964E-2</v>
+        <v>0.87136999999999998</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
@@ -9564,8 +9202,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K372" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7293999999999999E-2</v>
+        <v>9.1056999999999998E-4</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
@@ -9583,8 +9220,7 @@
         <v>5.2389000000000001</v>
       </c>
       <c r="K373" s="5">
-        <f t="shared" si="5"/>
-        <v>8.8241000000000014</v>
+        <v>33.999000000000002</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
@@ -9602,8 +9238,7 @@
         <v>6.1998999999999999E-2</v>
       </c>
       <c r="K374" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.4893999999999999E-2</v>
+        <v>2.4506E-2</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
@@ -9621,8 +9256,7 @@
         <v>9.7484000000000002</v>
       </c>
       <c r="K375" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.7412000000000001</v>
+        <v>5.1230000000000002</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
@@ -9640,8 +9274,7 @@
         <v>0.75207999999999997</v>
       </c>
       <c r="K376" s="5">
-        <f t="shared" si="5"/>
-        <v>0.36171999999999993</v>
+        <v>1.0026999999999999</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
@@ -9659,8 +9292,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K377" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7243E-2</v>
+        <v>8.3945999999999999E-4</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
@@ -9678,8 +9310,7 @@
         <v>6.8695000000000004</v>
       </c>
       <c r="K378" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.7965000000000004</v>
+        <v>2.7854999999999999</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
@@ -9697,8 +9328,7 @@
         <v>7.0625999999999994E-2</v>
       </c>
       <c r="K379" s="5">
-        <f t="shared" si="5"/>
-        <v>-3.9199999999999992E-2</v>
+        <v>4.7726999999999999E-2</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
@@ -9716,8 +9346,7 @@
         <v>7.5369999999999999</v>
       </c>
       <c r="K380" s="5">
-        <f t="shared" si="5"/>
-        <v>0.15669999999999984</v>
+        <v>5.2348999999999997</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -9735,8 +9364,7 @@
         <v>0.71536999999999995</v>
       </c>
       <c r="K381" s="5">
-        <f t="shared" si="5"/>
-        <v>2.0170000000000021E-2</v>
+        <v>0.86668000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
@@ -9754,8 +9382,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K382" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.7692899999999999E-2</v>
+        <v>1.2463000000000001E-3</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
@@ -9773,8 +9400,7 @@
         <v>9.6295999999999999</v>
       </c>
       <c r="K383" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.9277999999999995</v>
+        <v>1.4631000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
@@ -9792,8 +9418,7 @@
         <v>7.4865000000000001E-2</v>
       </c>
       <c r="K384" s="5">
-        <f t="shared" si="5"/>
-        <v>-5.2678000000000003E-2</v>
+        <v>4.0454999999999998E-2</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
@@ -9811,8 +9436,7 @@
         <v>9.1785999999999994</v>
       </c>
       <c r="K385" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.0371999999999995</v>
+        <v>4.8704000000000001</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
@@ -9830,8 +9454,7 @@
         <v>0.84643999999999997</v>
       </c>
       <c r="K386" s="5">
-        <f t="shared" si="5"/>
-        <v>0.2617600000000001</v>
+        <v>1.0714999999999999</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
@@ -9849,8 +9472,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K387" s="5">
-        <f t="shared" ref="K387:K450" si="6">I387-J387</f>
-        <v>-2.7182999999999999E-2</v>
+        <v>1.5188999999999999E-3</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
@@ -9868,8 +9490,7 @@
         <v>7.0312999999999999</v>
       </c>
       <c r="K388" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.6251999999999995</v>
+        <v>2.4752999999999998</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
@@ -9887,8 +9508,7 @@
         <v>7.5653999999999999E-2</v>
       </c>
       <c r="K389" s="5">
-        <f t="shared" si="6"/>
-        <v>-4.8156999999999998E-2</v>
+        <v>2.7865999999999998E-2</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
@@ -9906,8 +9526,7 @@
         <v>8.7383000000000006</v>
       </c>
       <c r="K390" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.1386000000000003</v>
+        <v>5.6554000000000002</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
@@ -9925,8 +9544,7 @@
         <v>0.75270999999999999</v>
       </c>
       <c r="K391" s="5">
-        <f t="shared" si="6"/>
-        <v>0.10769000000000006</v>
+        <v>1.0164</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -9944,8 +9562,7 @@
         <v>2.8856E-2</v>
       </c>
       <c r="K392" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.67277E-2</v>
+        <v>1.3847E-3</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
@@ -9963,8 +9580,7 @@
         <v>61.1</v>
       </c>
       <c r="K393" s="5">
-        <f t="shared" si="6"/>
-        <v>-51.597000000000001</v>
+        <v>253.62</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
@@ -9982,8 +9598,7 @@
         <v>5.7942E-2</v>
       </c>
       <c r="K394" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.0312000000000004E-2</v>
+        <v>1.8065000000000001E-2</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -10001,8 +9616,7 @@
         <v>7.7885999999999997</v>
       </c>
       <c r="K395" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.3521000000000001</v>
+        <v>4.9561999999999999</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
@@ -10020,8 +9634,7 @@
         <v>0.73997999999999997</v>
       </c>
       <c r="K396" s="5">
-        <f t="shared" si="6"/>
-        <v>0.40242000000000011</v>
+        <v>1.1046</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -10039,8 +9652,7 @@
         <v>2.4634E-2</v>
       </c>
       <c r="K397" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.2378800000000001E-2</v>
+        <v>8.8553999999999998E-4</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
@@ -10058,8 +9670,7 @@
         <v>7.3708999999999998</v>
       </c>
       <c r="K398" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.8850999999999996</v>
+        <v>4.0353000000000003</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
@@ -10077,8 +9688,7 @@
         <v>6.2726000000000004E-2</v>
       </c>
       <c r="K399" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.2355000000000009E-2</v>
+        <v>5.4386999999999998E-2</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
@@ -10096,8 +9706,7 @@
         <v>8.3500999999999994</v>
       </c>
       <c r="K400" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.2073999999999998</v>
+        <v>9.6757000000000009</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
@@ -10115,8 +9724,7 @@
         <v>0.74543000000000004</v>
       </c>
       <c r="K401" s="5">
-        <f t="shared" si="6"/>
-        <v>0.23282999999999998</v>
+        <v>1.1425000000000001</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
@@ -10134,10 +9742,6 @@
       </c>
       <c r="J402" s="5">
         <v>88.698999999999998</v>
-      </c>
-      <c r="K402" s="5">
-        <f t="shared" si="6"/>
-        <v>-84.194199999999995</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -10154,10 +9758,6 @@
       <c r="J403" s="5">
         <v>6.1345999999999998E-2</v>
       </c>
-      <c r="K403" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.3968999999999999E-2</v>
-      </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
@@ -10173,10 +9773,6 @@
       <c r="J404" s="5">
         <v>7.0528000000000004</v>
       </c>
-      <c r="K404" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.8254000000000006</v>
-      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
@@ -10192,10 +9788,6 @@
       <c r="J405" s="5">
         <v>4.5359000000000003E-4</v>
       </c>
-      <c r="K405" s="5">
-        <f t="shared" si="6"/>
-        <v>3.8238999999999992E-4</v>
-      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
@@ -10211,10 +9803,6 @@
       <c r="J406" s="5">
         <v>0.78073000000000004</v>
       </c>
-      <c r="K406" s="5">
-        <f t="shared" si="6"/>
-        <v>0.11059999999999992</v>
-      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
@@ -10230,10 +9818,6 @@
       <c r="J407" s="5">
         <v>5.5532000000000004</v>
       </c>
-      <c r="K407" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.3043000000000005</v>
-      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
@@ -10249,10 +9833,6 @@
       <c r="J408" s="5">
         <v>8.4622000000000003E-2</v>
       </c>
-      <c r="K408" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.5726999999999999E-2</v>
-      </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
@@ -10268,10 +9848,6 @@
       <c r="J409" s="5">
         <v>8.4176000000000002</v>
       </c>
-      <c r="K409" s="5">
-        <f t="shared" si="6"/>
-        <v>-4.1481000000000003</v>
-      </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
@@ -10287,10 +9863,6 @@
       <c r="J410" s="5">
         <v>5.4104999999999995E-4</v>
       </c>
-      <c r="K410" s="5">
-        <f t="shared" si="6"/>
-        <v>8.7135000000000012E-4</v>
-      </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
@@ -10306,10 +9878,6 @@
       <c r="J411" s="5">
         <v>0.78798000000000001</v>
       </c>
-      <c r="K411" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.8150000000000017E-2</v>
-      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
@@ -10325,10 +9893,6 @@
       <c r="J412" s="5">
         <v>2.7309000000000001</v>
       </c>
-      <c r="K412" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3925000000000001</v>
-      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
@@ -10344,10 +9908,6 @@
       <c r="J413" s="5">
         <v>7.4894000000000002E-2</v>
       </c>
-      <c r="K413" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.1697000000000007E-2</v>
-      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
@@ -10363,10 +9923,6 @@
       <c r="J414" s="5">
         <v>8.6753999999999998</v>
       </c>
-      <c r="K414" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.2679999999999998</v>
-      </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
@@ -10382,10 +9938,6 @@
       <c r="J415" s="5">
         <v>4.1281999999999999E-4</v>
       </c>
-      <c r="K415" s="5">
-        <f t="shared" si="6"/>
-        <v>6.6988000000000008E-4</v>
-      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
@@ -10401,12 +9953,8 @@
       <c r="J416" s="5">
         <v>0.75751000000000002</v>
       </c>
-      <c r="K416" s="5">
-        <f t="shared" si="6"/>
-        <v>3.171999999999997E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
       <c r="B417">
         <v>16</v>
@@ -10420,12 +9968,8 @@
       <c r="J417" s="5">
         <v>14.712</v>
       </c>
-      <c r="K417" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.722999999999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
       <c r="B418">
         <v>17</v>
@@ -10439,12 +9983,8 @@
       <c r="J418" s="5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K418" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.0919000000000002E-2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
       <c r="B419">
         <v>18</v>
@@ -10458,12 +9998,8 @@
       <c r="J419" s="5">
         <v>8.8011999999999997</v>
       </c>
-      <c r="K419" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.8004999999999995</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
       <c r="B420">
         <v>19</v>
@@ -10477,12 +10013,8 @@
       <c r="J420" s="5">
         <v>5.5405999999999999E-4</v>
       </c>
-      <c r="K420" s="5">
-        <f t="shared" si="6"/>
-        <v>1.00774E-3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
       <c r="B421">
         <v>20</v>
@@ -10496,12 +10028,8 @@
       <c r="J421" s="5">
         <v>0.76361999999999997</v>
       </c>
-      <c r="K421" s="5">
-        <f t="shared" si="6"/>
-        <v>0.30157999999999996</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
       <c r="B422">
         <v>21</v>
@@ -10515,12 +10043,8 @@
       <c r="J422" s="5">
         <v>14.94</v>
       </c>
-      <c r="K422" s="5">
-        <f t="shared" si="6"/>
-        <v>-11.216199999999999</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
       <c r="B423">
         <v>22</v>
@@ -10534,12 +10058,8 @@
       <c r="J423" s="5">
         <v>9.1203999999999993E-2</v>
       </c>
-      <c r="K423" s="5">
-        <f t="shared" si="6"/>
-        <v>-6.2255999999999992E-2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
       <c r="B424">
         <v>23</v>
@@ -10553,12 +10073,8 @@
       <c r="J424" s="5">
         <v>8.7005999999999997</v>
       </c>
-      <c r="K424" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.101</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425">
         <v>24</v>
@@ -10572,12 +10088,8 @@
       <c r="J425" s="5">
         <v>4.4817000000000001E-4</v>
       </c>
-      <c r="K425" s="5">
-        <f t="shared" si="6"/>
-        <v>1.4327300000000001E-3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
       <c r="B426">
         <v>25</v>
@@ -10591,12 +10103,8 @@
       <c r="J426" s="5">
         <v>0.72867000000000004</v>
       </c>
-      <c r="K426" s="5">
-        <f t="shared" si="6"/>
-        <v>0.44512999999999991</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
       <c r="B427">
         <v>26</v>
@@ -10610,12 +10118,8 @@
       <c r="J427" s="5">
         <v>10.798</v>
       </c>
-      <c r="K427" s="5">
-        <f t="shared" si="6"/>
-        <v>1.0860000000000003</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
       <c r="B428">
         <v>27</v>
@@ -10629,12 +10133,8 @@
       <c r="J428" s="5">
         <v>6.9540000000000005E-2</v>
       </c>
-      <c r="K428" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.9527000000000007E-2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
       <c r="B429">
         <v>28</v>
@@ -10648,12 +10148,8 @@
       <c r="J429" s="5">
         <v>9.0841999999999992</v>
       </c>
-      <c r="K429" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.53289999999999971</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
       <c r="B430">
         <v>29</v>
@@ -10667,12 +10163,8 @@
       <c r="J430" s="5">
         <v>4.862E-4</v>
       </c>
-      <c r="K430" s="5">
-        <f t="shared" si="6"/>
-        <v>1.0892E-3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
       <c r="B431">
         <v>30</v>
@@ -10686,12 +10178,8 @@
       <c r="J431" s="5">
         <v>0.73641999999999996</v>
       </c>
-      <c r="K431" s="5">
-        <f t="shared" si="6"/>
-        <v>3.3580000000000054E-2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
       <c r="B432">
         <v>31</v>
@@ -10705,12 +10193,8 @@
       <c r="J432" s="5">
         <v>9.3192000000000004</v>
       </c>
-      <c r="K432" s="5">
-        <f t="shared" si="6"/>
-        <v>17.425800000000002</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
       <c r="B433">
         <v>32</v>
@@ -10724,12 +10208,8 @@
       <c r="J433" s="5">
         <v>7.3324E-2</v>
       </c>
-      <c r="K433" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.8559999999999997E-2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434">
         <v>33</v>
@@ -10743,12 +10223,8 @@
       <c r="J434" s="5">
         <v>7.8125999999999998</v>
       </c>
-      <c r="K434" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.1177000000000001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
       <c r="B435">
         <v>34</v>
@@ -10762,12 +10238,8 @@
       <c r="J435" s="5">
         <v>5.4544000000000001E-4</v>
       </c>
-      <c r="K435" s="5">
-        <f t="shared" si="6"/>
-        <v>7.5225999999999993E-4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
       <c r="B436">
         <v>35</v>
@@ -10781,12 +10253,8 @@
       <c r="J436" s="5">
         <v>0.72711000000000003</v>
       </c>
-      <c r="K436" s="5">
-        <f t="shared" si="6"/>
-        <v>0.38868999999999987</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
       <c r="B437">
         <v>36</v>
@@ -10800,12 +10268,8 @@
       <c r="J437" s="5">
         <v>10.663</v>
       </c>
-      <c r="K437" s="5">
-        <f t="shared" si="6"/>
-        <v>-9.0264000000000006</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
       <c r="B438">
         <v>37</v>
@@ -10819,12 +10283,8 @@
       <c r="J438" s="5">
         <v>8.2674999999999998E-2</v>
       </c>
-      <c r="K438" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.9319E-2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
       <c r="B439">
         <v>38</v>
@@ -10838,12 +10298,8 @@
       <c r="J439" s="5">
         <v>9.0778999999999996</v>
       </c>
-      <c r="K439" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.4631999999999996</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
       <c r="B440">
         <v>39</v>
@@ -10857,12 +10313,8 @@
       <c r="J440" s="5">
         <v>4.7732999999999999E-4</v>
       </c>
-      <c r="K440" s="5">
-        <f t="shared" si="6"/>
-        <v>1.6070700000000002E-3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
       <c r="B441">
         <v>40</v>
@@ -10876,12 +10328,8 @@
       <c r="J441" s="5">
         <v>0.73463000000000001</v>
       </c>
-      <c r="K441" s="5">
-        <f t="shared" si="6"/>
-        <v>0.25088999999999995</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
       <c r="B442">
         <v>41</v>
@@ -10895,12 +10343,8 @@
       <c r="J442" s="5">
         <v>17.053999999999998</v>
       </c>
-      <c r="K442" s="5">
-        <f t="shared" si="6"/>
-        <v>-8.4372999999999987</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
       <c r="B443">
         <v>42</v>
@@ -10914,12 +10358,8 @@
       <c r="J443" s="5">
         <v>7.6669000000000001E-2</v>
       </c>
-      <c r="K443" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.7411000000000004E-2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
       <c r="B444">
         <v>43</v>
@@ -10933,12 +10373,8 @@
       <c r="J444" s="5">
         <v>8.0968</v>
       </c>
-      <c r="K444" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.3254000000000001</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445">
         <v>44</v>
@@ -10952,12 +10388,8 @@
       <c r="J445" s="5">
         <v>5.1179000000000003E-4</v>
       </c>
-      <c r="K445" s="5">
-        <f t="shared" si="6"/>
-        <v>8.4480999999999988E-4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
       <c r="B446">
         <v>45</v>
@@ -10971,12 +10403,8 @@
       <c r="J446" s="5">
         <v>0.79376000000000002</v>
       </c>
-      <c r="K446" s="5">
-        <f t="shared" si="6"/>
-        <v>-8.2990000000000008E-2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
       <c r="B447">
         <v>46</v>
@@ -10990,12 +10418,8 @@
       <c r="J447" s="5">
         <v>12.989000000000001</v>
       </c>
-      <c r="K447" s="5">
-        <f t="shared" si="6"/>
-        <v>-9.4336000000000002</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
       <c r="B448">
         <v>47</v>
@@ -11009,12 +10433,8 @@
       <c r="J448" s="5">
         <v>7.0066000000000003E-2</v>
       </c>
-      <c r="K448" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.6512000000000003E-2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
       <c r="B449">
         <v>48</v>
@@ -11028,12 +10448,8 @@
       <c r="J449" s="5">
         <v>7.4175000000000004</v>
       </c>
-      <c r="K449" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.1854000000000005</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
       <c r="B450">
         <v>49</v>
@@ -11047,12 +10463,8 @@
       <c r="J450" s="5">
         <v>1.1969000000000001E-3</v>
       </c>
-      <c r="K450" s="5">
-        <f t="shared" si="6"/>
-        <v>4.9569999999999996E-4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
       <c r="B451">
         <v>50</v>
@@ -11066,12 +10478,8 @@
       <c r="J451" s="5">
         <v>0.87714000000000003</v>
       </c>
-      <c r="K451" s="5">
-        <f t="shared" ref="K451:K501" si="7">I451-J451</f>
-        <v>1.9369999999999998E-2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
         <v>65</v>
       </c>
@@ -11087,12 +10495,8 @@
       <c r="J452" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K452" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.71133E-2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
       <c r="B453">
         <v>2</v>
@@ -11106,12 +10510,8 @@
       <c r="J453" s="5">
         <v>4.4621000000000004</v>
       </c>
-      <c r="K453" s="5">
-        <f t="shared" si="7"/>
-        <v>3.0438999999999998</v>
-      </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454">
         <v>3</v>
@@ -11125,12 +10525,8 @@
       <c r="J454" s="5">
         <v>0.11144</v>
       </c>
-      <c r="K454" s="5">
-        <f t="shared" si="7"/>
-        <v>-7.7914999999999998E-2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
       <c r="B455">
         <v>4</v>
@@ -11144,12 +10540,8 @@
       <c r="J455" s="5">
         <v>8.5495999999999999</v>
       </c>
-      <c r="K455" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.3003999999999998</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
       <c r="B456">
         <v>5</v>
@@ -11163,12 +10555,8 @@
       <c r="J456" s="5">
         <v>6.2164000000000002E-4</v>
       </c>
-      <c r="K456" s="5">
-        <f t="shared" si="7"/>
-        <v>1.15256E-3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
       <c r="B457">
         <v>6</v>
@@ -11182,12 +10570,8 @@
       <c r="J457" s="5">
         <v>0.78266999999999998</v>
       </c>
-      <c r="K457" s="5">
-        <f t="shared" si="7"/>
-        <v>0.27672999999999992</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
       <c r="B458">
         <v>7</v>
@@ -11201,12 +10585,8 @@
       <c r="J458" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K458" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7518600000000001E-2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
       <c r="B459">
         <v>8</v>
@@ -11220,12 +10600,8 @@
       <c r="J459" s="5">
         <v>10.863</v>
       </c>
-      <c r="K459" s="5">
-        <f t="shared" si="7"/>
-        <v>6.0000000000002274E-3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
       <c r="B460">
         <v>9</v>
@@ -11239,12 +10615,8 @@
       <c r="J460" s="5">
         <v>8.1381999999999996E-2</v>
       </c>
-      <c r="K460" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.2319999999999997E-2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
       <c r="B461">
         <v>10</v>
@@ -11258,12 +10630,8 @@
       <c r="J461" s="5">
         <v>7.2289000000000003</v>
       </c>
-      <c r="K461" s="5">
-        <f t="shared" si="7"/>
-        <v>8.599999999999941E-2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
       <c r="B462">
         <v>11</v>
@@ -11277,12 +10645,8 @@
       <c r="J462" s="5">
         <v>5.3397999999999998E-4</v>
       </c>
-      <c r="K462" s="5">
-        <f t="shared" si="7"/>
-        <v>1.3721200000000001E-3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
       <c r="B463">
         <v>12</v>
@@ -11296,12 +10660,8 @@
       <c r="J463" s="5">
         <v>0.77076</v>
       </c>
-      <c r="K463" s="5">
-        <f t="shared" si="7"/>
-        <v>0.23074000000000006</v>
-      </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
       <c r="B464">
         <v>13</v>
@@ -11315,12 +10675,8 @@
       <c r="J464" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K464" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.6771900000000001E-2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
       <c r="B465">
         <v>14</v>
@@ -11334,12 +10690,8 @@
       <c r="J465" s="5">
         <v>16.280999999999999</v>
       </c>
-      <c r="K465" s="5">
-        <f t="shared" si="7"/>
-        <v>-11.351799999999999</v>
-      </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
       <c r="B466">
         <v>15</v>
@@ -11353,12 +10705,8 @@
       <c r="J466" s="5">
         <v>6.6677E-2</v>
       </c>
-      <c r="K466" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.5781999999999999E-2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
       <c r="B467">
         <v>16</v>
@@ -11372,12 +10720,8 @@
       <c r="J467" s="5">
         <v>7.2477</v>
       </c>
-      <c r="K467" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.1417999999999999</v>
-      </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
       <c r="B468">
         <v>17</v>
@@ -11391,12 +10735,8 @@
       <c r="J468" s="5">
         <v>4.7941999999999999E-4</v>
       </c>
-      <c r="K468" s="5">
-        <f t="shared" si="7"/>
-        <v>1.8580800000000002E-3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
       <c r="B469">
         <v>18</v>
@@ -11410,12 +10750,8 @@
       <c r="J469" s="5">
         <v>0.84714</v>
       </c>
-      <c r="K469" s="5">
-        <f t="shared" si="7"/>
-        <v>-8.7470000000000048E-2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
       <c r="B470">
         <v>19</v>
@@ -11429,12 +10765,8 @@
       <c r="J470" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K470" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7325599999999999E-2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
       <c r="B471">
         <v>20</v>
@@ -11448,12 +10780,8 @@
       <c r="J471" s="5">
         <v>65.427999999999997</v>
       </c>
-      <c r="K471" s="5">
-        <f t="shared" si="7"/>
-        <v>-11.393000000000001</v>
-      </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
       <c r="B472">
         <v>21</v>
@@ -11467,12 +10795,8 @@
       <c r="J472" s="5">
         <v>8.9122000000000007E-2</v>
       </c>
-      <c r="K472" s="5">
-        <f t="shared" si="7"/>
-        <v>-6.0546000000000003E-2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
       <c r="B473">
         <v>22</v>
@@ -11486,12 +10810,8 @@
       <c r="J473" s="5">
         <v>9.1974</v>
       </c>
-      <c r="K473" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.7206000000000001</v>
-      </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
       <c r="B474">
         <v>23</v>
@@ -11505,12 +10825,8 @@
       <c r="J474" s="5">
         <v>5.3386000000000004E-4</v>
       </c>
-      <c r="K474" s="5">
-        <f t="shared" si="7"/>
-        <v>1.28714E-3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
       <c r="B475">
         <v>24</v>
@@ -11524,12 +10840,8 @@
       <c r="J475" s="5">
         <v>0.86699000000000004</v>
       </c>
-      <c r="K475" s="5">
-        <f t="shared" si="7"/>
-        <v>1.6490000000000005E-2</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
       <c r="B476">
         <v>25</v>
@@ -11543,12 +10855,8 @@
       <c r="J476" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K476" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7260900000000001E-2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
       <c r="B477">
         <v>26</v>
@@ -11562,12 +10870,8 @@
       <c r="J477" s="5">
         <v>5.1045999999999996</v>
       </c>
-      <c r="K477" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.1727999999999996</v>
-      </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
       <c r="B478">
         <v>27</v>
@@ -11581,12 +10885,8 @@
       <c r="J478" s="5">
         <v>6.6417000000000004E-2</v>
       </c>
-      <c r="K478" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.3223000000000004E-2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
       <c r="B479">
         <v>28</v>
@@ -11600,12 +10900,8 @@
       <c r="J479" s="5">
         <v>7.9836</v>
       </c>
-      <c r="K479" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.8479999999999999</v>
-      </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
       <c r="B480">
         <v>29</v>
@@ -11619,12 +10915,8 @@
       <c r="J480" s="5">
         <v>5.0604999999999997E-4</v>
       </c>
-      <c r="K480" s="5">
-        <f t="shared" si="7"/>
-        <v>7.8014999999999996E-4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
       <c r="B481">
         <v>30</v>
@@ -11638,12 +10930,8 @@
       <c r="J481" s="5">
         <v>0.82708000000000004</v>
       </c>
-      <c r="K481" s="5">
-        <f t="shared" si="7"/>
-        <v>0.14030999999999993</v>
-      </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
       <c r="B482">
         <v>31</v>
@@ -11657,12 +10945,8 @@
       <c r="J482" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K482" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.6924199999999999E-2</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
       <c r="B483">
         <v>32</v>
@@ -11676,12 +10960,8 @@
       <c r="J483" s="5">
         <v>44.664999999999999</v>
       </c>
-      <c r="K483" s="5">
-        <f t="shared" si="7"/>
-        <v>-33.835000000000001</v>
-      </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
       <c r="B484">
         <v>33</v>
@@ -11695,12 +10975,8 @@
       <c r="J484" s="5">
         <v>8.0904000000000004E-2</v>
       </c>
-      <c r="K484" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.4858000000000002E-2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
       <c r="B485">
         <v>34</v>
@@ -11714,12 +10990,8 @@
       <c r="J485" s="5">
         <v>6.7382999999999997</v>
       </c>
-      <c r="K485" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.2699999999999996</v>
-      </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
       <c r="B486">
         <v>35</v>
@@ -11733,12 +11005,8 @@
       <c r="J486" s="5">
         <v>6.0362999999999997E-4</v>
       </c>
-      <c r="K486" s="5">
-        <f t="shared" si="7"/>
-        <v>6.5916999999999994E-4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
       <c r="B487">
         <v>36</v>
@@ -11752,12 +11020,8 @@
       <c r="J487" s="5">
         <v>0.70440000000000003</v>
       </c>
-      <c r="K487" s="5">
-        <f t="shared" si="7"/>
-        <v>0.35809999999999997</v>
-      </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
       <c r="B488">
         <v>37</v>
@@ -11771,12 +11035,8 @@
       <c r="J488" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K488" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.6303E-2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
       <c r="B489">
         <v>38</v>
@@ -11790,12 +11050,8 @@
       <c r="J489" s="5">
         <v>18.497</v>
       </c>
-      <c r="K489" s="5">
-        <f t="shared" si="7"/>
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
       <c r="B490">
         <v>39</v>
@@ -11809,12 +11065,8 @@
       <c r="J490" s="5">
         <v>7.0259000000000002E-2</v>
       </c>
-      <c r="K490" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.2417000000000001E-2</v>
-      </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
       <c r="B491">
         <v>40</v>
@@ -11828,12 +11080,8 @@
       <c r="J491" s="5">
         <v>7.9898999999999996</v>
       </c>
-      <c r="K491" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.7703999999999995</v>
-      </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
       <c r="B492">
         <v>41</v>
@@ -11847,12 +11095,8 @@
       <c r="J492" s="5">
         <v>5.1652999999999996E-4</v>
       </c>
-      <c r="K492" s="5">
-        <f t="shared" si="7"/>
-        <v>1.3201699999999999E-3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
       <c r="B493">
         <v>42</v>
@@ -11866,12 +11110,8 @@
       <c r="J493" s="5">
         <v>0.72862000000000005</v>
       </c>
-      <c r="K493" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.2720000000000082E-2</v>
-      </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
       <c r="B494">
         <v>43</v>
@@ -11885,12 +11125,8 @@
       <c r="J494" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K494" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7116600000000001E-2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
       <c r="B495">
         <v>44</v>
@@ -11904,12 +11140,8 @@
       <c r="J495" s="5">
         <v>9.1877999999999993</v>
       </c>
-      <c r="K495" s="5">
-        <f t="shared" si="7"/>
-        <v>-7.5580999999999996</v>
-      </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
       <c r="B496">
         <v>45</v>
@@ -11923,12 +11155,8 @@
       <c r="J496" s="5">
         <v>7.9471E-2</v>
       </c>
-      <c r="K496" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.8071000000000003E-2</v>
-      </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
       <c r="B497">
         <v>46</v>
@@ -11942,12 +11170,8 @@
       <c r="J497" s="5">
         <v>8.2477999999999998</v>
       </c>
-      <c r="K497" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.1567999999999996</v>
-      </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
       <c r="B498">
         <v>47</v>
@@ -11961,12 +11185,8 @@
       <c r="J498" s="5">
         <v>4.9353999999999999E-4</v>
       </c>
-      <c r="K498" s="5">
-        <f t="shared" si="7"/>
-        <v>9.6615999999999998E-4</v>
-      </c>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
       <c r="B499">
         <v>48</v>
@@ -11980,12 +11200,8 @@
       <c r="J499" s="5">
         <v>0.70691999999999999</v>
       </c>
-      <c r="K499" s="5">
-        <f t="shared" si="7"/>
-        <v>0.17403000000000002</v>
-      </c>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
       <c r="B500">
         <v>49</v>
@@ -11999,12 +11215,8 @@
       <c r="J500" s="5">
         <v>2.8856E-2</v>
       </c>
-      <c r="K500" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.6861099999999999E-2</v>
-      </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
       <c r="B501">
         <v>50</v>
@@ -12017,10 +11229,6 @@
       </c>
       <c r="J501" s="5">
         <v>2.3858000000000001</v>
-      </c>
-      <c r="K501" s="5">
-        <f t="shared" si="7"/>
-        <v>0.62709999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12037,44 +11245,7 @@
     <mergeCell ref="A252:A301"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K501">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="-0.01"/>
-        <cfvo type="num" val="0.01"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B36E93B2-A50B-4CFB-96C3-6C6C7543EF13}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B36E93B2-A50B-4CFB-96C3-6C6C7543EF13}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>-0.01</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0.01</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>K2:K501</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Algo_Compare.xlsx
+++ b/Algo_Compare.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32FBEC-0560-4E19-BBCF-380908B072C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3F453-B123-44C8-B277-77912B06C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="15795" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_CEC2021" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary_WCCI2020" sheetId="2" r:id="rId2"/>
+    <sheet name="dev_CEC2021" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary_WCCI2020" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="83">
   <si>
     <t>Task</t>
   </si>
@@ -289,6 +290,26 @@
     <t>MTEA-AD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>k1=10,k2=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaOEAC,10, 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaOEAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaOEAC, 5, 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +420,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,1792 +709,3173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
-        <v>4.3638999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="5">
+        <v>5.3654000000000002E-3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>6.6999E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.8574E-3</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>3.4795E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
-        <v>4.7001000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <v>3.7031E-4</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.5660000000000001E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.4267E-3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>3.4642000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.39302999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="5">
+        <v>1.0259000000000001E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.702E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.4801E-2</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>1.6372000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
-        <v>8.9268E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>4.7952000000000003E-3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4.6589999999999999E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.3001000000000003E-3</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>3.362E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.10782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>1.1303000000000001E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9.8264000000000008E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.3229000000000002E-3</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>7.1985E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
-        <v>3.9198999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>6.6731999999999998E-3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3.8238E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.0384000000000001E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3.1231000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
-        <v>1.5161000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <v>2.8322999999999998E-4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7.306E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.0208999999999999E-3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>8.1466999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.45029000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>1.4793000000000001E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.9272000000000001E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.6837999999999999E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.9788E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="5">
-        <v>5.7181999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>9.2798000000000002E-4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.2976999999999999E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.1137999999999999E-3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.1456000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.10446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
+        <v>1.1279000000000001E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9.5805999999999999E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.9588000000000002E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6.5973999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5">
-        <v>3.6093E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>1.6689000000000001E-3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.294E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.4162999999999999E-3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.0311000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5">
-        <v>3.4197999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>4.2561999999999998E-4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2.1849999999999999E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.1860999999999998E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2.5474999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.42714000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>1.0151E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1.5573E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.5216E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.5755999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5">
-        <v>9.5734E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>4.5458E-3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5.7473000000000003E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.2119000000000002E-3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2.0284999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
-        <v>9.0043999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>3.1637000000000002E-3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.5089E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3.4645000000000001E-3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1.2276E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
-        <v>5.0510000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>5.2512000000000003E-2</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="H17" s="5">
+        <v>1.7188000000000001</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1.4192E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5">
-        <v>0.27662999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>1.4683E-2</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="H18" s="5">
+        <v>1.0208999999999999E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>3.3841000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5">
-        <v>1.6408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>1.8950000000000002E-2</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="H19" s="5">
+        <v>4.9657E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5.8292999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="5">
-        <v>0.13213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>7.4800999999999999E-3</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="H20" s="5">
+        <v>4.0232999999999996E-3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2.5917000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5">
-        <v>1.3499000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>1.6985E-2</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="H21" s="5">
+        <v>3.9905999999999997E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>7.9506000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="5">
-        <v>3.3176999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="5">
+        <v>5.6321999999999997E-2</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="H22" s="5">
+        <v>8.9724999999999999E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1.2759E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="5">
-        <v>0.36825999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="5">
+        <v>7.5131E-3</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="H23" s="5">
+        <v>9.1006999999999998E-3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3.0095999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5">
-        <v>0.40986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="5">
+        <v>0.10238</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="H24" s="5">
+        <v>1.5991999999999999E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5.3749999999999996E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.16772999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="5">
+        <v>1.0834999999999999E-2</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="H25" s="5">
+        <v>5.5474000000000001E-3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="5">
-        <v>0.44120999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="5">
+        <v>0.35579</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="H26" s="5">
+        <v>1.4468E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3.3666E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="5">
-        <v>5.0970000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="12">
+        <v>3.8455999999999998E-3</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="H27" s="5">
+        <v>2.0181999999999999E-3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.3553E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="5">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="12">
+        <v>0.80801999999999996</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="H28" s="5">
+        <v>0.47394999999999998</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.51619000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="5">
-        <v>5.3212000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="12">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="H29" s="5">
+        <v>5.8728000000000003E-4</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.0150999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="5">
-        <v>5.3874999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="12">
+        <v>7.9784000000000001E-3</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="H30" s="5">
+        <v>1.4107E-3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1.2818E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="5">
-        <v>8.1057000000000004E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="12">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="H31" s="5">
+        <v>1.3056999999999999E-3</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.60170000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="5">
-        <v>4.5476000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="12">
+        <v>2.3535000000000001E-3</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="H32" s="5">
+        <v>5.2892E-4</v>
+      </c>
+      <c r="K32" s="5">
+        <v>8.9302999999999995E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="5">
-        <v>81.837000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="12">
+        <v>2.4340999999999999</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="H33" s="5">
+        <v>1.8556999999999999</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2.5404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="5">
-        <v>7.8768000000000005E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="12">
+        <v>1.8138000000000001E-2</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="H34" s="5">
+        <v>8.8582000000000005E-4</v>
+      </c>
+      <c r="K34" s="5">
+        <v>5.7448999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="5">
-        <v>5.1766E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="12">
+        <v>1.0524E-3</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="H35" s="5">
+        <v>5.5971000000000005E-4</v>
+      </c>
+      <c r="K35" s="5">
+        <v>6.7387999999999997E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="5">
-        <v>5.3367999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="12">
+        <v>4.2663000000000002</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="H36" s="5">
+        <v>1.5337E-3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3.1768000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="5">
-        <v>7.6732999999999996E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="12">
+        <v>1.6199000000000001E-3</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="H37" s="5">
+        <v>9.1881000000000005E-4</v>
+      </c>
+      <c r="K37" s="5">
+        <v>7.0962E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5">
-        <v>14.147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="12">
+        <v>0.40604000000000001</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="H38" s="5">
+        <v>0.14313999999999999</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.14485999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5">
-        <v>5.0404999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="12">
+        <v>6.8029000000000006E-2</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="H39" s="5">
+        <v>1.4078999999999999E-3</v>
+      </c>
+      <c r="K39" s="5">
+        <v>3.4329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="5">
-        <v>7.8065999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="12">
+        <v>4.0422000000000001E-3</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="H40" s="5">
+        <v>8.8831999999999995E-4</v>
+      </c>
+      <c r="K40" s="5">
+        <v>6.9612999999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="5">
-        <v>5.0881999999999997E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="12">
+        <v>3.0253999999999999</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="H41" s="5">
+        <v>1.4446000000000001E-3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.66815000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="5">
-        <v>5.1809000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="12">
+        <v>6.7257000000000003E-3</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="H42" s="5">
+        <v>1.3761999999999999E-3</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1.5644999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="5">
-        <v>81.671000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="12">
+        <v>1.569</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="H43" s="5">
+        <v>0.81830999999999998</v>
+      </c>
+      <c r="K43" s="5">
+        <v>5.7198000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="5">
-        <v>4.4274000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="12">
+        <v>9.1599000000000003E-3</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="H44" s="5">
+        <v>5.1665999999999995E-4</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1.3967999999999999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="5">
-        <v>5.1789000000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="12">
+        <v>2.8249E-3</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="H45" s="5">
+        <v>1.3802E-3</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1.2110000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="5">
-        <v>7.8157000000000004E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="12">
+        <v>2.14</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="H46" s="5">
+        <v>1.0778000000000001E-3</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.99512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="5">
+      <c r="C47" s="12">
+        <v>2.5306999999999999E-3</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="H47" s="5">
         <v>5.6665E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
+        <v>9.9869999999999994E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="5">
+      <c r="C48" s="12">
+        <v>2.4729000000000001</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="H48" s="5">
         <v>303.89</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J48" s="5"/>
+      <c r="K48" s="5">
+        <v>2.0316000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="5">
+      <c r="C49" s="12">
+        <v>1.0487999999999999E-3</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="H49" s="5">
         <v>5.0264999999999997E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5">
+        <v>4.7424000000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="5">
+      <c r="C50" s="12">
+        <v>1.6756E-3</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="H50" s="5">
         <v>6.9147E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J50" s="5"/>
+      <c r="K50" s="5">
+        <v>2.3040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="5">
+      <c r="C51" s="12">
+        <v>2.7732000000000001</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="H51" s="5">
         <v>310.43</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J51" s="5"/>
+      <c r="K51" s="5">
+        <v>2.5152000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="5">
+      <c r="C52" s="12">
+        <v>1.1179E-3</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="H52" s="5">
         <v>6.8581000000000003E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J52" s="5"/>
+      <c r="K52" s="5">
+        <v>1.4291E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="5">
+      <c r="C53" s="12">
+        <v>2.6489E-3</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="H53" s="5">
         <v>5.0861000000000003E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
+        <v>1.2172000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="5">
+      <c r="C54" s="12">
+        <v>2.0846</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="H54" s="5">
         <v>273.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
+        <v>2.7978000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="5">
+      <c r="C55" s="12">
+        <v>1.0485E-3</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="H55" s="5">
         <v>5.1560000000000002E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J55" s="5"/>
+      <c r="K55" s="5">
+        <v>4.7328000000000002E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="5">
+      <c r="C56" s="12">
+        <v>1.6919000000000001E-3</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="H56" s="5">
         <v>7.1439000000000002E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
+        <v>2.0731E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="5">
+      <c r="C57" s="12">
+        <v>2.6989000000000001</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="H57" s="5">
         <v>270.92</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
+        <v>2.2404999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="5">
+      <c r="C58" s="12">
+        <v>1.1337000000000001E-3</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="H58" s="5">
         <v>6.9903000000000007E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <v>1.2378999999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="5">
+      <c r="C59" s="12">
+        <v>2.6930999999999999E-3</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="H59" s="5">
         <v>5.0800999999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J59" s="5"/>
+      <c r="K59" s="5">
+        <v>1.0824000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="5">
+      <c r="C60" s="12">
+        <v>2.2797000000000001</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="H60" s="5">
         <v>258.81</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J60" s="5"/>
+      <c r="K60" s="5">
+        <v>2.4033000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="5">
+      <c r="C61" s="12">
+        <v>1.0118E-3</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="H61" s="5">
         <v>5.1250999999999998E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
+        <v>4.7937000000000001E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="5">
+      <c r="C62" s="12">
+        <v>1.7279999999999999E-3</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="H62" s="5">
         <v>6.7714999999999997E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J62" s="5"/>
+      <c r="K62" s="5">
+        <v>2.0496999999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="5">
+      <c r="C63" s="12">
+        <v>2.8803999999999998</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="H63" s="5">
         <v>279.31</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
+        <v>2.2231000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="5">
+      <c r="C64" s="12">
+        <v>1.1368000000000001E-3</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="H64" s="5">
         <v>6.8642999999999996E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
+        <v>1.2537E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="5">
+      <c r="C65" s="12">
+        <v>2.7843999999999998E-3</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="H65" s="5">
         <v>5.1443000000000003E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5">
+        <v>1.4579E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="5">
+      <c r="C66" s="12">
+        <v>2.1539000000000001</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="H66" s="5">
         <v>259.08999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <v>2.8420999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="5">
+      <c r="C67" s="12">
+        <v>1.0476000000000001E-3</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="H67" s="5">
         <v>5.0901000000000002E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5">
+        <v>4.7420999999999997E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="5">
+      <c r="C68" s="12">
+        <v>1.6919000000000001E-3</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="H68" s="5">
         <v>6.8544999999999995E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="5">
+      <c r="C69" s="12">
+        <v>2.9857999999999998</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="H69" s="5">
         <v>278.23</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J69" s="5"/>
+      <c r="K69" s="5">
+        <v>2.1648000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="5">
+      <c r="C70" s="12">
+        <v>1.1310999999999999E-3</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="H70" s="5">
         <v>6.8641999999999995E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J70" s="5"/>
+      <c r="K70" s="5">
+        <v>1.3638999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="5">
+      <c r="C71" s="12">
+        <v>2.6809999999999998E-3</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="H71" s="5">
         <v>5.1207999999999997E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J71" s="5"/>
+      <c r="K71" s="5">
+        <v>1.2439E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="5">
+      <c r="C72" s="12">
+        <v>2.238</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="H72" s="5">
         <v>285.10000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J72" s="5"/>
+      <c r="K72" s="5">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="5">
+      <c r="C73" s="12">
+        <v>1.0382E-3</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="H73" s="5">
         <v>5.0542999999999998E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J73" s="5"/>
+      <c r="K73" s="5">
+        <v>4.86E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="5">
+      <c r="C74" s="12">
+        <v>1.7126000000000001E-3</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="H74" s="5">
         <v>6.9473999999999994E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J74" s="5"/>
+      <c r="K74" s="5">
+        <v>2.1026E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="5">
+      <c r="C75" s="12">
+        <v>3.0116999999999998</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="H75" s="5">
         <v>262.89</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J75" s="5"/>
+      <c r="K75" s="5">
+        <v>2.5754000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="5">
+      <c r="C76" s="12">
+        <v>1.1271E-3</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="H76" s="5">
         <v>6.9832000000000005E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J76" s="5"/>
+      <c r="K76" s="5">
+        <v>1.2936E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="5">
+      <c r="C77" s="12">
+        <v>39.761000000000003</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="H77" s="5">
         <v>2264.1999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I77" s="5"/>
+      <c r="K77" s="5">
+        <v>60.243000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="5">
+      <c r="C78" s="12">
+        <v>3.2419999999999997E-2</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="H78" s="5">
         <v>1.9397</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I78" s="5"/>
+      <c r="K78" s="5">
+        <v>4.6942999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="5">
+      <c r="C79" s="12">
+        <v>4.4762000000000004</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="H79" s="5">
         <v>239.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I79" s="5"/>
+      <c r="K79" s="5">
+        <v>3.6398000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="5">
+      <c r="C80" s="12">
+        <v>1.7271000000000001</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="H80" s="5">
         <v>68.141000000000005</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I80" s="5"/>
+      <c r="K80" s="5">
+        <v>2.1259000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="5">
+      <c r="C81" s="12">
+        <v>1.6808E-4</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="H81" s="5">
         <v>7.5360999999999996E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I81" s="5"/>
+      <c r="K81" s="5">
+        <v>2.9506999999999998E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="5">
+      <c r="C82" s="12">
+        <v>2.2341000000000002</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="H82" s="5">
         <v>257.68</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I82" s="5"/>
+      <c r="K82" s="5">
+        <v>11.291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="5">
+      <c r="C83" s="12">
+        <v>3.3457000000000001E-2</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="H83" s="5">
         <v>2.2523</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I83" s="5"/>
+      <c r="K83" s="5">
+        <v>3.5374999999999997E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="5">
+      <c r="C84" s="12">
+        <v>5.6783999999999999</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="H84" s="5">
         <v>249.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I84" s="5"/>
+      <c r="K84" s="5">
+        <v>3.2153999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="5">
+      <c r="C85" s="12">
+        <v>1.7690999999999999</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="H85" s="5">
         <v>68.037000000000006</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I85" s="5"/>
+      <c r="K85" s="5">
+        <v>2.1242000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="5">
+      <c r="C86" s="12">
+        <v>1.6872E-4</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="H86" s="5">
         <v>7.4454999999999999E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I86" s="5"/>
+      <c r="K86" s="5">
+        <v>2.7662999999999999E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="5">
+      <c r="C87" s="12">
+        <v>8.5648</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="H87" s="5">
         <v>176.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I87" s="5"/>
+      <c r="K87" s="5">
+        <v>5.7117000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="5">
+      <c r="C88" s="12">
+        <v>3.2604000000000001E-2</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="H88" s="5">
         <v>2.4005999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I88" s="5"/>
+      <c r="K88" s="5">
+        <v>3.4688999999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="5">
+      <c r="C89" s="12">
+        <v>5.5197000000000003</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="H89" s="5">
         <v>263.97000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I89" s="5"/>
+      <c r="K89" s="5">
+        <v>3.5232999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="5">
+      <c r="C90" s="13">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="H90" s="5">
         <v>67.744</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I90" s="5"/>
+      <c r="K90" s="5">
+        <v>2.1459000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="5">
+      <c r="C91" s="13">
+        <v>1.6647E-4</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="H91" s="5">
         <v>7.234E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I91" s="5"/>
+      <c r="K91" s="5">
+        <v>3.3065999999999998E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="5">
+      <c r="C92" s="13">
+        <v>7.7817999999999996</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="H92" s="5">
         <v>309.97000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I92" s="5"/>
+      <c r="K92" s="5">
+        <v>37.850999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="5">
+      <c r="C93" s="13">
+        <v>3.5480999999999999E-2</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="H93" s="5">
         <v>2.3477999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I93" s="5"/>
+      <c r="K93" s="5">
+        <v>3.3267999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="5">
+      <c r="C94" s="13">
+        <v>5.0951000000000004</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="H94" s="5">
         <v>274.64999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I94" s="5"/>
+      <c r="K94" s="5">
+        <v>3.2475000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="5">
+      <c r="C95" s="13">
+        <v>1.8357000000000001</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="H95" s="5">
         <v>66.293000000000006</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I95" s="5"/>
+      <c r="K95" s="5">
+        <v>2.1112000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="5">
+      <c r="C96" s="13">
+        <v>1.6768999999999999E-4</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="H96" s="5">
         <v>7.5306000000000001E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I96" s="5"/>
+      <c r="K96" s="5">
+        <v>2.7922E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="5">
+      <c r="C97" s="13">
+        <v>21.516999999999999</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="H97" s="5">
         <v>723.07</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I97" s="5"/>
+      <c r="K97" s="5">
+        <v>47.859000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="5">
+      <c r="C98" s="13">
+        <v>3.6734000000000003E-2</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="H98" s="5">
         <v>2.0891999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I98" s="5"/>
+      <c r="K98" s="5">
+        <v>3.0810000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="5">
+      <c r="C99" s="13">
+        <v>4.7122999999999999</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="H99" s="5">
         <v>239.38</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I99" s="5"/>
+      <c r="K99" s="5">
+        <v>3.5411000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="5">
+      <c r="C100" s="13">
+        <v>1.7823</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="H100" s="5">
         <v>67.843000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I100" s="5"/>
+      <c r="K100" s="5">
+        <v>2.1581999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="5">
+      <c r="C101" s="13">
+        <v>1.6668E-4</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="H101" s="5">
         <v>7.3788999999999999E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I101" s="5"/>
+      <c r="K101" s="5">
+        <v>2.6499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F102" s="5">
+      <c r="C102" s="13">
+        <v>8.4154999999999998</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="H102" s="5">
         <v>629</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I102" s="5"/>
+      <c r="K102" s="5">
+        <v>5.4915000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="5">
+      <c r="C103" s="13">
+        <v>3.6491000000000003E-2</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="H103" s="5">
         <v>2.1915</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I103" s="5"/>
+      <c r="K103" s="5">
+        <v>3.4282E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F104" s="5">
+      <c r="C104" s="13">
+        <v>5.4519000000000002</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="H104" s="5">
         <v>249.88</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I104" s="5"/>
+      <c r="K104" s="5">
+        <v>3.7551999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="5">
+      <c r="C105" s="13">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="H105" s="5">
         <v>68.010999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I105" s="5"/>
+      <c r="K105" s="5">
+        <v>2.1576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="5">
+      <c r="C106" s="13">
+        <v>1.6736999999999999E-4</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="H106" s="5">
         <v>7.3454999999999996E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I106" s="5"/>
+      <c r="K106" s="5">
+        <v>2.7692999999999999E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="5">
+      <c r="C107" s="13">
+        <v>10.741</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="H107" s="5">
         <v>390.33</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I107" s="5"/>
+      <c r="K107" s="5">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F108" s="5">
+      <c r="C108" s="13">
+        <v>4.0145E-2</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="H108" s="5">
         <v>1.883</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I108" s="5"/>
+      <c r="K108" s="5">
+        <v>4.3449000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F109" s="5">
+      <c r="C109" s="13">
+        <v>5.3339999999999996</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="H109" s="5">
         <v>249.12</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I109" s="5"/>
+      <c r="K109" s="5">
+        <v>3.649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F110" s="5">
+      <c r="C110" s="13">
+        <v>1.8364</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="H110" s="5">
         <v>68.022999999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I110" s="5"/>
+      <c r="K110" s="5">
+        <v>2.1674000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="5">
+      <c r="C111" s="13">
+        <v>1.6801000000000001E-4</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="H111" s="5">
         <v>7.6644E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I111" s="5"/>
+      <c r="K111" s="5">
+        <v>2.9892999999999999E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F112" s="5">
+      <c r="C112" s="13">
+        <v>5.0650000000000004</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="H112" s="5">
         <v>388.21</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I112" s="5"/>
+      <c r="K112" s="5">
+        <v>23.216999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F113" s="5">
+      <c r="C113" s="13">
+        <v>3.4845000000000001E-2</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="H113" s="5">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I113" s="5"/>
+      <c r="K113" s="5">
+        <v>4.2791999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F114" s="5">
+      <c r="C114" s="13">
+        <v>4.9654999999999996</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="H114" s="5">
         <v>252.93</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I114" s="5"/>
+      <c r="K114" s="5">
+        <v>3.4218000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F115" s="5">
+      <c r="C115" s="13">
+        <v>1.7347999999999999</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="H115" s="5">
         <v>67.78</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I115" s="5"/>
+      <c r="K115" s="5">
+        <v>2.1097000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F116" s="5">
+      <c r="C116" s="13">
+        <v>1.6709E-4</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="H116" s="5">
         <v>7.2383999999999999E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I116" s="5"/>
+      <c r="K116" s="5">
+        <v>2.7380999999999998E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F117" s="5">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="H117" s="5">
         <v>3.2620000000000003E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I117" s="5"/>
+      <c r="K117" s="5">
+        <v>2.1243E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F118" s="5">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="H118" s="5">
         <v>1.8383E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I118" s="5"/>
+      <c r="K118" s="5">
+        <v>4.4988E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="5">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="H119" s="5">
         <v>0.18998000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I119" s="5"/>
+      <c r="K119" s="5">
+        <v>7.3638000000000002E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F120" s="5">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="H120" s="5">
         <v>4.9429000000000001E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I120" s="5"/>
+      <c r="K120" s="5">
+        <v>1.7041000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F121" s="5">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="H121" s="5">
         <v>5.0471000000000002E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I121" s="5"/>
+      <c r="K121" s="5">
+        <v>1.6938000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="5">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="H122" s="5">
         <v>7.3745000000000005E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I122" s="5"/>
+      <c r="K122" s="5">
+        <v>1.6471999999999999E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="5">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="H123" s="5">
         <v>4.0930000000000001E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I123" s="5"/>
+      <c r="K123" s="5">
+        <v>1.9754E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="5">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="H124" s="5">
         <v>1.6997999999999999E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I124" s="5"/>
+      <c r="K124" s="5">
+        <v>4.3563E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="5">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="H125" s="5">
         <v>0.19114</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I125" s="5"/>
+      <c r="K125" s="5">
+        <v>7.3793000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="5">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="H126" s="5">
         <v>4.6786000000000001E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I126" s="5"/>
+      <c r="K126" s="5">
+        <v>1.6401E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="5">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="H127" s="5">
         <v>5.3115000000000002E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I127" s="5"/>
+      <c r="K127" s="5">
+        <v>1.7202000000000001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="5">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="H128" s="5">
         <v>7.0878999999999998E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I128" s="5"/>
+      <c r="K128" s="5">
+        <v>1.6909E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="5">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="H129" s="5">
         <v>4.0129999999999999E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I129" s="5"/>
+      <c r="K129" s="5">
+        <v>1.9788000000000002E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="5">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="H130" s="5">
         <v>1.8443999999999999E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I130" s="5"/>
+      <c r="K130" s="5">
+        <v>4.1433000000000003E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="5">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="H131" s="5">
         <v>0.19288</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I131" s="5"/>
+      <c r="K131" s="5">
+        <v>7.3959999999999998E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="5">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="H132" s="5">
         <v>4.6852999999999999E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I132" s="5"/>
+      <c r="K132" s="5">
+        <v>1.6289E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="5">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="H133" s="5">
         <v>4.9390000000000003E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I133" s="5"/>
+      <c r="K133" s="5">
+        <v>1.6749E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F134" s="5">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="H134" s="5">
         <v>6.6607E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I134" s="5"/>
+      <c r="K134" s="5">
+        <v>1.6974E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F135" s="5">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="H135" s="5">
         <v>4.2450000000000002E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I135" s="5"/>
+      <c r="K135" s="5">
+        <v>1.9521E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F136" s="5">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="H136" s="5">
         <v>1.8022E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I136" s="5"/>
+      <c r="K136" s="5">
+        <v>4.3228E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F137" s="5">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="H137" s="5">
         <v>0.18955</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I137" s="5"/>
+      <c r="K137" s="5">
+        <v>7.3087999999999998E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="5">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="H138" s="5">
         <v>4.9082000000000001E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I138" s="5"/>
+      <c r="K138" s="5">
+        <v>1.6151E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F139" s="5">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="H139" s="5">
         <v>5.0797000000000002E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I139" s="5"/>
+      <c r="K139" s="5">
+        <v>1.6923000000000001E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F140" s="5">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="H140" s="5">
         <v>6.8310999999999997E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I140" s="5"/>
+      <c r="K140" s="5">
+        <v>1.6187E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="5">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="H141" s="5">
         <v>4.1852E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I141" s="5"/>
+      <c r="K141" s="5">
+        <v>1.9597E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F142" s="5">
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="H142" s="5">
         <v>1.9414000000000001E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I142" s="5"/>
+      <c r="K142" s="5">
+        <v>4.3195000000000001E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="5">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="H143" s="5">
         <v>0.18739</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I143" s="5"/>
+      <c r="K143" s="5">
+        <v>7.4117000000000002E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F144" s="5">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="H144" s="5">
         <v>4.7945000000000002E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I144" s="5"/>
+      <c r="K144" s="5">
+        <v>1.5989000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F145" s="5">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="H145" s="5">
         <v>5.296E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I145" s="5"/>
+      <c r="K145" s="5">
+        <v>1.8105E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F146" s="5">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="H146" s="5">
         <v>6.6410999999999998E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I146" s="5"/>
+      <c r="K146" s="5">
+        <v>2.1285000000000002E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F147" s="5">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="H147" s="5">
         <v>4.1683999999999999E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I147" s="5"/>
+      <c r="K147" s="5">
+        <v>1.9895999999999998E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F148" s="5">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="H148" s="5">
         <v>1.7357000000000001E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I148" s="5"/>
+      <c r="K148" s="5">
+        <v>4.4105000000000001E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F149" s="5">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="H149" s="5">
         <v>0.18953</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I149" s="5"/>
+      <c r="K149" s="5">
+        <v>7.3578999999999997E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F150" s="5">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="H150" s="5">
         <v>4.7649999999999998E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I150" s="5"/>
+      <c r="K150" s="5">
+        <v>1.6232E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F151" s="5">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="H151" s="5">
         <v>5.1322E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I151" s="5"/>
+      <c r="K151" s="5">
+        <v>1.7053000000000001E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F152" s="5">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="H152" s="5">
         <v>6.1946000000000001E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I152" s="5"/>
+      <c r="K152" s="5">
+        <v>1.5956E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F153" s="5">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="H153" s="5">
         <v>4.1181000000000002E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I153" s="5"/>
+      <c r="K153" s="5">
+        <v>2.0338000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F154" s="5">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="H154" s="5">
         <v>1.7471E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I154" s="5"/>
+      <c r="K154" s="5">
+        <v>4.1141000000000002E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F155" s="5">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="H155" s="5">
         <v>0.18828</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I155" s="5"/>
+      <c r="K155" s="5">
+        <v>7.2874999999999997E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F156" s="5">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="H156" s="5">
         <v>4.7102999999999999E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I156" s="5"/>
+      <c r="K156" s="5">
+        <v>1.6244E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F157" s="5">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="H157" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I157" s="5"/>
+      <c r="K157" s="5">
+        <v>1.6838000000000001E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F158" s="5">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="H158" s="5">
         <v>7.5468999999999994E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I158" s="5"/>
+      <c r="K158" s="5">
+        <v>1.7428000000000001E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F159" s="5">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="H159" s="5">
         <v>4.1556000000000003E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I159" s="5"/>
+      <c r="K159" s="5">
+        <v>1.9908E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F160" s="5">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="H160" s="5">
         <v>1.7441999999999999E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I160" s="5"/>
+      <c r="K160" s="5">
+        <v>4.2864999999999998E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F161" s="5">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="H161" s="5">
         <v>0.19338</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I161" s="5"/>
+      <c r="K161" s="5">
+        <v>7.4330000000000004E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F162" s="5">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="H162" s="5">
         <v>4.7291E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I162" s="5"/>
+      <c r="K162" s="5">
+        <v>1.6335E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F163" s="5">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="H163" s="5">
         <v>5.0283000000000001E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I163" s="5"/>
+      <c r="K163" s="5">
+        <v>1.6907999999999999E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F164" s="5">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="H164" s="5">
         <v>7.4936000000000003E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I164" s="5"/>
+      <c r="K164" s="5">
+        <v>1.6976999999999999E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F165" s="5">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="H165" s="5">
         <v>4.1735000000000001E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I165" s="5"/>
+      <c r="K165" s="5">
+        <v>1.9616E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F166" s="5">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="H166" s="5">
         <v>1.8006999999999999E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I166" s="5"/>
+      <c r="K166" s="5">
+        <v>4.6456999999999998E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F167" s="5">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="H167" s="5">
         <v>1.6738999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I167" s="5"/>
+      <c r="K167" s="5">
+        <v>2.7563000000000002E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F168" s="5">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="H168" s="5">
         <v>46.896000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I168" s="5"/>
+      <c r="K168" s="5">
+        <v>1.187E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="5">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="H169" s="5">
         <v>4859.6000000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I169" s="5"/>
+      <c r="K169" s="5">
+        <v>5.0118999999999997E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="5">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="H170" s="5">
         <v>1.8245</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I170" s="5"/>
+      <c r="K170" s="5">
+        <v>1.0779E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F171" s="5">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="H171" s="5">
         <v>7.2503000000000002</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I171" s="5"/>
+      <c r="K171" s="5">
+        <v>0.12164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="5">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="H172" s="5">
         <v>0.89175000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I172" s="5"/>
+      <c r="K172" s="5">
+        <v>5.2798000000000003E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F173" s="5">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="H173" s="5">
         <v>5.4798999999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I173" s="5"/>
+      <c r="K173" s="5">
+        <v>7.4045999999999999E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F174" s="5">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="H174" s="5">
         <v>0.21826999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I174" s="5"/>
+      <c r="K174" s="5">
+        <v>1.7210999999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="5">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="H175" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I175" s="5"/>
+      <c r="K175" s="5">
+        <v>6.6666E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F176" s="5">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="H176" s="5">
         <v>0.15507000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I176" s="5"/>
+      <c r="K176" s="5">
+        <v>2.2046000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="5">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="H177" s="5">
         <v>46.423999999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I177" s="5"/>
+      <c r="K177" s="5">
+        <v>9.0383000000000008E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="5">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="H178" s="5">
         <v>0.78342999999999996</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I178" s="5"/>
+      <c r="K178" s="5">
+        <v>5.0267000000000003E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="5">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="H179" s="5">
         <v>2.7261000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I179" s="5"/>
+      <c r="K179" s="5">
+        <v>3.1493E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F180" s="5">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="H180" s="5">
         <v>0.89412000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I180" s="5"/>
+      <c r="K180" s="5">
+        <v>4.5645E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F181" s="5">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="H181" s="5">
         <v>0.34087000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I181" s="5"/>
+      <c r="K181" s="5">
+        <v>3.2648999999999998E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F182" s="5">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="H182" s="5">
         <v>90.575000000000003</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I182" s="5"/>
+      <c r="K182" s="5">
+        <v>1.9241999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F183" s="5">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="H183" s="5">
         <v>5677.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I183" s="5"/>
+      <c r="K183" s="5">
+        <v>0.12321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F184" s="5">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="H184" s="5">
         <v>2.3828999999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I184" s="5"/>
+      <c r="K184" s="5">
+        <v>9.0422999999999996E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F185" s="5">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="H185" s="5">
         <v>7.3966000000000003</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I185" s="5"/>
+      <c r="K185" s="5">
+        <v>7.9494999999999996E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F186" s="5">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="H186" s="5">
         <v>0.90759999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I186" s="5"/>
+      <c r="K186" s="5">
+        <v>5.3036000000000003E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F187" s="5">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="H187" s="5">
         <v>5.4592000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K187" s="5">
+        <v>7.9132999999999998E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F188" s="5">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="H188" s="5">
         <v>0.21154999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K188" s="5">
+        <v>1.5161E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F189" s="5">
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="H189" s="5">
         <v>5.5038999999999998</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K189" s="5">
+        <v>6.8234000000000003E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F190" s="5">
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="H190" s="5">
         <v>0.14224999999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K190" s="5">
+        <v>2.4933999999999998E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F191" s="5">
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="H191" s="5">
         <v>124.54</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K191" s="5">
+        <v>9.9951999999999992E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F192" s="5">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="H192" s="5">
         <v>0.77248000000000006</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K192" s="5">
+        <v>4.6503999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F193" s="5">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="H193" s="5">
         <v>2.8168000000000002</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K193" s="5">
+        <v>3.5331000000000001E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F194" s="5">
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="H194" s="5">
         <v>0.85562000000000005</v>
+      </c>
+      <c r="K194" s="5">
+        <v>5.8969000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +3886,2394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8574390-C923-428B-BCCC-9F0A2438484C}">
+  <dimension ref="A1:E194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.3638999999999997E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.4795E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.1307000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.7001000000000001E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.4642000000000002E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.6708999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.39302999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.6372000000000001E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.6917999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8.9268E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.362E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.6245999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.10782</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7.1985E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.3239000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.9198999999999998E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.1231000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.5161000000000001E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.1466999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.45029000000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.9788E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.7181999999999997E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.1456000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.10446</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.5973999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.6093E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.0311000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.4197999999999999E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.5474999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.42714000000000002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.5755999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9.5734E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.0284999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.0043999999999999E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.2276E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.0510000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.4192E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.27662999999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.3841000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.6408</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.8292999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.13213</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.5917000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.3499000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7.9506000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.3176999999999999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.2759E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.36825999999999998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.0095999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.40986</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5.3749999999999996E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.16772999999999999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.44120999999999999</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.3666E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5.0970000000000001E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.3553E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>47.3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.51619000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5.3212000000000002E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.0150999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5.3874999999999999E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.2818E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8.1057000000000004E-2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.60170000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4.5476000000000003E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8.9302999999999995E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>81.837000000000003</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.5404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5">
+        <v>7.8768000000000005E-2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5.7448999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5.1766E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6.7387999999999997E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.3367999999999999E-2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.1768000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7.6732999999999996E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7.0962E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14.147</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.14485999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5.0404999999999998E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.4329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5">
+        <v>7.8065999999999997E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6.9612999999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5.0881999999999997E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.66815000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5.1809000000000001E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.5644999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="5">
+        <v>81.671000000000006</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.7198000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4.4274000000000001E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.3967999999999999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5.1789000000000002E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.2110000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7.8157000000000004E-2</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.99512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.6665E-2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>9.9869999999999994E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>303.89</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2.0316000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5.0264999999999997E-2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.7424000000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5">
+        <v>6.9147E-2</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.3040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5">
+        <v>310.43</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2.5152000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>6.8581000000000003E-2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.4291E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5.0861000000000003E-2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.2172000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5">
+        <v>273.17</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.7978000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5.1560000000000002E-2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4.7328000000000002E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5">
+        <v>7.1439000000000002E-2</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.0731E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5">
+        <v>270.92</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.2404999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5">
+        <v>6.9903000000000007E-2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.2378999999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="5">
+        <v>5.0800999999999999E-2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.0824000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="5">
+        <v>258.81</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2.4033000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5.1250999999999998E-2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.7937000000000001E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6.7714999999999997E-2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2.0496999999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="5">
+        <v>279.31</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2.2231000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="5">
+        <v>6.8642999999999996E-2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.2537E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5.1443000000000003E-2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.4579E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="5">
+        <v>259.08999999999997</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.8420999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5">
+        <v>5.0901000000000002E-2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4.7420999999999997E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6.8544999999999995E-2</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.3700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="5">
+        <v>278.23</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2.1648000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="5">
+        <v>6.8641999999999995E-2</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1.3638999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="5">
+        <v>5.1207999999999997E-2</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.2439E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2.1819999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5.0542999999999998E-2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4.86E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="5">
+        <v>6.9473999999999994E-2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.1026E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="5">
+        <v>262.89</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2.5754000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="5">
+        <v>6.9832000000000005E-2</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.2936E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2264.1999999999998</v>
+      </c>
+      <c r="D77" s="5">
+        <v>60.243000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1.9397</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4.6942999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5">
+        <v>239.3</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3.6398000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>68.141000000000005</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2.1259000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5">
+        <v>7.5360999999999996E-3</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2.9506999999999998E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5">
+        <v>257.68</v>
+      </c>
+      <c r="D82" s="5">
+        <v>11.291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.2523</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.5374999999999997E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="5">
+        <v>249.37</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3.2153999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5">
+        <v>68.037000000000006</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2.1242000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="5">
+        <v>7.4454999999999999E-3</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2.7662999999999999E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5">
+        <v>176.59</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5.7117000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.4005999999999998</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3.4688999999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="5">
+        <v>263.97000000000003</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3.5232999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="5">
+        <v>67.744</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2.1459000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="5">
+        <v>7.234E-3</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3.3065999999999998E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="5">
+        <v>309.97000000000003</v>
+      </c>
+      <c r="D92" s="5">
+        <v>37.850999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.3477999999999999</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3.3267999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="5">
+        <v>274.64999999999998</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3.2475000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="5">
+        <v>66.293000000000006</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2.1112000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="5">
+        <v>7.5306000000000001E-3</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2.7922E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="5">
+        <v>723.07</v>
+      </c>
+      <c r="D97" s="5">
+        <v>47.859000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0891999999999999</v>
+      </c>
+      <c r="D98" s="5">
+        <v>3.0810000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="5">
+        <v>239.38</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3.5411000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="5">
+        <v>67.843000000000004</v>
+      </c>
+      <c r="D100" s="5">
+        <v>2.1581999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="5">
+        <v>7.3788999999999999E-3</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2.6499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="5">
+        <v>629</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5.4915000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.1915</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3.4282E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="5">
+        <v>249.88</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3.7551999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="5">
+        <v>68.010999999999996</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2.1576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="5">
+        <v>7.3454999999999996E-3</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2.7692999999999999E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="5">
+        <v>390.33</v>
+      </c>
+      <c r="D107" s="5">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1.883</v>
+      </c>
+      <c r="D108" s="5">
+        <v>4.3449000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="5">
+        <v>249.12</v>
+      </c>
+      <c r="D109" s="5">
+        <v>3.649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="5">
+        <v>68.022999999999996</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2.1674000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="5">
+        <v>7.6644E-3</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2.9892999999999999E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="5">
+        <v>388.21</v>
+      </c>
+      <c r="D112" s="5">
+        <v>23.216999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4.2791999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="5">
+        <v>252.93</v>
+      </c>
+      <c r="D114" s="5">
+        <v>3.4218000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="5">
+        <v>67.78</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2.1097000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="5">
+        <v>7.2383999999999999E-3</v>
+      </c>
+      <c r="D116" s="5">
+        <v>2.7380999999999998E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="5">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2.1243E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1.8383E-2</v>
+      </c>
+      <c r="D118" s="5">
+        <v>4.4988E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.18998000000000001</v>
+      </c>
+      <c r="D119" s="5">
+        <v>7.3638000000000002E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5">
+        <v>4.9429000000000001E-2</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1.7041000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="5">
+        <v>5.0471000000000002E-2</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.6938000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="5">
+        <v>7.3745000000000005E-2</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1.6471999999999999E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="5">
+        <v>4.0930000000000001E-2</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1.9754E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1.6997999999999999E-2</v>
+      </c>
+      <c r="D124" s="5">
+        <v>4.3563E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.19114</v>
+      </c>
+      <c r="D125" s="5">
+        <v>7.3793000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="5">
+        <v>4.6786000000000001E-2</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1.6401E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="5">
+        <v>5.3115000000000002E-2</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1.7202000000000001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="5">
+        <v>7.0878999999999998E-2</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1.6909E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="5">
+        <v>4.0129999999999999E-2</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1.9788000000000002E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1.8443999999999999E-2</v>
+      </c>
+      <c r="D130" s="5">
+        <v>4.1433000000000003E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.19288</v>
+      </c>
+      <c r="D131" s="5">
+        <v>7.3959999999999998E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="5">
+        <v>4.6852999999999999E-2</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1.6289E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="5">
+        <v>4.9390000000000003E-2</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.6749E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="5">
+        <v>6.6607E-2</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1.6974E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="5">
+        <v>4.2450000000000002E-2</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1.9521E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="5">
+        <v>1.8022E-2</v>
+      </c>
+      <c r="D136" s="5">
+        <v>4.3228E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.18955</v>
+      </c>
+      <c r="D137" s="5">
+        <v>7.3087999999999998E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="5">
+        <v>4.9082000000000001E-2</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1.6151E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="5">
+        <v>5.0797000000000002E-2</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1.6923000000000001E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="5">
+        <v>6.8310999999999997E-2</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1.6187E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="5">
+        <v>4.1852E-2</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1.9597E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1.9414000000000001E-2</v>
+      </c>
+      <c r="D142" s="5">
+        <v>4.3195000000000001E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.18739</v>
+      </c>
+      <c r="D143" s="5">
+        <v>7.4117000000000002E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="5">
+        <v>4.7945000000000002E-2</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1.5989000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="5">
+        <v>5.296E-2</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1.8105E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="5">
+        <v>6.6410999999999998E-2</v>
+      </c>
+      <c r="D146" s="5">
+        <v>2.1285000000000002E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="5">
+        <v>4.1683999999999999E-2</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1.9895999999999998E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1.7357000000000001E-2</v>
+      </c>
+      <c r="D148" s="5">
+        <v>4.4105000000000001E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.18953</v>
+      </c>
+      <c r="D149" s="5">
+        <v>7.3578999999999997E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+      <c r="B150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4.7649999999999998E-2</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1.6232E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="5">
+        <v>5.1322E-2</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1.7053000000000001E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+      <c r="B152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" s="5">
+        <v>6.1946000000000001E-2</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1.5956E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" s="5">
+        <v>4.1181000000000002E-2</v>
+      </c>
+      <c r="D153" s="5">
+        <v>2.0338000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+      <c r="B154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1.7471E-2</v>
+      </c>
+      <c r="D154" s="5">
+        <v>4.1141000000000002E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.18828</v>
+      </c>
+      <c r="D155" s="5">
+        <v>7.2874999999999997E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="5">
+        <v>4.7102999999999999E-2</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1.6244E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1.6838000000000001E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="5">
+        <v>7.5468999999999994E-2</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1.7428000000000001E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" s="5">
+        <v>4.1556000000000003E-2</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1.9908E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1.7441999999999999E-2</v>
+      </c>
+      <c r="D160" s="5">
+        <v>4.2864999999999998E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0.19338</v>
+      </c>
+      <c r="D161" s="5">
+        <v>7.4330000000000004E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="5">
+        <v>4.7291E-2</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1.6335E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="5">
+        <v>5.0283000000000001E-2</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1.6907999999999999E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+      <c r="B164" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C164" s="5">
+        <v>7.4936000000000003E-2</v>
+      </c>
+      <c r="D164" s="5">
+        <v>1.6976999999999999E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="5">
+        <v>4.1735000000000001E-2</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1.9616E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
+      <c r="B166" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1.8006999999999999E-2</v>
+      </c>
+      <c r="D166" s="5">
+        <v>4.6456999999999998E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="5">
+        <v>1.6738999999999999</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2.7563000000000002E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="5">
+        <v>46.896000000000001</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1.187E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3"/>
+      <c r="B169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="5">
+        <v>4859.6000000000004</v>
+      </c>
+      <c r="D169" s="5">
+        <v>5.0118999999999997E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1.8245</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1.0779E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="5">
+        <v>7.2503000000000002</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0.12164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3"/>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0.89175000000000004</v>
+      </c>
+      <c r="D172" s="5">
+        <v>5.2798000000000003E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="5">
+        <v>5.4798999999999998</v>
+      </c>
+      <c r="D173" s="5">
+        <v>7.4045999999999999E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+      <c r="B174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0.21826999999999999</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1.7210999999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D175" s="5">
+        <v>6.6666E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3"/>
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.15507000000000001</v>
+      </c>
+      <c r="D176" s="5">
+        <v>2.2046000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+      <c r="B177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="5">
+        <v>46.423999999999999</v>
+      </c>
+      <c r="D177" s="5">
+        <v>9.0383000000000008E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3"/>
+      <c r="B178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.78342999999999996</v>
+      </c>
+      <c r="D178" s="5">
+        <v>5.0267000000000003E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="5">
+        <v>2.7261000000000002</v>
+      </c>
+      <c r="D179" s="5">
+        <v>3.1493E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3"/>
+      <c r="B180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.89412000000000003</v>
+      </c>
+      <c r="D180" s="5">
+        <v>4.5645E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0.34087000000000001</v>
+      </c>
+      <c r="D181" s="5">
+        <v>3.2648999999999998E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="3"/>
+      <c r="B182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="5">
+        <v>90.575000000000003</v>
+      </c>
+      <c r="D182" s="5">
+        <v>1.9241999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3"/>
+      <c r="B183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="5">
+        <v>5677.2</v>
+      </c>
+      <c r="D183" s="5">
+        <v>0.12321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3"/>
+      <c r="B184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="5">
+        <v>2.3828999999999998</v>
+      </c>
+      <c r="D184" s="5">
+        <v>9.0422999999999996E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3"/>
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="5">
+        <v>7.3966000000000003</v>
+      </c>
+      <c r="D185" s="5">
+        <v>7.9494999999999996E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3"/>
+      <c r="B186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="D186" s="5">
+        <v>5.3036000000000003E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3"/>
+      <c r="B187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C187" s="5">
+        <v>5.4592000000000001</v>
+      </c>
+      <c r="D187" s="5">
+        <v>7.9132999999999998E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3"/>
+      <c r="B188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.21154999999999999</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1.5161E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3"/>
+      <c r="B189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="5">
+        <v>5.5038999999999998</v>
+      </c>
+      <c r="D189" s="5">
+        <v>6.8234000000000003E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+      <c r="B190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.14224999999999999</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2.4933999999999998E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+      <c r="B191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="5">
+        <v>124.54</v>
+      </c>
+      <c r="D191" s="5">
+        <v>9.9951999999999992E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+      <c r="B192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.77248000000000006</v>
+      </c>
+      <c r="D192" s="5">
+        <v>4.6503999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="5">
+        <v>2.8168000000000002</v>
+      </c>
+      <c r="D193" s="5">
+        <v>3.5331000000000001E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="D194" s="5">
+        <v>5.8969000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE13C404-55DA-435B-BE7D-F59554E6A5CA}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>

--- a/Algo_Compare.xlsx
+++ b/Algo_Compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3F453-B123-44C8-B277-77912B06C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D53AE-D11F-41A2-8C25-0A6494638A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="15795" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_CEC2021" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -288,10 +288,6 @@
   </si>
   <si>
     <t>MTEA-AD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k1=10,k2=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -711,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>59</v>
@@ -751,9 +747,7 @@
       <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -773,7 +767,7 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5">
-        <v>3.4795E-3</v>
+        <v>3.1838999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -792,7 +786,7 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5">
-        <v>3.4642000000000002E-3</v>
+        <v>2.9589999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -811,7 +805,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5">
-        <v>1.6372000000000001E-2</v>
+        <v>1.7409000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,7 +824,7 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5">
-        <v>3.362E-3</v>
+        <v>2.5122E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -849,7 +843,7 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5">
-        <v>7.1985E-3</v>
+        <v>5.9243999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -869,7 +863,7 @@
         <v>2.0384000000000001E-3</v>
       </c>
       <c r="K7" s="5">
-        <v>3.1231000000000002E-3</v>
+        <v>2.6616999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -887,7 +881,7 @@
         <v>1.0208999999999999E-3</v>
       </c>
       <c r="K8" s="5">
-        <v>8.1466999999999998E-3</v>
+        <v>5.6055000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -905,7 +899,7 @@
         <v>1.6837999999999999E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>1.9788E-2</v>
+        <v>1.9813999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -923,7 +917,7 @@
         <v>2.1137999999999999E-3</v>
       </c>
       <c r="K10" s="5">
-        <v>1.1456000000000001E-3</v>
+        <v>1.6895E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -941,7 +935,7 @@
         <v>3.9588000000000002E-3</v>
       </c>
       <c r="K11" s="5">
-        <v>6.5973999999999998E-3</v>
+        <v>5.0216000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -959,7 +953,7 @@
         <v>1.4162999999999999E-3</v>
       </c>
       <c r="K12" s="5">
-        <v>1.0311000000000001E-2</v>
+        <v>9.4020000000000006E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -977,7 +971,7 @@
         <v>2.1860999999999998E-3</v>
       </c>
       <c r="K13" s="5">
-        <v>2.5474999999999999E-3</v>
+        <v>1.7304E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -995,7 +989,7 @@
         <v>1.5216E-2</v>
       </c>
       <c r="K14" s="5">
-        <v>1.5755999999999999E-2</v>
+        <v>1.5061E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1013,7 +1007,7 @@
         <v>4.2119000000000002E-3</v>
       </c>
       <c r="K15" s="5">
-        <v>2.0284999999999999E-3</v>
+        <v>2.8029000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,7 +1025,7 @@
         <v>3.4645000000000001E-3</v>
       </c>
       <c r="K16" s="5">
-        <v>1.2276E-2</v>
+        <v>6.8712000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1044,12 +1038,14 @@
       <c r="C17" s="5">
         <v>5.2512000000000003E-2</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="12">
+        <v>9.5549999999999996E-2</v>
+      </c>
       <c r="H17" s="5">
         <v>1.7188000000000001</v>
       </c>
       <c r="K17" s="5">
-        <v>1.4192E-2</v>
+        <v>6.0731E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1060,12 +1056,14 @@
       <c r="C18" s="5">
         <v>1.4683E-2</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="12">
+        <v>3.9981000000000001E-3</v>
+      </c>
       <c r="H18" s="5">
         <v>1.0208999999999999E-2</v>
       </c>
       <c r="K18" s="5">
-        <v>3.3841000000000001E-3</v>
+        <v>4.8143999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1076,12 +1074,14 @@
       <c r="C19" s="5">
         <v>1.8950000000000002E-2</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12">
+        <v>6.0409000000000001E-3</v>
+      </c>
       <c r="H19" s="5">
         <v>4.9657E-2</v>
       </c>
       <c r="K19" s="5">
-        <v>5.8292999999999999E-3</v>
+        <v>6.1631000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1092,12 +1092,14 @@
       <c r="C20" s="5">
         <v>7.4800999999999999E-3</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="12">
+        <v>3.2702E-3</v>
+      </c>
       <c r="H20" s="5">
         <v>4.0232999999999996E-3</v>
       </c>
       <c r="K20" s="5">
-        <v>2.5917000000000002E-3</v>
+        <v>2.7908999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1108,12 +1110,14 @@
       <c r="C21" s="5">
         <v>1.6985E-2</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="12">
+        <v>1.1641E-2</v>
+      </c>
       <c r="H21" s="5">
         <v>3.9905999999999997E-2</v>
       </c>
       <c r="K21" s="5">
-        <v>7.9506000000000004E-3</v>
+        <v>1.1589E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1124,12 +1128,14 @@
       <c r="C22" s="5">
         <v>5.6321999999999997E-2</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="12">
+        <v>5.5729000000000001E-2</v>
+      </c>
       <c r="H22" s="5">
         <v>8.9724999999999999E-2</v>
       </c>
       <c r="K22" s="5">
-        <v>1.2759E-2</v>
+        <v>6.6833000000000004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1140,12 +1146,14 @@
       <c r="C23" s="5">
         <v>7.5131E-3</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="12">
+        <v>2.9849999999999998E-3</v>
+      </c>
       <c r="H23" s="5">
         <v>9.1006999999999998E-3</v>
       </c>
       <c r="K23" s="5">
-        <v>3.0095999999999999E-3</v>
+        <v>2.918E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1156,12 +1164,14 @@
       <c r="C24" s="5">
         <v>0.10238</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="12">
+        <v>6.0774000000000002E-3</v>
+      </c>
       <c r="H24" s="5">
         <v>1.5991999999999999E-2</v>
       </c>
       <c r="K24" s="5">
-        <v>5.3749999999999996E-3</v>
+        <v>6.3771000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1172,12 +1182,14 @@
       <c r="C25" s="5">
         <v>1.0834999999999999E-2</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="12">
+        <v>6.9296000000000002E-3</v>
+      </c>
       <c r="H25" s="5">
         <v>5.5474000000000001E-3</v>
       </c>
       <c r="K25" s="5">
-        <v>2.97E-3</v>
+        <v>2.6194E-3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1188,12 +1200,14 @@
       <c r="C26" s="5">
         <v>0.35579</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="12">
+        <v>3.1586000000000001E-3</v>
+      </c>
       <c r="H26" s="5">
         <v>1.4468E-2</v>
       </c>
       <c r="K26" s="5">
-        <v>3.3666E-3</v>
+        <v>3.2456E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1211,7 +1225,7 @@
         <v>2.0181999999999999E-3</v>
       </c>
       <c r="K27" s="5">
-        <v>1.3553E-3</v>
+        <v>1.2493000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1227,7 +1241,7 @@
         <v>0.47394999999999998</v>
       </c>
       <c r="K28" s="5">
-        <v>0.51619000000000004</v>
+        <v>1.3031999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1243,7 +1257,7 @@
         <v>5.8728000000000003E-4</v>
       </c>
       <c r="K29" s="5">
-        <v>1.0150999999999999E-3</v>
+        <v>9.7159000000000004E-4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1259,7 +1273,7 @@
         <v>1.4107E-3</v>
       </c>
       <c r="K30" s="5">
-        <v>1.2818E-3</v>
+        <v>1.2149000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1275,7 +1289,7 @@
         <v>1.3056999999999999E-3</v>
       </c>
       <c r="K31" s="5">
-        <v>0.60170000000000001</v>
+        <v>2.0015999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1291,7 +1305,7 @@
         <v>5.2892E-4</v>
       </c>
       <c r="K32" s="5">
-        <v>8.9302999999999995E-4</v>
+        <v>1.2473E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1307,7 +1321,7 @@
         <v>1.8556999999999999</v>
       </c>
       <c r="K33" s="5">
-        <v>2.5404</v>
+        <v>1.8453999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1323,7 +1337,7 @@
         <v>8.8582000000000005E-4</v>
       </c>
       <c r="K34" s="5">
-        <v>5.7448999999999998E-3</v>
+        <v>4.1624000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1339,7 +1353,7 @@
         <v>5.5971000000000005E-4</v>
       </c>
       <c r="K35" s="5">
-        <v>6.7387999999999997E-4</v>
+        <v>9.3716000000000003E-4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1355,7 +1369,7 @@
         <v>1.5337E-3</v>
       </c>
       <c r="K36" s="5">
-        <v>3.1768000000000001</v>
+        <v>1.857</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1371,7 +1385,7 @@
         <v>9.1881000000000005E-4</v>
       </c>
       <c r="K37" s="5">
-        <v>7.0962E-4</v>
+        <v>7.0010999999999999E-4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1387,7 +1401,7 @@
         <v>0.14313999999999999</v>
       </c>
       <c r="K38" s="5">
-        <v>0.14485999999999999</v>
+        <v>0.14546000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1403,7 +1417,7 @@
         <v>1.4078999999999999E-3</v>
       </c>
       <c r="K39" s="5">
-        <v>3.4329999999999999E-3</v>
+        <v>1.5613000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1419,7 +1433,7 @@
         <v>8.8831999999999995E-4</v>
       </c>
       <c r="K40" s="5">
-        <v>6.9612999999999999E-4</v>
+        <v>7.1787999999999995E-4</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1435,7 +1449,7 @@
         <v>1.4446000000000001E-3</v>
       </c>
       <c r="K41" s="5">
-        <v>0.66815000000000002</v>
+        <v>3.6396999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1451,7 +1465,7 @@
         <v>1.3761999999999999E-3</v>
       </c>
       <c r="K42" s="5">
-        <v>1.5644999999999999E-3</v>
+        <v>1.6475999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1467,7 +1481,7 @@
         <v>0.81830999999999998</v>
       </c>
       <c r="K43" s="5">
-        <v>5.7198000000000002</v>
+        <v>0.81396000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1483,7 +1497,7 @@
         <v>5.1665999999999995E-4</v>
       </c>
       <c r="K44" s="5">
-        <v>1.3967999999999999E-3</v>
+        <v>1.3353E-3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1499,7 +1513,7 @@
         <v>1.3802E-3</v>
       </c>
       <c r="K45" s="5">
-        <v>1.2110000000000001E-3</v>
+        <v>1.1693999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1515,7 +1529,7 @@
         <v>1.0778000000000001E-3</v>
       </c>
       <c r="K46" s="5">
-        <v>0.99512</v>
+        <v>1.1981999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1530,11 +1544,11 @@
       </c>
       <c r="D47" s="10"/>
       <c r="H47" s="5">
-        <v>5.6665E-2</v>
+        <v>1.7897E-3</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5">
-        <v>9.9869999999999994E-4</v>
+        <v>1.1724999999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1547,11 +1561,11 @@
       </c>
       <c r="D48" s="10"/>
       <c r="H48" s="5">
-        <v>303.89</v>
+        <v>3.2149000000000001</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5">
-        <v>2.0316000000000001</v>
+        <v>2.0907</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -1564,11 +1578,11 @@
       </c>
       <c r="D49" s="10"/>
       <c r="H49" s="5">
-        <v>5.0264999999999997E-2</v>
+        <v>5.9234999999999995E-4</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5">
-        <v>4.7424000000000001E-4</v>
+        <v>4.7704000000000003E-4</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -1581,11 +1595,11 @@
       </c>
       <c r="D50" s="10"/>
       <c r="H50" s="5">
-        <v>6.9147E-2</v>
+        <v>7.7006999999999998E-4</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5">
-        <v>2.3040000000000001E-3</v>
+        <v>2.6102999999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -1598,11 +1612,11 @@
       </c>
       <c r="D51" s="10"/>
       <c r="H51" s="5">
-        <v>310.43</v>
+        <v>3.7852999999999999</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5">
-        <v>2.5152000000000001</v>
+        <v>2.3268</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -1615,11 +1629,11 @@
       </c>
       <c r="D52" s="10"/>
       <c r="H52" s="5">
-        <v>6.8581000000000003E-2</v>
+        <v>8.0455000000000001E-4</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5">
-        <v>1.4291E-3</v>
+        <v>1.3404999999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -1632,11 +1646,11 @@
       </c>
       <c r="D53" s="10"/>
       <c r="H53" s="5">
-        <v>5.0861000000000003E-2</v>
+        <v>5.9546000000000002E-4</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5">
-        <v>1.2172000000000001E-3</v>
+        <v>1.1176000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -1649,11 +1663,11 @@
       </c>
       <c r="D54" s="10"/>
       <c r="H54" s="5">
-        <v>273.17</v>
+        <v>3.6844000000000001</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5">
-        <v>2.7978000000000001</v>
+        <v>2.1160000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -1666,11 +1680,11 @@
       </c>
       <c r="D55" s="10"/>
       <c r="H55" s="5">
-        <v>5.1560000000000002E-2</v>
+        <v>6.1795000000000003E-4</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5">
-        <v>4.7328000000000002E-4</v>
+        <v>4.7805999999999999E-4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -1683,11 +1697,11 @@
       </c>
       <c r="D56" s="10"/>
       <c r="H56" s="5">
-        <v>7.1439000000000002E-2</v>
+        <v>7.8708000000000001E-4</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5">
-        <v>2.0731E-3</v>
+        <v>2.1201000000000002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -1700,11 +1714,11 @@
       </c>
       <c r="D57" s="10"/>
       <c r="H57" s="5">
-        <v>270.92</v>
+        <v>3.2913000000000001</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5">
-        <v>2.2404999999999999</v>
+        <v>2.9180999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -1717,11 +1731,11 @@
       </c>
       <c r="D58" s="10"/>
       <c r="H58" s="5">
-        <v>6.9903000000000007E-2</v>
+        <v>7.9918999999999997E-4</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5">
-        <v>1.2378999999999999E-3</v>
+        <v>1.3988E-3</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -1734,11 +1748,11 @@
       </c>
       <c r="D59" s="10"/>
       <c r="H59" s="5">
-        <v>5.0800999999999999E-2</v>
+        <v>5.9497E-4</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5">
-        <v>1.0824000000000001E-3</v>
+        <v>1.4566E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -1751,11 +1765,11 @@
       </c>
       <c r="D60" s="10"/>
       <c r="H60" s="5">
-        <v>258.81</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5">
-        <v>2.4033000000000002</v>
+        <v>2.1335999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -1768,11 +1782,11 @@
       </c>
       <c r="D61" s="10"/>
       <c r="H61" s="5">
-        <v>5.1250999999999998E-2</v>
+        <v>5.9522999999999998E-4</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5">
-        <v>4.7937000000000001E-4</v>
+        <v>4.8511000000000002E-4</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -1785,11 +1799,11 @@
       </c>
       <c r="D62" s="10"/>
       <c r="H62" s="5">
-        <v>6.7714999999999997E-2</v>
+        <v>7.8010000000000004E-4</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5">
-        <v>2.0496999999999998E-3</v>
+        <v>2.2209E-3</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -1802,11 +1816,11 @@
       </c>
       <c r="D63" s="10"/>
       <c r="H63" s="5">
-        <v>279.31</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5">
-        <v>2.2231000000000001</v>
+        <v>2.6528</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -1819,11 +1833,11 @@
       </c>
       <c r="D64" s="10"/>
       <c r="H64" s="5">
-        <v>6.8642999999999996E-2</v>
+        <v>7.8346999999999998E-4</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5">
-        <v>1.2537E-3</v>
+        <v>1.3567E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -1836,11 +1850,11 @@
       </c>
       <c r="D65" s="10"/>
       <c r="H65" s="5">
-        <v>5.1443000000000003E-2</v>
+        <v>5.9400000000000002E-4</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5">
-        <v>1.4579E-3</v>
+        <v>1.1885000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -1853,11 +1867,11 @@
       </c>
       <c r="D66" s="10"/>
       <c r="H66" s="5">
-        <v>259.08999999999997</v>
+        <v>3.3193999999999999</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5">
-        <v>2.8420999999999998</v>
+        <v>2.0987</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -1870,11 +1884,11 @@
       </c>
       <c r="D67" s="10"/>
       <c r="H67" s="5">
-        <v>5.0901000000000002E-2</v>
+        <v>5.9774000000000003E-4</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5">
-        <v>4.7420999999999997E-4</v>
+        <v>4.8411999999999999E-4</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -1887,11 +1901,11 @@
       </c>
       <c r="D68" s="10"/>
       <c r="H68" s="5">
-        <v>6.8544999999999995E-2</v>
+        <v>7.8983999999999999E-4</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5">
-        <v>2.3700000000000001E-3</v>
+        <v>2.3441999999999998E-3</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -1904,11 +1918,11 @@
       </c>
       <c r="D69" s="10"/>
       <c r="H69" s="5">
-        <v>278.23</v>
+        <v>3.9462999999999999</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5">
-        <v>2.1648000000000001</v>
+        <v>2.5851000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -1921,11 +1935,11 @@
       </c>
       <c r="D70" s="10"/>
       <c r="H70" s="5">
-        <v>6.8641999999999995E-2</v>
+        <v>8.2967999999999996E-4</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5">
-        <v>1.3638999999999999E-3</v>
+        <v>1.534E-3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -1938,11 +1952,11 @@
       </c>
       <c r="D71" s="10"/>
       <c r="H71" s="5">
-        <v>5.1207999999999997E-2</v>
+        <v>5.8494999999999999E-4</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5">
-        <v>1.2439E-3</v>
+        <v>1.2687E-3</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,11 +1969,11 @@
       </c>
       <c r="D72" s="10"/>
       <c r="H72" s="5">
-        <v>285.10000000000002</v>
+        <v>2.8921000000000001</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5">
-        <v>2.1819999999999999</v>
+        <v>1.8073999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -1972,11 +1986,11 @@
       </c>
       <c r="D73" s="10"/>
       <c r="H73" s="5">
-        <v>5.0542999999999998E-2</v>
+        <v>5.8452999999999999E-4</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5">
-        <v>4.86E-4</v>
+        <v>4.7623000000000001E-4</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -1989,11 +2003,11 @@
       </c>
       <c r="D74" s="10"/>
       <c r="H74" s="5">
-        <v>6.9473999999999994E-2</v>
+        <v>8.0106000000000003E-4</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5">
-        <v>2.1026E-3</v>
+        <v>2.3046999999999998E-3</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -2006,11 +2020,11 @@
       </c>
       <c r="D75" s="10"/>
       <c r="H75" s="5">
-        <v>262.89</v>
+        <v>4.0260999999999996</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5">
-        <v>2.5754000000000001</v>
+        <v>3.1305000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -2023,11 +2037,11 @@
       </c>
       <c r="D76" s="10"/>
       <c r="H76" s="5">
-        <v>6.9832000000000005E-2</v>
+        <v>7.7610000000000005E-4</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5">
-        <v>1.2936E-3</v>
+        <v>1.3024E-3</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -2042,11 +2056,11 @@
       </c>
       <c r="D77" s="10"/>
       <c r="H77" s="5">
-        <v>2264.1999999999998</v>
+        <v>80.805999999999997</v>
       </c>
       <c r="I77" s="5"/>
       <c r="K77" s="5">
-        <v>60.243000000000002</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -2059,11 +2073,11 @@
       </c>
       <c r="D78" s="10"/>
       <c r="H78" s="5">
-        <v>1.9397</v>
+        <v>7.6222999999999999E-2</v>
       </c>
       <c r="I78" s="5"/>
       <c r="K78" s="5">
-        <v>4.6942999999999999E-2</v>
+        <v>3.8849000000000002E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -2076,11 +2090,11 @@
       </c>
       <c r="D79" s="10"/>
       <c r="H79" s="5">
-        <v>239.3</v>
+        <v>8.9868000000000006</v>
       </c>
       <c r="I79" s="5"/>
       <c r="K79" s="5">
-        <v>3.6398000000000001</v>
+        <v>3.8553000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -2093,11 +2107,11 @@
       </c>
       <c r="D80" s="10"/>
       <c r="H80" s="5">
-        <v>68.141000000000005</v>
+        <v>2.1562000000000001</v>
       </c>
       <c r="I80" s="5"/>
       <c r="K80" s="5">
-        <v>2.1259000000000001</v>
+        <v>2.1886000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -2110,11 +2124,11 @@
       </c>
       <c r="D81" s="10"/>
       <c r="H81" s="5">
-        <v>7.5360999999999996E-3</v>
+        <v>3.0562999999999999E-4</v>
       </c>
       <c r="I81" s="5"/>
       <c r="K81" s="5">
-        <v>2.9506999999999998E-4</v>
+        <v>3.055E-4</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -2127,11 +2141,11 @@
       </c>
       <c r="D82" s="10"/>
       <c r="H82" s="5">
-        <v>257.68</v>
+        <v>6.2770000000000001</v>
       </c>
       <c r="I82" s="5"/>
       <c r="K82" s="5">
-        <v>11.291</v>
+        <v>27.347000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -2144,11 +2158,11 @@
       </c>
       <c r="D83" s="10"/>
       <c r="H83" s="5">
-        <v>2.2523</v>
+        <v>7.6520000000000005E-2</v>
       </c>
       <c r="I83" s="5"/>
       <c r="K83" s="5">
-        <v>3.5374999999999997E-2</v>
+        <v>3.5737999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -2161,11 +2175,11 @@
       </c>
       <c r="D84" s="10"/>
       <c r="H84" s="5">
-        <v>249.37</v>
+        <v>8.0263000000000009</v>
       </c>
       <c r="I84" s="5"/>
       <c r="K84" s="5">
-        <v>3.2153999999999998</v>
+        <v>3.8197000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -2178,11 +2192,11 @@
       </c>
       <c r="D85" s="10"/>
       <c r="H85" s="5">
-        <v>68.037000000000006</v>
+        <v>2.1478999999999999</v>
       </c>
       <c r="I85" s="5"/>
       <c r="K85" s="5">
-        <v>2.1242000000000001</v>
+        <v>2.1812999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -2195,11 +2209,11 @@
       </c>
       <c r="D86" s="10"/>
       <c r="H86" s="5">
-        <v>7.4454999999999999E-3</v>
+        <v>3.4139000000000001E-4</v>
       </c>
       <c r="I86" s="5"/>
       <c r="K86" s="5">
-        <v>2.7662999999999999E-4</v>
+        <v>2.943E-4</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -2212,11 +2226,11 @@
       </c>
       <c r="D87" s="10"/>
       <c r="H87" s="5">
-        <v>176.59</v>
+        <v>3.9857999999999998</v>
       </c>
       <c r="I87" s="5"/>
       <c r="K87" s="5">
-        <v>5.7117000000000004</v>
+        <v>15.944000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -2229,11 +2243,11 @@
       </c>
       <c r="D88" s="10"/>
       <c r="H88" s="5">
-        <v>2.4005999999999998</v>
+        <v>7.5036000000000005E-2</v>
       </c>
       <c r="I88" s="5"/>
       <c r="K88" s="5">
-        <v>3.4688999999999998E-2</v>
+        <v>3.7175E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -2246,11 +2260,11 @@
       </c>
       <c r="D89" s="10"/>
       <c r="H89" s="5">
-        <v>263.97000000000003</v>
+        <v>7.3672000000000004</v>
       </c>
       <c r="I89" s="5"/>
       <c r="K89" s="5">
-        <v>3.5232999999999999</v>
+        <v>4.2361000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -2263,11 +2277,11 @@
       </c>
       <c r="D90" s="11"/>
       <c r="H90" s="5">
-        <v>67.744</v>
+        <v>2.1606999999999998</v>
       </c>
       <c r="I90" s="5"/>
       <c r="K90" s="5">
-        <v>2.1459000000000001</v>
+        <v>2.1955</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -2280,11 +2294,11 @@
       </c>
       <c r="D91" s="11"/>
       <c r="H91" s="5">
-        <v>7.234E-3</v>
+        <v>3.3409999999999999E-4</v>
       </c>
       <c r="I91" s="5"/>
       <c r="K91" s="5">
-        <v>3.3065999999999998E-4</v>
+        <v>2.7244999999999998E-4</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -2297,11 +2311,11 @@
       </c>
       <c r="D92" s="11"/>
       <c r="H92" s="5">
-        <v>309.97000000000003</v>
+        <v>8.7939000000000007</v>
       </c>
       <c r="I92" s="5"/>
       <c r="K92" s="5">
-        <v>37.850999999999999</v>
+        <v>26.693999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -2314,11 +2328,11 @@
       </c>
       <c r="D93" s="11"/>
       <c r="H93" s="5">
-        <v>2.3477999999999999</v>
+        <v>6.8469000000000002E-2</v>
       </c>
       <c r="I93" s="5"/>
       <c r="K93" s="5">
-        <v>3.3267999999999999E-2</v>
+        <v>3.5272999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -2331,11 +2345,11 @@
       </c>
       <c r="D94" s="11"/>
       <c r="H94" s="5">
-        <v>274.64999999999998</v>
+        <v>7.7446000000000002</v>
       </c>
       <c r="I94" s="5"/>
       <c r="K94" s="5">
-        <v>3.2475000000000001</v>
+        <v>3.5023</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -2348,11 +2362,11 @@
       </c>
       <c r="D95" s="11"/>
       <c r="H95" s="5">
-        <v>66.293000000000006</v>
+        <v>2.1495000000000002</v>
       </c>
       <c r="I95" s="5"/>
       <c r="K95" s="5">
-        <v>2.1112000000000002</v>
+        <v>2.1675</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -2365,11 +2379,11 @@
       </c>
       <c r="D96" s="11"/>
       <c r="H96" s="5">
-        <v>7.5306000000000001E-3</v>
+        <v>3.3157E-4</v>
       </c>
       <c r="I96" s="5"/>
       <c r="K96" s="5">
-        <v>2.7922E-4</v>
+        <v>2.9196000000000002E-4</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -2382,11 +2396,11 @@
       </c>
       <c r="D97" s="11"/>
       <c r="H97" s="5">
-        <v>723.07</v>
+        <v>25.841999999999999</v>
       </c>
       <c r="I97" s="5"/>
       <c r="K97" s="5">
-        <v>47.859000000000002</v>
+        <v>32.393999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -2399,11 +2413,11 @@
       </c>
       <c r="D98" s="11"/>
       <c r="H98" s="5">
-        <v>2.0891999999999999</v>
+        <v>7.1648000000000003E-2</v>
       </c>
       <c r="I98" s="5"/>
       <c r="K98" s="5">
-        <v>3.0810000000000001E-2</v>
+        <v>3.7289999999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -2416,11 +2430,11 @@
       </c>
       <c r="D99" s="11"/>
       <c r="H99" s="5">
-        <v>239.38</v>
+        <v>6.6839000000000004</v>
       </c>
       <c r="I99" s="5"/>
       <c r="K99" s="5">
-        <v>3.5411000000000001</v>
+        <v>3.2677</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -2433,11 +2447,11 @@
       </c>
       <c r="D100" s="11"/>
       <c r="H100" s="5">
-        <v>67.843000000000004</v>
+        <v>2.1642999999999999</v>
       </c>
       <c r="I100" s="5"/>
       <c r="K100" s="5">
-        <v>2.1581999999999999</v>
+        <v>2.1979000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -2450,11 +2464,11 @@
       </c>
       <c r="D101" s="11"/>
       <c r="H101" s="5">
-        <v>7.3788999999999999E-3</v>
+        <v>3.2346000000000002E-4</v>
       </c>
       <c r="I101" s="5"/>
       <c r="K101" s="5">
-        <v>2.6499999999999999E-4</v>
+        <v>3.0714000000000002E-4</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -2467,11 +2481,11 @@
       </c>
       <c r="D102" s="11"/>
       <c r="H102" s="5">
-        <v>629</v>
+        <v>27.273</v>
       </c>
       <c r="I102" s="5"/>
       <c r="K102" s="5">
-        <v>5.4915000000000003</v>
+        <v>19.446999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -2484,11 +2498,11 @@
       </c>
       <c r="D103" s="11"/>
       <c r="H103" s="5">
-        <v>2.1915</v>
+        <v>7.8874E-2</v>
       </c>
       <c r="I103" s="5"/>
       <c r="K103" s="5">
-        <v>3.4282E-2</v>
+        <v>3.5388000000000003E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -2501,11 +2515,11 @@
       </c>
       <c r="D104" s="11"/>
       <c r="H104" s="5">
-        <v>249.88</v>
+        <v>8.4459</v>
       </c>
       <c r="I104" s="5"/>
       <c r="K104" s="5">
-        <v>3.7551999999999999</v>
+        <v>3.4613</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -2518,11 +2532,11 @@
       </c>
       <c r="D105" s="11"/>
       <c r="H105" s="5">
-        <v>68.010999999999996</v>
+        <v>2.1316999999999999</v>
       </c>
       <c r="I105" s="5"/>
       <c r="K105" s="5">
-        <v>2.1576</v>
+        <v>2.1924000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -2535,11 +2549,11 @@
       </c>
       <c r="D106" s="11"/>
       <c r="H106" s="5">
-        <v>7.3454999999999996E-3</v>
+        <v>3.3401999999999998E-4</v>
       </c>
       <c r="I106" s="5"/>
       <c r="K106" s="5">
-        <v>2.7692999999999999E-4</v>
+        <v>3.0501999999999998E-4</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -2552,11 +2566,11 @@
       </c>
       <c r="D107" s="11"/>
       <c r="H107" s="5">
-        <v>390.33</v>
+        <v>11.106999999999999</v>
       </c>
       <c r="I107" s="5"/>
       <c r="K107" s="5">
-        <v>30.16</v>
+        <v>21.794</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -2569,11 +2583,11 @@
       </c>
       <c r="D108" s="11"/>
       <c r="H108" s="5">
-        <v>1.883</v>
+        <v>6.9958999999999993E-2</v>
       </c>
       <c r="I108" s="5"/>
       <c r="K108" s="5">
-        <v>4.3449000000000002E-2</v>
+        <v>3.2465000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -2586,11 +2600,11 @@
       </c>
       <c r="D109" s="11"/>
       <c r="H109" s="5">
-        <v>249.12</v>
+        <v>7.7163000000000004</v>
       </c>
       <c r="I109" s="5"/>
       <c r="K109" s="5">
-        <v>3.649</v>
+        <v>4.3251999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -2603,11 +2617,11 @@
       </c>
       <c r="D110" s="11"/>
       <c r="H110" s="5">
-        <v>68.022999999999996</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="I110" s="5"/>
       <c r="K110" s="5">
-        <v>2.1674000000000002</v>
+        <v>2.169</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -2620,11 +2634,11 @@
       </c>
       <c r="D111" s="11"/>
       <c r="H111" s="5">
-        <v>7.6644E-3</v>
+        <v>3.1378999999999999E-4</v>
       </c>
       <c r="I111" s="5"/>
       <c r="K111" s="5">
-        <v>2.9892999999999999E-4</v>
+        <v>2.7954E-4</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -2637,11 +2651,11 @@
       </c>
       <c r="D112" s="11"/>
       <c r="H112" s="5">
-        <v>388.21</v>
+        <v>12.093999999999999</v>
       </c>
       <c r="I112" s="5"/>
       <c r="K112" s="5">
-        <v>23.216999999999999</v>
+        <v>27.856999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -2654,11 +2668,11 @@
       </c>
       <c r="D113" s="11"/>
       <c r="H113" s="5">
-        <v>2.2200000000000002</v>
+        <v>7.7617000000000005E-2</v>
       </c>
       <c r="I113" s="5"/>
       <c r="K113" s="5">
-        <v>4.2791999999999997E-2</v>
+        <v>3.2837999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -2671,11 +2685,11 @@
       </c>
       <c r="D114" s="11"/>
       <c r="H114" s="5">
-        <v>252.93</v>
+        <v>7.2382999999999997</v>
       </c>
       <c r="I114" s="5"/>
       <c r="K114" s="5">
-        <v>3.4218000000000002</v>
+        <v>3.6383000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -2688,11 +2702,11 @@
       </c>
       <c r="D115" s="11"/>
       <c r="H115" s="5">
-        <v>67.78</v>
+        <v>2.1583000000000001</v>
       </c>
       <c r="I115" s="5"/>
       <c r="K115" s="5">
-        <v>2.1097000000000001</v>
+        <v>2.1381000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -2705,11 +2719,11 @@
       </c>
       <c r="D116" s="11"/>
       <c r="H116" s="5">
-        <v>7.2383999999999999E-3</v>
+        <v>3.4888999999999997E-4</v>
       </c>
       <c r="I116" s="5"/>
       <c r="K116" s="5">
-        <v>2.7380999999999998E-4</v>
+        <v>2.6918999999999999E-4</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -2719,14 +2733,16 @@
       <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="11"/>
+      <c r="C117" s="13">
+        <v>7.2740000000000001E-3</v>
+      </c>
       <c r="D117" s="11"/>
       <c r="H117" s="5">
-        <v>3.2620000000000003E-2</v>
+        <v>1.8458000000000001E-3</v>
       </c>
       <c r="I117" s="5"/>
       <c r="K117" s="5">
-        <v>2.1243E-3</v>
+        <v>2.1294E-3</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -2734,14 +2750,16 @@
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="11"/>
+      <c r="C118" s="13">
+        <v>5.9697000000000005E-4</v>
+      </c>
       <c r="D118" s="11"/>
       <c r="H118" s="5">
-        <v>1.8383E-2</v>
+        <v>9.6869999999999996E-4</v>
       </c>
       <c r="I118" s="5"/>
       <c r="K118" s="5">
-        <v>4.4988E-4</v>
+        <v>4.9963999999999998E-4</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -2749,14 +2767,16 @@
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="11"/>
+      <c r="C119" s="13">
+        <v>9.1675999999999997E-3</v>
+      </c>
       <c r="D119" s="11"/>
       <c r="H119" s="5">
-        <v>0.18998000000000001</v>
+        <v>7.0416999999999997E-3</v>
       </c>
       <c r="I119" s="5"/>
       <c r="K119" s="5">
-        <v>7.3638000000000002E-3</v>
+        <v>7.7282999999999996E-3</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -2764,14 +2784,16 @@
       <c r="B120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="11"/>
+      <c r="C120" s="13">
+        <v>8.4246000000000008E-3</v>
+      </c>
       <c r="D120" s="11"/>
       <c r="H120" s="5">
-        <v>4.9429000000000001E-2</v>
+        <v>2.8092E-3</v>
       </c>
       <c r="I120" s="5"/>
       <c r="K120" s="5">
-        <v>1.7041000000000001E-3</v>
+        <v>1.9183E-3</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -2779,14 +2801,16 @@
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="11"/>
+      <c r="C121" s="13">
+        <v>6.6947999999999999E-3</v>
+      </c>
       <c r="D121" s="11"/>
       <c r="H121" s="5">
-        <v>5.0471000000000002E-2</v>
+        <v>2.5902E-3</v>
       </c>
       <c r="I121" s="5"/>
       <c r="K121" s="5">
-        <v>1.6938000000000001E-3</v>
+        <v>1.6107000000000001E-3</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -2794,14 +2818,16 @@
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="11"/>
+      <c r="C122" s="13">
+        <v>9.7482999999999997E-3</v>
+      </c>
       <c r="D122" s="11"/>
       <c r="H122" s="5">
-        <v>7.3745000000000005E-2</v>
+        <v>3.3273E-3</v>
       </c>
       <c r="I122" s="5"/>
       <c r="K122" s="5">
-        <v>1.6471999999999999E-3</v>
+        <v>1.678E-3</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -2809,14 +2835,16 @@
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="11"/>
+      <c r="C123" s="13">
+        <v>6.4580999999999996E-3</v>
+      </c>
       <c r="D123" s="11"/>
       <c r="H123" s="5">
-        <v>4.0930000000000001E-2</v>
+        <v>2.3373999999999999E-3</v>
       </c>
       <c r="I123" s="5"/>
       <c r="K123" s="5">
-        <v>1.9754E-3</v>
+        <v>1.8261E-3</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -2824,14 +2852,16 @@
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="11"/>
+      <c r="C124" s="13">
+        <v>5.7410000000000002E-4</v>
+      </c>
       <c r="D124" s="11"/>
       <c r="H124" s="5">
-        <v>1.6997999999999999E-2</v>
+        <v>1.0227999999999999E-3</v>
       </c>
       <c r="I124" s="5"/>
       <c r="K124" s="5">
-        <v>4.3563E-4</v>
+        <v>4.2697999999999998E-4</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -2839,14 +2869,16 @@
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="11"/>
+      <c r="C125" s="13">
+        <v>8.7440999999999994E-3</v>
+      </c>
       <c r="D125" s="11"/>
       <c r="H125" s="5">
-        <v>0.19114</v>
+        <v>7.1339999999999997E-3</v>
       </c>
       <c r="I125" s="5"/>
       <c r="K125" s="5">
-        <v>7.3793000000000001E-3</v>
+        <v>7.3197999999999996E-3</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -2854,14 +2886,16 @@
       <c r="B126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="11"/>
+      <c r="C126" s="13">
+        <v>8.7466999999999996E-3</v>
+      </c>
       <c r="D126" s="11"/>
       <c r="H126" s="5">
-        <v>4.6786000000000001E-2</v>
+        <v>2.4754999999999998E-3</v>
       </c>
       <c r="I126" s="5"/>
       <c r="K126" s="5">
-        <v>1.6401E-3</v>
+        <v>1.7943E-3</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -2869,14 +2903,16 @@
       <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="11"/>
+      <c r="C127" s="13">
+        <v>8.1192999999999994E-3</v>
+      </c>
       <c r="D127" s="11"/>
       <c r="H127" s="5">
-        <v>5.3115000000000002E-2</v>
+        <v>2.5092999999999999E-3</v>
       </c>
       <c r="I127" s="5"/>
       <c r="K127" s="5">
-        <v>1.7202000000000001E-3</v>
+        <v>1.5573E-3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -2884,14 +2920,16 @@
       <c r="B128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="13">
+        <v>1.18E-2</v>
+      </c>
       <c r="D128" s="11"/>
       <c r="H128" s="5">
-        <v>7.0878999999999998E-2</v>
+        <v>3.4841E-3</v>
       </c>
       <c r="I128" s="5"/>
       <c r="K128" s="5">
-        <v>1.6909E-3</v>
+        <v>1.8499E-3</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -2899,14 +2937,16 @@
       <c r="B129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="11"/>
+      <c r="C129" s="13">
+        <v>8.8214000000000001E-3</v>
+      </c>
       <c r="D129" s="11"/>
       <c r="H129" s="5">
-        <v>4.0129999999999999E-2</v>
+        <v>2.4803999999999998E-3</v>
       </c>
       <c r="I129" s="5"/>
       <c r="K129" s="5">
-        <v>1.9788000000000002E-3</v>
+        <v>1.8395E-3</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -2914,14 +2954,16 @@
       <c r="B130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="11"/>
+      <c r="C130" s="13">
+        <v>6.6310999999999996E-4</v>
+      </c>
       <c r="D130" s="11"/>
       <c r="H130" s="5">
-        <v>1.8443999999999999E-2</v>
+        <v>1.1153000000000001E-3</v>
       </c>
       <c r="I130" s="5"/>
       <c r="K130" s="5">
-        <v>4.1433000000000003E-4</v>
+        <v>4.3892999999999997E-4</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -2929,14 +2971,16 @@
       <c r="B131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="11"/>
+      <c r="C131" s="13">
+        <v>8.4612000000000003E-3</v>
+      </c>
       <c r="D131" s="11"/>
       <c r="H131" s="5">
-        <v>0.19288</v>
+        <v>7.1117999999999997E-3</v>
       </c>
       <c r="I131" s="5"/>
       <c r="K131" s="5">
-        <v>7.3959999999999998E-3</v>
+        <v>7.3305999999999996E-3</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -2944,14 +2988,16 @@
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="11"/>
+      <c r="C132" s="13">
+        <v>9.5107000000000004E-3</v>
+      </c>
       <c r="D132" s="11"/>
       <c r="H132" s="5">
-        <v>4.6852999999999999E-2</v>
+        <v>2.4556000000000001E-3</v>
       </c>
       <c r="I132" s="5"/>
       <c r="K132" s="5">
-        <v>1.6289E-3</v>
+        <v>1.7750999999999999E-3</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -2959,14 +3005,16 @@
       <c r="B133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="11"/>
+      <c r="C133" s="13">
+        <v>7.2737000000000001E-3</v>
+      </c>
       <c r="D133" s="11"/>
       <c r="H133" s="5">
-        <v>4.9390000000000003E-2</v>
+        <v>2.4637999999999999E-3</v>
       </c>
       <c r="I133" s="5"/>
       <c r="K133" s="5">
-        <v>1.6749E-3</v>
+        <v>1.5506000000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -2974,14 +3022,16 @@
       <c r="B134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="11"/>
+      <c r="C134" s="13">
+        <v>8.8477999999999994E-3</v>
+      </c>
       <c r="D134" s="11"/>
       <c r="H134" s="5">
-        <v>6.6607E-2</v>
+        <v>3.0771000000000001E-3</v>
       </c>
       <c r="I134" s="5"/>
       <c r="K134" s="5">
-        <v>1.6974E-3</v>
+        <v>1.8554999999999999E-3</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -2989,14 +3039,16 @@
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="11"/>
+      <c r="C135" s="13">
+        <v>7.9054999999999993E-3</v>
+      </c>
       <c r="D135" s="11"/>
       <c r="H135" s="5">
-        <v>4.2450000000000002E-2</v>
+        <v>2.1101000000000002E-3</v>
       </c>
       <c r="I135" s="5"/>
       <c r="K135" s="5">
-        <v>1.9521E-3</v>
+        <v>1.8385999999999999E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -3004,14 +3056,16 @@
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="11"/>
+      <c r="C136" s="13">
+        <v>5.9380999999999995E-4</v>
+      </c>
       <c r="D136" s="11"/>
       <c r="H136" s="5">
-        <v>1.8022E-2</v>
+        <v>1.1685000000000001E-3</v>
       </c>
       <c r="I136" s="5"/>
       <c r="K136" s="5">
-        <v>4.3228E-4</v>
+        <v>4.4659000000000002E-4</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -3019,10 +3073,12 @@
       <c r="B137" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="11"/>
+      <c r="C137" s="13">
+        <v>8.4735000000000001E-3</v>
+      </c>
       <c r="D137" s="11"/>
       <c r="H137" s="5">
-        <v>0.18955</v>
+        <v>7.0834000000000001E-3</v>
       </c>
       <c r="I137" s="5"/>
       <c r="K137" s="5">
@@ -3034,14 +3090,16 @@
       <c r="B138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="11"/>
+      <c r="C138" s="13">
+        <v>9.1327999999999999E-3</v>
+      </c>
       <c r="D138" s="11"/>
       <c r="H138" s="5">
-        <v>4.9082000000000001E-2</v>
+        <v>2.2650999999999999E-3</v>
       </c>
       <c r="I138" s="5"/>
       <c r="K138" s="5">
-        <v>1.6151E-3</v>
+        <v>1.7891000000000001E-3</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -3049,14 +3107,16 @@
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="11"/>
+      <c r="C139" s="13">
+        <v>5.5890000000000002E-3</v>
+      </c>
       <c r="D139" s="11"/>
       <c r="H139" s="5">
-        <v>5.0797000000000002E-2</v>
+        <v>2.4919999999999999E-3</v>
       </c>
       <c r="I139" s="5"/>
       <c r="K139" s="5">
-        <v>1.6923000000000001E-3</v>
+        <v>1.5767000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -3064,14 +3124,16 @@
       <c r="B140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="11"/>
+      <c r="C140" s="13">
+        <v>9.7689000000000005E-3</v>
+      </c>
       <c r="D140" s="11"/>
       <c r="H140" s="5">
-        <v>6.8310999999999997E-2</v>
+        <v>3.4466000000000002E-3</v>
       </c>
       <c r="I140" s="5"/>
       <c r="K140" s="5">
-        <v>1.6187E-3</v>
+        <v>1.671E-3</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -3079,14 +3141,16 @@
       <c r="B141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="11"/>
+      <c r="C141" s="13">
+        <v>6.9728999999999998E-3</v>
+      </c>
       <c r="D141" s="11"/>
       <c r="H141" s="5">
-        <v>4.1852E-2</v>
+        <v>2.3440000000000002E-3</v>
       </c>
       <c r="I141" s="5"/>
       <c r="K141" s="5">
-        <v>1.9597E-3</v>
+        <v>1.8219E-3</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -3094,14 +3158,16 @@
       <c r="B142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="11"/>
+      <c r="C142" s="13">
+        <v>6.0546000000000005E-4</v>
+      </c>
       <c r="D142" s="11"/>
       <c r="H142" s="5">
-        <v>1.9414000000000001E-2</v>
+        <v>1.3638999999999999E-3</v>
       </c>
       <c r="I142" s="5"/>
       <c r="K142" s="5">
-        <v>4.3195000000000001E-4</v>
+        <v>4.5691999999999998E-4</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -3109,14 +3175,16 @@
       <c r="B143" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="11"/>
+      <c r="C143" s="13">
+        <v>8.8132000000000002E-3</v>
+      </c>
       <c r="D143" s="11"/>
       <c r="H143" s="5">
-        <v>0.18739</v>
+        <v>7.1041999999999998E-3</v>
       </c>
       <c r="I143" s="5"/>
       <c r="K143" s="5">
-        <v>7.4117000000000002E-3</v>
+        <v>7.3277000000000004E-3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -3124,14 +3192,16 @@
       <c r="B144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C144" s="11"/>
+      <c r="C144" s="13">
+        <v>7.2297999999999998E-3</v>
+      </c>
       <c r="D144" s="11"/>
       <c r="H144" s="5">
-        <v>4.7945000000000002E-2</v>
+        <v>2.2437999999999998E-3</v>
       </c>
       <c r="I144" s="5"/>
       <c r="K144" s="5">
-        <v>1.5989000000000001E-3</v>
+        <v>1.7953999999999999E-3</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -3139,14 +3209,16 @@
       <c r="B145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="11"/>
+      <c r="C145" s="13">
+        <v>7.8762999999999993E-3</v>
+      </c>
       <c r="D145" s="11"/>
       <c r="H145" s="5">
-        <v>5.296E-2</v>
+        <v>2.3473999999999999E-3</v>
       </c>
       <c r="I145" s="5"/>
       <c r="K145" s="5">
-        <v>1.8105E-3</v>
+        <v>1.56E-3</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -3154,14 +3226,16 @@
       <c r="B146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C146" s="11"/>
+      <c r="C146" s="13">
+        <v>1.0486000000000001E-2</v>
+      </c>
       <c r="D146" s="11"/>
       <c r="H146" s="5">
-        <v>6.6410999999999998E-2</v>
+        <v>3.2054000000000002E-3</v>
       </c>
       <c r="I146" s="5"/>
       <c r="K146" s="5">
-        <v>2.1285000000000002E-3</v>
+        <v>1.8456E-3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -3169,14 +3243,16 @@
       <c r="B147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C147" s="11"/>
+      <c r="C147" s="13">
+        <v>7.1057000000000004E-3</v>
+      </c>
       <c r="D147" s="11"/>
       <c r="H147" s="5">
-        <v>4.1683999999999999E-2</v>
+        <v>2.3016E-3</v>
       </c>
       <c r="I147" s="5"/>
       <c r="K147" s="5">
-        <v>1.9895999999999998E-3</v>
+        <v>1.8335999999999999E-3</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -3184,14 +3260,16 @@
       <c r="B148" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C148" s="11"/>
+      <c r="C148" s="13">
+        <v>5.9666999999999999E-4</v>
+      </c>
       <c r="D148" s="11"/>
       <c r="H148" s="5">
-        <v>1.7357000000000001E-2</v>
+        <v>1.031E-3</v>
       </c>
       <c r="I148" s="5"/>
       <c r="K148" s="5">
-        <v>4.4105000000000001E-4</v>
+        <v>4.2901000000000001E-4</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -3199,14 +3277,16 @@
       <c r="B149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C149" s="11"/>
+      <c r="C149" s="13">
+        <v>1.0214000000000001E-2</v>
+      </c>
       <c r="D149" s="11"/>
       <c r="H149" s="5">
-        <v>0.18953</v>
+        <v>7.0108999999999996E-3</v>
       </c>
       <c r="I149" s="5"/>
       <c r="K149" s="5">
-        <v>7.3578999999999997E-3</v>
+        <v>7.2824999999999999E-3</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -3214,14 +3294,16 @@
       <c r="B150" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="11"/>
+      <c r="C150" s="13">
+        <v>7.6131000000000002E-3</v>
+      </c>
       <c r="D150" s="11"/>
       <c r="H150" s="5">
-        <v>4.7649999999999998E-2</v>
+        <v>2.3633E-3</v>
       </c>
       <c r="I150" s="5"/>
       <c r="K150" s="5">
-        <v>1.6232E-3</v>
+        <v>1.7887999999999999E-3</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -3229,14 +3311,16 @@
       <c r="B151" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="11"/>
+      <c r="C151" s="13">
+        <v>8.0259000000000007E-3</v>
+      </c>
       <c r="D151" s="11"/>
       <c r="H151" s="5">
-        <v>5.1322E-2</v>
+        <v>2.5132000000000002E-3</v>
       </c>
       <c r="I151" s="5"/>
       <c r="K151" s="5">
-        <v>1.7053000000000001E-3</v>
+        <v>1.5633999999999999E-3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -3244,14 +3328,16 @@
       <c r="B152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C152" s="11"/>
+      <c r="C152" s="13">
+        <v>9.5230000000000002E-3</v>
+      </c>
       <c r="D152" s="11"/>
       <c r="H152" s="5">
-        <v>6.1946000000000001E-2</v>
+        <v>3.2439000000000001E-3</v>
       </c>
       <c r="I152" s="5"/>
       <c r="K152" s="5">
-        <v>1.5956E-3</v>
+        <v>1.6611E-3</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -3259,14 +3345,16 @@
       <c r="B153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C153" s="11"/>
+      <c r="C153" s="13">
+        <v>6.4989999999999996E-3</v>
+      </c>
       <c r="D153" s="11"/>
       <c r="H153" s="5">
-        <v>4.1181000000000002E-2</v>
+        <v>2.3341E-3</v>
       </c>
       <c r="I153" s="5"/>
       <c r="K153" s="5">
-        <v>2.0338000000000001E-3</v>
+        <v>1.8219E-3</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -3274,14 +3362,16 @@
       <c r="B154" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="11"/>
+      <c r="C154" s="13">
+        <v>6.0612000000000003E-4</v>
+      </c>
       <c r="D154" s="11"/>
       <c r="H154" s="5">
-        <v>1.7471E-2</v>
+        <v>9.6279000000000004E-4</v>
       </c>
       <c r="I154" s="5"/>
       <c r="K154" s="5">
-        <v>4.1141000000000002E-4</v>
+        <v>4.3768000000000002E-4</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -3289,14 +3379,16 @@
       <c r="B155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="11"/>
+      <c r="C155" s="13">
+        <v>8.7048000000000004E-3</v>
+      </c>
       <c r="D155" s="11"/>
       <c r="H155" s="5">
-        <v>0.18828</v>
+        <v>7.1428999999999998E-3</v>
       </c>
       <c r="I155" s="5"/>
       <c r="K155" s="5">
-        <v>7.2874999999999997E-3</v>
+        <v>7.3195999999999999E-3</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -3304,14 +3396,16 @@
       <c r="B156" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="11"/>
+      <c r="C156" s="13">
+        <v>7.8534E-3</v>
+      </c>
       <c r="D156" s="11"/>
       <c r="H156" s="5">
-        <v>4.7102999999999999E-2</v>
+        <v>2.6308999999999998E-3</v>
       </c>
       <c r="I156" s="5"/>
       <c r="K156" s="5">
-        <v>1.6244E-3</v>
+        <v>1.7974E-3</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -3319,14 +3413,16 @@
       <c r="B157" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C157" s="11"/>
+      <c r="C157" s="13">
+        <v>9.2571000000000007E-3</v>
+      </c>
       <c r="D157" s="11"/>
       <c r="H157" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>2.2950000000000002E-3</v>
       </c>
       <c r="I157" s="5"/>
       <c r="K157" s="5">
-        <v>1.6838000000000001E-3</v>
+        <v>1.5677E-3</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -3334,14 +3430,16 @@
       <c r="B158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="11"/>
+      <c r="C158" s="13">
+        <v>1.1147000000000001E-2</v>
+      </c>
       <c r="D158" s="11"/>
       <c r="H158" s="5">
-        <v>7.5468999999999994E-2</v>
+        <v>3.8084999999999998E-3</v>
       </c>
       <c r="I158" s="5"/>
       <c r="K158" s="5">
-        <v>1.7428000000000001E-3</v>
+        <v>1.8376E-3</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -3349,14 +3447,16 @@
       <c r="B159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="11"/>
+      <c r="C159" s="13">
+        <v>7.3122999999999999E-3</v>
+      </c>
       <c r="D159" s="11"/>
       <c r="H159" s="5">
-        <v>4.1556000000000003E-2</v>
+        <v>2.1703E-3</v>
       </c>
       <c r="I159" s="5"/>
       <c r="K159" s="5">
-        <v>1.9908E-3</v>
+        <v>1.8450999999999999E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -3364,14 +3464,16 @@
       <c r="B160" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C160" s="11"/>
+      <c r="C160" s="13">
+        <v>5.6944000000000005E-4</v>
+      </c>
       <c r="D160" s="11"/>
       <c r="H160" s="5">
-        <v>1.7441999999999999E-2</v>
+        <v>1.0529999999999999E-3</v>
       </c>
       <c r="I160" s="5"/>
       <c r="K160" s="5">
-        <v>4.2864999999999998E-4</v>
+        <v>4.3437E-4</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -3379,14 +3481,16 @@
       <c r="B161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C161" s="11"/>
+      <c r="C161" s="13">
+        <v>8.5337E-3</v>
+      </c>
       <c r="D161" s="11"/>
       <c r="H161" s="5">
-        <v>0.19338</v>
+        <v>7.0990000000000003E-3</v>
       </c>
       <c r="I161" s="5"/>
       <c r="K161" s="5">
-        <v>7.4330000000000004E-3</v>
+        <v>7.3115000000000003E-3</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -3394,14 +3498,16 @@
       <c r="B162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C162" s="11"/>
+      <c r="C162" s="13">
+        <v>8.9020999999999996E-3</v>
+      </c>
       <c r="D162" s="11"/>
       <c r="H162" s="5">
-        <v>4.7291E-2</v>
+        <v>2.2935999999999998E-3</v>
       </c>
       <c r="I162" s="5"/>
       <c r="K162" s="5">
-        <v>1.6335E-3</v>
+        <v>1.7880000000000001E-3</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -3409,14 +3515,16 @@
       <c r="B163" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="11"/>
+      <c r="C163" s="13">
+        <v>6.8446999999999996E-3</v>
+      </c>
       <c r="D163" s="11"/>
       <c r="H163" s="5">
-        <v>5.0283000000000001E-2</v>
+        <v>2.5844000000000002E-3</v>
       </c>
       <c r="I163" s="5"/>
       <c r="K163" s="5">
-        <v>1.6907999999999999E-3</v>
+        <v>1.5678999999999999E-3</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -3424,14 +3532,16 @@
       <c r="B164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C164" s="11"/>
+      <c r="C164" s="13">
+        <v>1.1783999999999999E-2</v>
+      </c>
       <c r="D164" s="11"/>
       <c r="H164" s="5">
-        <v>7.4936000000000003E-2</v>
+        <v>3.5044E-3</v>
       </c>
       <c r="I164" s="5"/>
       <c r="K164" s="5">
-        <v>1.6976999999999999E-3</v>
+        <v>1.833E-3</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -3439,14 +3549,16 @@
       <c r="B165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="11"/>
+      <c r="C165" s="13">
+        <v>7.6236000000000003E-3</v>
+      </c>
       <c r="D165" s="11"/>
       <c r="H165" s="5">
-        <v>4.1735000000000001E-2</v>
+        <v>2.3262000000000001E-3</v>
       </c>
       <c r="I165" s="5"/>
       <c r="K165" s="5">
-        <v>1.9616E-3</v>
+        <v>1.8201999999999999E-3</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -3454,14 +3566,16 @@
       <c r="B166" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C166" s="11"/>
+      <c r="C166" s="13">
+        <v>5.1385000000000005E-4</v>
+      </c>
       <c r="D166" s="11"/>
       <c r="H166" s="5">
-        <v>1.8006999999999999E-2</v>
+        <v>1.2823000000000001E-3</v>
       </c>
       <c r="I166" s="5"/>
       <c r="K166" s="5">
-        <v>4.6456999999999998E-4</v>
+        <v>4.4171999999999999E-4</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -3471,14 +3585,16 @@
       <c r="B167" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="11"/>
+      <c r="C167" s="13">
+        <v>6.7448999999999999E-3</v>
+      </c>
       <c r="D167" s="11"/>
       <c r="H167" s="5">
-        <v>1.6738999999999999</v>
+        <v>8.2063999999999998E-2</v>
       </c>
       <c r="I167" s="5"/>
       <c r="K167" s="5">
-        <v>2.7563000000000002E-3</v>
+        <v>3.0146999999999999E-3</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -3486,14 +3602,16 @@
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="11"/>
+      <c r="C168" s="13">
+        <v>4.1230000000000003E-2</v>
+      </c>
       <c r="D168" s="11"/>
       <c r="H168" s="5">
-        <v>46.896000000000001</v>
+        <v>2.2662</v>
       </c>
       <c r="I168" s="5"/>
       <c r="K168" s="5">
-        <v>1.187E-2</v>
+        <v>1.5533E-2</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -3501,14 +3619,16 @@
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="11"/>
+      <c r="C169" s="13">
+        <v>0.38189000000000001</v>
+      </c>
       <c r="D169" s="11"/>
       <c r="H169" s="5">
-        <v>4859.6000000000004</v>
+        <v>89.966999999999999</v>
       </c>
       <c r="I169" s="5"/>
       <c r="K169" s="5">
-        <v>5.0118999999999997E-2</v>
+        <v>4.5615000000000003E-2</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -3516,14 +3636,16 @@
       <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C170" s="11"/>
+      <c r="C170" s="13">
+        <v>1.6261000000000001E-2</v>
+      </c>
       <c r="D170" s="11"/>
       <c r="H170" s="5">
-        <v>1.8245</v>
+        <v>2.1068E-2</v>
       </c>
       <c r="I170" s="5"/>
       <c r="K170" s="5">
-        <v>1.0779E-2</v>
+        <v>9.5388999999999995E-3</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -3531,14 +3653,16 @@
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="11"/>
+      <c r="C171" s="13">
+        <v>3.8591E-2</v>
+      </c>
       <c r="D171" s="11"/>
       <c r="H171" s="5">
-        <v>7.2503000000000002</v>
+        <v>0.10281999999999999</v>
       </c>
       <c r="I171" s="5"/>
       <c r="K171" s="5">
-        <v>0.12164</v>
+        <v>7.7006000000000005E-2</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -3546,14 +3670,16 @@
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="11"/>
+      <c r="C172" s="13">
+        <v>6.8240000000000002E-3</v>
+      </c>
       <c r="D172" s="11"/>
       <c r="H172" s="5">
-        <v>0.89175000000000004</v>
+        <v>1.1494000000000001E-2</v>
       </c>
       <c r="I172" s="5"/>
       <c r="K172" s="5">
-        <v>5.2798000000000003E-3</v>
+        <v>5.3560999999999999E-3</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -3561,14 +3687,16 @@
       <c r="B173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="11"/>
+      <c r="C173" s="13">
+        <v>1.0855999999999999E-2</v>
+      </c>
       <c r="D173" s="11"/>
       <c r="H173" s="5">
-        <v>5.4798999999999998</v>
+        <v>5.8616000000000001E-2</v>
       </c>
       <c r="I173" s="5"/>
       <c r="K173" s="5">
-        <v>7.4045999999999999E-3</v>
+        <v>6.7961999999999996E-3</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -3576,14 +3704,16 @@
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="11"/>
+      <c r="C174" s="13">
+        <v>5.8028000000000003E-3</v>
+      </c>
       <c r="D174" s="11"/>
       <c r="H174" s="5">
-        <v>0.21826999999999999</v>
+        <v>2.7241000000000001E-3</v>
       </c>
       <c r="I174" s="5"/>
       <c r="K174" s="5">
-        <v>1.7210999999999999E-3</v>
+        <v>1.2093E-3</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -3591,14 +3721,16 @@
       <c r="B175" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="11"/>
+      <c r="C175" s="13">
+        <v>7.0952999999999997E-3</v>
+      </c>
       <c r="D175" s="11"/>
       <c r="H175" s="5">
-        <v>4.4000000000000004</v>
+        <v>7.5882000000000005E-2</v>
       </c>
       <c r="I175" s="5"/>
       <c r="K175" s="5">
-        <v>6.6666E-3</v>
+        <v>6.8411000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -3606,14 +3738,16 @@
       <c r="B176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="11"/>
+      <c r="C176" s="13">
+        <v>4.9715000000000002E-3</v>
+      </c>
       <c r="D176" s="11"/>
       <c r="H176" s="5">
-        <v>0.15507000000000001</v>
+        <v>1.8071000000000001E-3</v>
       </c>
       <c r="I176" s="5"/>
       <c r="K176" s="5">
-        <v>2.2046000000000001E-3</v>
+        <v>2.1375000000000001E-3</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3621,14 +3755,16 @@
       <c r="B177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="11"/>
+      <c r="C177" s="13">
+        <v>1.0305999999999999E-2</v>
+      </c>
       <c r="D177" s="11"/>
       <c r="H177" s="5">
-        <v>46.423999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I177" s="5"/>
       <c r="K177" s="5">
-        <v>9.0383000000000008E-3</v>
+        <v>9.8379999999999995E-3</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -3636,14 +3772,16 @@
       <c r="B178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="11"/>
+      <c r="C178" s="13">
+        <v>9.0384000000000003E-3</v>
+      </c>
       <c r="D178" s="11"/>
       <c r="H178" s="5">
-        <v>0.78342999999999996</v>
+        <v>8.3405000000000007E-3</v>
       </c>
       <c r="I178" s="5"/>
       <c r="K178" s="5">
-        <v>5.0267000000000003E-3</v>
+        <v>5.3609E-3</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -3651,14 +3789,16 @@
       <c r="B179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="11"/>
+      <c r="C179" s="13">
+        <v>1.2289E-2</v>
+      </c>
       <c r="D179" s="11"/>
       <c r="H179" s="5">
-        <v>2.7261000000000002</v>
+        <v>3.2465000000000001E-2</v>
       </c>
       <c r="I179" s="5"/>
       <c r="K179" s="5">
-        <v>3.1493E-2</v>
+        <v>3.7103999999999998E-2</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -3666,14 +3806,16 @@
       <c r="B180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="11"/>
+      <c r="C180" s="13">
+        <v>6.7965999999999999E-3</v>
+      </c>
       <c r="D180" s="11"/>
       <c r="H180" s="5">
-        <v>0.89412000000000003</v>
+        <v>1.0397E-2</v>
       </c>
       <c r="I180" s="5"/>
       <c r="K180" s="5">
-        <v>4.5645E-3</v>
+        <v>5.0495999999999996E-3</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -3681,14 +3823,16 @@
       <c r="B181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C181" s="11"/>
+      <c r="C181" s="13">
+        <v>6.5566000000000001E-3</v>
+      </c>
       <c r="D181" s="11"/>
       <c r="H181" s="5">
-        <v>0.34087000000000001</v>
+        <v>4.8006000000000004E-3</v>
       </c>
       <c r="I181" s="5"/>
       <c r="K181" s="5">
-        <v>3.2648999999999998E-3</v>
+        <v>2.8823999999999998E-3</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -3696,14 +3840,16 @@
       <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C182" s="11"/>
+      <c r="C182" s="13">
+        <v>2.4412E-2</v>
+      </c>
       <c r="D182" s="11"/>
       <c r="H182" s="5">
-        <v>90.575000000000003</v>
+        <v>4.4549000000000003</v>
       </c>
       <c r="I182" s="5"/>
       <c r="K182" s="5">
-        <v>1.9241999999999999E-2</v>
+        <v>2.0604000000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -3711,14 +3857,16 @@
       <c r="B183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C183" s="11"/>
+      <c r="C183" s="13">
+        <v>1.5333000000000001</v>
+      </c>
       <c r="D183" s="11"/>
       <c r="H183" s="5">
-        <v>5677.2</v>
+        <v>113.47</v>
       </c>
       <c r="I183" s="5"/>
       <c r="K183" s="5">
-        <v>0.12321</v>
+        <v>0.17534</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -3726,14 +3874,16 @@
       <c r="B184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C184" s="11"/>
+      <c r="C184" s="13">
+        <v>1.1906999999999999E-2</v>
+      </c>
       <c r="D184" s="11"/>
       <c r="H184" s="5">
-        <v>2.3828999999999998</v>
+        <v>4.1451000000000002E-2</v>
       </c>
       <c r="I184" s="5"/>
       <c r="K184" s="5">
-        <v>9.0422999999999996E-3</v>
+        <v>1.142E-2</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -3741,14 +3891,16 @@
       <c r="B185" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="11"/>
+      <c r="C185" s="13">
+        <v>3.4356999999999999E-2</v>
+      </c>
       <c r="D185" s="11"/>
       <c r="H185" s="5">
-        <v>7.3966000000000003</v>
+        <v>0.10266</v>
       </c>
       <c r="I185" s="5"/>
       <c r="K185" s="5">
-        <v>7.9494999999999996E-2</v>
+        <v>7.4376999999999999E-2</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -3756,14 +3908,16 @@
       <c r="B186" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C186" s="11"/>
+      <c r="C186" s="13">
+        <v>6.8718E-3</v>
+      </c>
       <c r="D186" s="11"/>
       <c r="H186" s="5">
-        <v>0.90759999999999996</v>
+        <v>1.1717E-2</v>
       </c>
       <c r="I186" s="5"/>
       <c r="K186" s="5">
-        <v>5.3036000000000003E-3</v>
+        <v>3.8102000000000001E-3</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -3771,13 +3925,15 @@
       <c r="B187" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C187" s="11"/>
+      <c r="C187" s="13">
+        <v>1.1479E-2</v>
+      </c>
       <c r="D187" s="11"/>
       <c r="H187" s="5">
-        <v>5.4592000000000001</v>
+        <v>6.1216E-2</v>
       </c>
       <c r="K187" s="5">
-        <v>7.9132999999999998E-3</v>
+        <v>7.5957999999999998E-3</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -3785,13 +3941,15 @@
       <c r="B188" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C188" s="11"/>
+      <c r="C188" s="13">
+        <v>6.0930000000000003E-3</v>
+      </c>
       <c r="D188" s="11"/>
       <c r="H188" s="5">
-        <v>0.21154999999999999</v>
+        <v>2.5647000000000001E-3</v>
       </c>
       <c r="K188" s="5">
-        <v>1.5161E-3</v>
+        <v>1.1458E-3</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -3799,13 +3957,15 @@
       <c r="B189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C189" s="11"/>
+      <c r="C189" s="13">
+        <v>7.3514000000000001E-3</v>
+      </c>
       <c r="D189" s="11"/>
       <c r="H189" s="5">
-        <v>5.5038999999999998</v>
+        <v>7.9982999999999999E-2</v>
       </c>
       <c r="K189" s="5">
-        <v>6.8234000000000003E-3</v>
+        <v>7.4612999999999997E-3</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -3813,13 +3973,15 @@
       <c r="B190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="11"/>
+      <c r="C190" s="13">
+        <v>4.6719999999999999E-3</v>
+      </c>
       <c r="D190" s="11"/>
       <c r="H190" s="5">
-        <v>0.14224999999999999</v>
+        <v>1.7551999999999999E-3</v>
       </c>
       <c r="K190" s="5">
-        <v>2.4933999999999998E-3</v>
+        <v>2.2942000000000001E-3</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -3827,13 +3989,15 @@
       <c r="B191" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="11"/>
+      <c r="C191" s="13">
+        <v>2.4112999999999999E-2</v>
+      </c>
       <c r="D191" s="11"/>
       <c r="H191" s="5">
-        <v>124.54</v>
+        <v>1.7910999999999999</v>
       </c>
       <c r="K191" s="5">
-        <v>9.9951999999999992E-3</v>
+        <v>9.8679000000000006E-3</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -3841,13 +4005,15 @@
       <c r="B192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="11"/>
+      <c r="C192" s="13">
+        <v>8.7650000000000002E-3</v>
+      </c>
       <c r="D192" s="11"/>
       <c r="H192" s="5">
-        <v>0.77248000000000006</v>
+        <v>7.9754000000000005E-3</v>
       </c>
       <c r="K192" s="5">
-        <v>4.6503999999999998E-3</v>
+        <v>5.0942000000000001E-3</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -3855,13 +4021,15 @@
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C193" s="11"/>
+      <c r="C193" s="13">
+        <v>1.302E-2</v>
+      </c>
       <c r="D193" s="11"/>
       <c r="H193" s="5">
-        <v>2.8168000000000002</v>
+        <v>3.4986999999999997E-2</v>
       </c>
       <c r="K193" s="5">
-        <v>3.5331000000000001E-2</v>
+        <v>2.9437999999999999E-2</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -3869,13 +4037,15 @@
       <c r="B194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C194" s="11"/>
+      <c r="C194" s="13">
+        <v>6.7723000000000002E-3</v>
+      </c>
       <c r="D194" s="11"/>
       <c r="H194" s="5">
-        <v>0.85562000000000005</v>
+        <v>9.9121999999999995E-3</v>
       </c>
       <c r="K194" s="5">
-        <v>5.8969000000000001E-3</v>
+        <v>4.1913999999999996E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3889,8 +4059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8574390-C923-428B-BCCC-9F0A2438484C}">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D194"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3909,10 +4082,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4005,6 +4178,9 @@
       <c r="D7" s="5">
         <v>3.1231000000000002E-3</v>
       </c>
+      <c r="E7" s="5">
+        <v>2.6283000000000001E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -4017,6 +4193,9 @@
       <c r="D8" s="5">
         <v>8.1466999999999998E-3</v>
       </c>
+      <c r="E8" s="5">
+        <v>4.2788000000000001E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -4029,6 +4208,9 @@
       <c r="D9" s="5">
         <v>1.9788E-2</v>
       </c>
+      <c r="E9" s="5">
+        <v>2.0330000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -4041,6 +4223,9 @@
       <c r="D10" s="5">
         <v>1.1456000000000001E-3</v>
       </c>
+      <c r="E10" s="5">
+        <v>1.4483E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -4053,6 +4238,9 @@
       <c r="D11" s="5">
         <v>6.5973999999999998E-3</v>
       </c>
+      <c r="E11" s="5">
+        <v>5.8104000000000003E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -4065,6 +4253,9 @@
       <c r="D12" s="5">
         <v>1.0311000000000001E-2</v>
       </c>
+      <c r="E12" s="5">
+        <v>8.6958000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -4077,6 +4268,9 @@
       <c r="D13" s="5">
         <v>2.5474999999999999E-3</v>
       </c>
+      <c r="E13" s="5">
+        <v>2.2396999999999999E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -4089,6 +4283,9 @@
       <c r="D14" s="5">
         <v>1.5755999999999999E-2</v>
       </c>
+      <c r="E14" s="5">
+        <v>1.6154999999999999E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4101,6 +4298,9 @@
       <c r="D15" s="5">
         <v>2.0284999999999999E-3</v>
       </c>
+      <c r="E15" s="5">
+        <v>2.0387999999999999E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -4113,8 +4313,11 @@
       <c r="D16" s="5">
         <v>1.2276E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="5">
+        <v>7.4878999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -4127,8 +4330,11 @@
       <c r="D17" s="5">
         <v>1.4192E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="5">
+        <v>1.6587999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>3</v>
@@ -4139,8 +4345,11 @@
       <c r="D18" s="5">
         <v>3.3841000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="5">
+        <v>4.0835000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -4151,8 +4360,11 @@
       <c r="D19" s="5">
         <v>5.8292999999999999E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="5">
+        <v>6.4872999999999997E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -4163,8 +4375,11 @@
       <c r="D20" s="5">
         <v>2.5917000000000002E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="5">
+        <v>2.5268000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
@@ -4175,8 +4390,11 @@
       <c r="D21" s="5">
         <v>7.9506000000000004E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="5">
+        <v>1.1048000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -4187,8 +4405,11 @@
       <c r="D22" s="5">
         <v>1.2759E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="5">
+        <v>2.4660999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -4199,8 +4420,11 @@
       <c r="D23" s="5">
         <v>3.0095999999999999E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="5">
+        <v>2.9261000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -4211,8 +4435,11 @@
       <c r="D24" s="5">
         <v>5.3749999999999996E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="5">
+        <v>5.9960999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -4223,8 +4450,11 @@
       <c r="D25" s="5">
         <v>2.97E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="5">
+        <v>2.8605000000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -4235,8 +4465,11 @@
       <c r="D26" s="5">
         <v>3.3666E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="5">
+        <v>3.4480000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -4249,8 +4482,11 @@
       <c r="D27" s="5">
         <v>1.3553E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="5">
+        <v>1.2700999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>3</v>
@@ -4261,8 +4497,11 @@
       <c r="D28" s="5">
         <v>0.51619000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="5">
+        <v>2.2305999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -4273,8 +4512,11 @@
       <c r="D29" s="5">
         <v>1.0150999999999999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="5">
+        <v>9.7936000000000008E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -4285,8 +4527,11 @@
       <c r="D30" s="5">
         <v>1.2818E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="5">
+        <v>1.2187999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -4297,8 +4542,11 @@
       <c r="D31" s="5">
         <v>0.60170000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="5">
+        <v>2.1003999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>8</v>
@@ -4309,8 +4557,11 @@
       <c r="D32" s="5">
         <v>8.9302999999999995E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="5">
+        <v>9.9653999999999997E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
@@ -4321,8 +4572,11 @@
       <c r="D33" s="5">
         <v>2.5404</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="5">
+        <v>1.8593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -4333,8 +4587,11 @@
       <c r="D34" s="5">
         <v>5.7448999999999998E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="5">
+        <v>3.5455E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -4345,8 +4602,11 @@
       <c r="D35" s="5">
         <v>6.7387999999999997E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="5">
+        <v>9.5051000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -4357,8 +4617,11 @@
       <c r="D36" s="5">
         <v>3.1768000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="5">
+        <v>2.1831999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -4369,8 +4632,11 @@
       <c r="D37" s="5">
         <v>7.0962E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="5">
+        <v>6.8796000000000005E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
@@ -4381,8 +4647,11 @@
       <c r="D38" s="5">
         <v>0.14485999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="5">
+        <v>0.20888999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>17</v>
@@ -4393,8 +4662,11 @@
       <c r="D39" s="5">
         <v>3.4329999999999999E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="5">
+        <v>1.4686E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>18</v>
@@ -4405,8 +4677,11 @@
       <c r="D40" s="5">
         <v>6.9612999999999999E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="5">
+        <v>6.8559000000000003E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -4417,8 +4692,11 @@
       <c r="D41" s="5">
         <v>0.66815000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="5">
+        <v>2.2908000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>20</v>
@@ -4429,8 +4707,11 @@
       <c r="D42" s="5">
         <v>1.5644999999999999E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="5">
+        <v>1.6012000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>21</v>
@@ -4441,8 +4722,11 @@
       <c r="D43" s="5">
         <v>5.7198000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="5">
+        <v>0.81888000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>22</v>
@@ -4453,8 +4737,11 @@
       <c r="D44" s="5">
         <v>1.3967999999999999E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="5">
+        <v>1.3133000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>23</v>
@@ -4465,8 +4752,11 @@
       <c r="D45" s="5">
         <v>1.2110000000000001E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="5">
+        <v>1.2083E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>24</v>
@@ -4477,8 +4767,11 @@
       <c r="D46" s="5">
         <v>0.99512</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="5">
+        <v>1.3007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -4491,8 +4784,11 @@
       <c r="D47" s="5">
         <v>9.9869999999999994E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="5">
+        <v>1.0761E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>3</v>
@@ -4503,8 +4799,11 @@
       <c r="D48" s="5">
         <v>2.0316000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="5">
+        <v>1.7747999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>4</v>
@@ -4515,8 +4814,11 @@
       <c r="D49" s="5">
         <v>4.7424000000000001E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="5">
+        <v>4.6880000000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>5</v>
@@ -4527,8 +4829,11 @@
       <c r="D50" s="5">
         <v>2.3040000000000001E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="5">
+        <v>2.1592999999999998E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>6</v>
@@ -4539,8 +4844,11 @@
       <c r="D51" s="5">
         <v>2.5152000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="5">
+        <v>2.9582000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>8</v>
@@ -4551,8 +4859,11 @@
       <c r="D52" s="5">
         <v>1.4291E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="5">
+        <v>1.3814999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>9</v>
@@ -4563,8 +4874,11 @@
       <c r="D53" s="5">
         <v>1.2172000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="5">
+        <v>1.6161000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -4575,8 +4889,11 @@
       <c r="D54" s="5">
         <v>2.7978000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="5">
+        <v>1.8381000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -4587,8 +4904,11 @@
       <c r="D55" s="5">
         <v>4.7328000000000002E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="5">
+        <v>4.7744999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -4599,8 +4919,11 @@
       <c r="D56" s="5">
         <v>2.0731E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="5">
+        <v>2.9591999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -4611,8 +4934,11 @@
       <c r="D57" s="5">
         <v>2.2404999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="5">
+        <v>2.1939000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>16</v>
@@ -4623,8 +4949,11 @@
       <c r="D58" s="5">
         <v>1.2378999999999999E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="5">
+        <v>1.3131E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>17</v>
@@ -4635,8 +4964,11 @@
       <c r="D59" s="5">
         <v>1.0824000000000001E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="5">
+        <v>1.6971E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>18</v>
@@ -4647,8 +4979,11 @@
       <c r="D60" s="5">
         <v>2.4033000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="5">
+        <v>1.3514999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>19</v>
@@ -4659,8 +4994,11 @@
       <c r="D61" s="5">
         <v>4.7937000000000001E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="5">
+        <v>4.7224000000000002E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>20</v>
@@ -4671,8 +5009,11 @@
       <c r="D62" s="5">
         <v>2.0496999999999998E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="5">
+        <v>2.4299E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>21</v>
@@ -4683,8 +5024,11 @@
       <c r="D63" s="5">
         <v>2.2231000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="5">
+        <v>3.1356000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>22</v>
@@ -4695,8 +5039,11 @@
       <c r="D64" s="5">
         <v>1.2537E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="5">
+        <v>1.3741000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>23</v>
@@ -4707,8 +5054,11 @@
       <c r="D65" s="5">
         <v>1.4579E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="5">
+        <v>1.1257999999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>24</v>
@@ -4719,8 +5069,11 @@
       <c r="D66" s="5">
         <v>2.8420999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="5">
+        <v>1.8952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>26</v>
@@ -4731,8 +5084,11 @@
       <c r="D67" s="5">
         <v>4.7420999999999997E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="5">
+        <v>4.7551000000000001E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>27</v>
@@ -4743,8 +5099,11 @@
       <c r="D68" s="5">
         <v>2.3700000000000001E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="5">
+        <v>2.7028999999999998E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>28</v>
@@ -4755,8 +5114,11 @@
       <c r="D69" s="5">
         <v>2.1648000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="5">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>29</v>
@@ -4767,8 +5129,11 @@
       <c r="D70" s="5">
         <v>1.3638999999999999E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="5">
+        <v>1.3454999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>30</v>
@@ -4779,8 +5144,11 @@
       <c r="D71" s="5">
         <v>1.2439E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="5">
+        <v>1.1418000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>31</v>
@@ -4791,8 +5159,11 @@
       <c r="D72" s="5">
         <v>2.1819999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="5">
+        <v>2.5379999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>32</v>
@@ -4803,8 +5174,11 @@
       <c r="D73" s="5">
         <v>4.86E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="5">
+        <v>4.7004000000000002E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>33</v>
@@ -4815,8 +5189,11 @@
       <c r="D74" s="5">
         <v>2.1026E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="5">
+        <v>2.4269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>34</v>
@@ -4827,8 +5204,11 @@
       <c r="D75" s="5">
         <v>2.5754000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="5">
+        <v>2.2351000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -4839,8 +5219,11 @@
       <c r="D76" s="5">
         <v>1.2936E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="5">
+        <v>1.2198000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>36</v>
       </c>
@@ -4853,8 +5236,11 @@
       <c r="D77" s="5">
         <v>60.243000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="5">
+        <v>85.069000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>3</v>
@@ -4865,8 +5251,11 @@
       <c r="D78" s="5">
         <v>4.6942999999999999E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="5">
+        <v>4.2549999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -4877,8 +5266,11 @@
       <c r="D79" s="5">
         <v>3.6398000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="5">
+        <v>3.7446000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>5</v>
@@ -4889,8 +5281,11 @@
       <c r="D80" s="5">
         <v>2.1259000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="5">
+        <v>2.1873999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>6</v>
@@ -4901,8 +5296,11 @@
       <c r="D81" s="5">
         <v>2.9506999999999998E-4</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="5">
+        <v>2.8547000000000002E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>8</v>
@@ -4913,8 +5311,11 @@
       <c r="D82" s="5">
         <v>11.291</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="5">
+        <v>12.183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>9</v>
@@ -4925,8 +5326,11 @@
       <c r="D83" s="5">
         <v>3.5374999999999997E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="5">
+        <v>3.6774000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>10</v>
@@ -4937,8 +5341,11 @@
       <c r="D84" s="5">
         <v>3.2153999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="5">
+        <v>3.3079000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>11</v>
@@ -4949,8 +5356,11 @@
       <c r="D85" s="5">
         <v>2.1242000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="5">
+        <v>2.1760999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -4961,8 +5371,11 @@
       <c r="D86" s="5">
         <v>2.7662999999999999E-4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="5">
+        <v>2.9006000000000002E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>15</v>
@@ -4973,8 +5386,11 @@
       <c r="D87" s="5">
         <v>5.7117000000000004</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="5">
+        <v>13.722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>16</v>
@@ -4985,8 +5401,11 @@
       <c r="D88" s="5">
         <v>3.4688999999999998E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="5">
+        <v>3.7808000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>17</v>
@@ -4997,8 +5416,11 @@
       <c r="D89" s="5">
         <v>3.5232999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="5">
+        <v>4.1914999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
@@ -5009,8 +5431,11 @@
       <c r="D90" s="5">
         <v>2.1459000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="5">
+        <v>2.2071000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
@@ -5021,8 +5446,11 @@
       <c r="D91" s="5">
         <v>3.3065999999999998E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="5">
+        <v>3.2288E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
         <v>20</v>
@@ -5033,8 +5461,11 @@
       <c r="D92" s="5">
         <v>37.850999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="5">
+        <v>73.820999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="1" t="s">
         <v>21</v>
@@ -5045,8 +5476,11 @@
       <c r="D93" s="5">
         <v>3.3267999999999999E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="5">
+        <v>3.5323E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
         <v>22</v>
@@ -5057,8 +5491,11 @@
       <c r="D94" s="5">
         <v>3.2475000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="5">
+        <v>3.6573000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
         <v>23</v>
@@ -5069,8 +5506,11 @@
       <c r="D95" s="5">
         <v>2.1112000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="5">
+        <v>2.1343999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
         <v>24</v>
@@ -5081,8 +5521,11 @@
       <c r="D96" s="5">
         <v>2.7922E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="5">
+        <v>3.0407999999999998E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
         <v>26</v>
@@ -5093,8 +5536,11 @@
       <c r="D97" s="5">
         <v>47.859000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="5">
+        <v>34.328000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
         <v>27</v>
@@ -5105,8 +5551,11 @@
       <c r="D98" s="5">
         <v>3.0810000000000001E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="5">
+        <v>3.9537999999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
         <v>28</v>
@@ -5117,8 +5566,11 @@
       <c r="D99" s="5">
         <v>3.5411000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="5">
+        <v>3.1137999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
         <v>29</v>
@@ -5129,8 +5581,11 @@
       <c r="D100" s="5">
         <v>2.1581999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="5">
+        <v>2.1728000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
         <v>30</v>
@@ -5141,8 +5596,11 @@
       <c r="D101" s="5">
         <v>2.6499999999999999E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="5">
+        <v>3.0384999999999999E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
         <v>31</v>
@@ -5153,8 +5611,11 @@
       <c r="D102" s="5">
         <v>5.4915000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="5">
+        <v>9.4492999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
         <v>32</v>
@@ -5165,8 +5626,11 @@
       <c r="D103" s="5">
         <v>3.4282E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="5">
+        <v>3.5470000000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
         <v>33</v>
@@ -5177,8 +5641,11 @@
       <c r="D104" s="5">
         <v>3.7551999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="5">
+        <v>3.3773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
         <v>34</v>
@@ -5189,8 +5656,11 @@
       <c r="D105" s="5">
         <v>2.1576</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="5">
+        <v>2.2183000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
         <v>35</v>
@@ -5201,8 +5671,11 @@
       <c r="D106" s="5">
         <v>2.7692999999999999E-4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="5">
+        <v>2.8599000000000002E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
         <v>37</v>
@@ -5213,8 +5686,11 @@
       <c r="D107" s="5">
         <v>30.16</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="5">
+        <v>38.968000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
         <v>38</v>
@@ -5225,8 +5701,11 @@
       <c r="D108" s="5">
         <v>4.3449000000000002E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="5">
+        <v>4.3945999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="1" t="s">
         <v>39</v>
@@ -5237,8 +5716,11 @@
       <c r="D109" s="5">
         <v>3.649</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="5">
+        <v>3.2444999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="1" t="s">
         <v>40</v>
@@ -5249,8 +5731,11 @@
       <c r="D110" s="5">
         <v>2.1674000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="5">
+        <v>2.1425999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="1" t="s">
         <v>41</v>
@@ -5261,8 +5746,11 @@
       <c r="D111" s="5">
         <v>2.9892999999999999E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="5">
+        <v>2.4895000000000001E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="1" t="s">
         <v>42</v>
@@ -5273,8 +5761,11 @@
       <c r="D112" s="5">
         <v>23.216999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="5">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="1" t="s">
         <v>43</v>
@@ -5285,8 +5776,11 @@
       <c r="D113" s="5">
         <v>4.2791999999999997E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="5">
+        <v>3.9044000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
         <v>44</v>
@@ -5297,8 +5791,11 @@
       <c r="D114" s="5">
         <v>3.4218000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="5">
+        <v>3.7143999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
         <v>45</v>
@@ -5309,8 +5806,11 @@
       <c r="D115" s="5">
         <v>2.1097000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="5">
+        <v>2.1139000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
         <v>46</v>
@@ -5321,8 +5821,11 @@
       <c r="D116" s="5">
         <v>2.7380999999999998E-4</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="5">
+        <v>2.9234999999999998E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
@@ -5335,8 +5838,11 @@
       <c r="D117" s="5">
         <v>2.1243E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="5">
+        <v>2.4202999999999998E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
         <v>3</v>
@@ -5347,8 +5853,11 @@
       <c r="D118" s="5">
         <v>4.4988E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="5">
+        <v>5.1121999999999995E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -5359,8 +5868,11 @@
       <c r="D119" s="5">
         <v>7.3638000000000002E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="5">
+        <v>7.8816000000000008E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
         <v>5</v>
@@ -5371,8 +5883,11 @@
       <c r="D120" s="5">
         <v>1.7041000000000001E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="5">
+        <v>1.9962999999999999E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="1" t="s">
         <v>6</v>
@@ -5383,8 +5898,11 @@
       <c r="D121" s="5">
         <v>1.6938000000000001E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="5">
+        <v>2.2133999999999999E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
         <v>8</v>
@@ -5395,8 +5913,11 @@
       <c r="D122" s="5">
         <v>1.6471999999999999E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="5">
+        <v>2.2642000000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
         <v>9</v>
@@ -5407,8 +5928,11 @@
       <c r="D123" s="5">
         <v>1.9754E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="5">
+        <v>2.3326000000000002E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
@@ -5419,8 +5943,11 @@
       <c r="D124" s="5">
         <v>4.3563E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="5">
+        <v>5.1431999999999997E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
@@ -5431,8 +5958,11 @@
       <c r="D125" s="5">
         <v>7.3793000000000001E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="5">
+        <v>7.5607000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
         <v>12</v>
@@ -5443,8 +5973,11 @@
       <c r="D126" s="5">
         <v>1.6401E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="5">
+        <v>1.8892E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
         <v>15</v>
@@ -5455,8 +5988,11 @@
       <c r="D127" s="5">
         <v>1.7202000000000001E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="5">
+        <v>2.0458E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
         <v>16</v>
@@ -5467,8 +6003,11 @@
       <c r="D128" s="5">
         <v>1.6909E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="5">
+        <v>2.2407999999999998E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
         <v>17</v>
@@ -5479,8 +6018,11 @@
       <c r="D129" s="5">
         <v>1.9788000000000002E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="5">
+        <v>2.2796000000000001E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
         <v>18</v>
@@ -5491,8 +6033,11 @@
       <c r="D130" s="5">
         <v>4.1433000000000003E-4</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="5">
+        <v>4.9109999999999996E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
         <v>19</v>
@@ -5503,8 +6048,11 @@
       <c r="D131" s="5">
         <v>7.3959999999999998E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="5">
+        <v>7.5820000000000002E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
         <v>20</v>
@@ -5515,8 +6063,11 @@
       <c r="D132" s="5">
         <v>1.6289E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="5">
+        <v>1.9224999999999999E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
         <v>21</v>
@@ -5527,8 +6078,11 @@
       <c r="D133" s="5">
         <v>1.6749E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="5">
+        <v>2.0741000000000002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
         <v>22</v>
@@ -5539,8 +6093,11 @@
       <c r="D134" s="5">
         <v>1.6974E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="5">
+        <v>2.2575999999999998E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
@@ -5551,8 +6108,11 @@
       <c r="D135" s="5">
         <v>1.9521E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="5">
+        <v>2.3603999999999999E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
@@ -5563,8 +6123,11 @@
       <c r="D136" s="5">
         <v>4.3228E-4</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="5">
+        <v>5.3171000000000002E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
         <v>26</v>
@@ -5575,8 +6138,11 @@
       <c r="D137" s="5">
         <v>7.3087999999999998E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="5">
+        <v>7.5180999999999998E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="1" t="s">
         <v>27</v>
@@ -5587,8 +6153,11 @@
       <c r="D138" s="5">
         <v>1.6151E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="5">
+        <v>1.8875999999999999E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
         <v>28</v>
@@ -5599,8 +6168,11 @@
       <c r="D139" s="5">
         <v>1.6923000000000001E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="5">
+        <v>2.0642999999999998E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="1" t="s">
         <v>29</v>
@@ -5611,8 +6183,11 @@
       <c r="D140" s="5">
         <v>1.6187E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="5">
+        <v>2.2612000000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="1" t="s">
         <v>30</v>
@@ -5623,8 +6198,11 @@
       <c r="D141" s="5">
         <v>1.9597E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="5">
+        <v>2.3221000000000001E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="1" t="s">
         <v>31</v>
@@ -5635,8 +6213,11 @@
       <c r="D142" s="5">
         <v>4.3195000000000001E-4</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="5">
+        <v>5.2990000000000003E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="1" t="s">
         <v>32</v>
@@ -5647,8 +6228,11 @@
       <c r="D143" s="5">
         <v>7.4117000000000002E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="5">
+        <v>7.5775E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="1" t="s">
         <v>33</v>
@@ -5659,8 +6243,11 @@
       <c r="D144" s="5">
         <v>1.5989000000000001E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="5">
+        <v>1.8986000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="1" t="s">
         <v>34</v>
@@ -5671,8 +6258,11 @@
       <c r="D145" s="5">
         <v>1.8105E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="5">
+        <v>2.0660000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="1" t="s">
         <v>35</v>
@@ -5683,8 +6273,11 @@
       <c r="D146" s="5">
         <v>2.1285000000000002E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="5">
+        <v>2.1971E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
         <v>37</v>
@@ -5695,8 +6288,11 @@
       <c r="D147" s="5">
         <v>1.9895999999999998E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="5">
+        <v>2.3086999999999999E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
         <v>38</v>
@@ -5707,8 +6303,11 @@
       <c r="D148" s="5">
         <v>4.4105000000000001E-4</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="5">
+        <v>4.9989999999999995E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
         <v>39</v>
@@ -5719,8 +6318,11 @@
       <c r="D149" s="5">
         <v>7.3578999999999997E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="5">
+        <v>7.5373999999999997E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="1" t="s">
         <v>40</v>
@@ -5731,8 +6333,11 @@
       <c r="D150" s="5">
         <v>1.6232E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="5">
+        <v>1.8866E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="1" t="s">
         <v>41</v>
@@ -5743,8 +6348,11 @@
       <c r="D151" s="5">
         <v>1.7053000000000001E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="5">
+        <v>2.0588E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="1" t="s">
         <v>42</v>
@@ -5755,8 +6363,11 @@
       <c r="D152" s="5">
         <v>1.5956E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="5">
+        <v>2.2582000000000001E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="1" t="s">
         <v>43</v>
@@ -5767,8 +6378,11 @@
       <c r="D153" s="5">
         <v>2.0338000000000001E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="5">
+        <v>2.3370000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="1" t="s">
         <v>44</v>
@@ -5779,8 +6393,11 @@
       <c r="D154" s="5">
         <v>4.1141000000000002E-4</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="5">
+        <v>4.8357000000000001E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="1" t="s">
         <v>45</v>
@@ -5791,8 +6408,11 @@
       <c r="D155" s="5">
         <v>7.2874999999999997E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="5">
+        <v>7.5144000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="1" t="s">
         <v>46</v>
@@ -5803,8 +6423,11 @@
       <c r="D156" s="5">
         <v>1.6244E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="5">
+        <v>1.9154E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="1" t="s">
         <v>48</v>
@@ -5815,8 +6438,11 @@
       <c r="D157" s="5">
         <v>1.6838000000000001E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="5">
+        <v>2.0953E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="1" t="s">
         <v>49</v>
@@ -5827,8 +6453,11 @@
       <c r="D158" s="5">
         <v>1.7428000000000001E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="5">
+        <v>2.2696000000000001E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="1" t="s">
         <v>50</v>
@@ -5839,8 +6468,11 @@
       <c r="D159" s="5">
         <v>1.9908E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="5">
+        <v>2.3184E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="1" t="s">
         <v>51</v>
@@ -5851,8 +6483,11 @@
       <c r="D160" s="5">
         <v>4.2864999999999998E-4</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="5">
+        <v>4.9817000000000004E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="1" t="s">
         <v>52</v>
@@ -5863,8 +6498,11 @@
       <c r="D161" s="5">
         <v>7.4330000000000004E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="5">
+        <v>7.4814E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="1" t="s">
         <v>53</v>
@@ -5875,8 +6513,11 @@
       <c r="D162" s="5">
         <v>1.6335E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="5">
+        <v>1.8799000000000001E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="1" t="s">
         <v>54</v>
@@ -5887,8 +6528,11 @@
       <c r="D163" s="5">
         <v>1.6907999999999999E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="5">
+        <v>2.0768000000000002E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="1" t="s">
         <v>55</v>
@@ -5899,8 +6543,11 @@
       <c r="D164" s="5">
         <v>1.6976999999999999E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="5">
+        <v>2.2030000000000001E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="1" t="s">
         <v>56</v>
@@ -5911,8 +6558,11 @@
       <c r="D165" s="5">
         <v>1.9616E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="5">
+        <v>2.2989E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="1" t="s">
         <v>57</v>
@@ -5923,8 +6573,11 @@
       <c r="D166" s="5">
         <v>4.6456999999999998E-4</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="5">
+        <v>5.04E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>58</v>
       </c>
@@ -5937,8 +6590,11 @@
       <c r="D167" s="5">
         <v>2.7563000000000002E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="5">
+        <v>2.8249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -5949,8 +6605,11 @@
       <c r="D168" s="5">
         <v>1.187E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="5">
+        <v>1.1899E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
         <v>4</v>
@@ -5961,8 +6620,11 @@
       <c r="D169" s="5">
         <v>5.0118999999999997E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="5">
+        <v>9.8526000000000002E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="1" t="s">
         <v>5</v>
@@ -5973,8 +6635,11 @@
       <c r="D170" s="5">
         <v>1.0779E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="5">
+        <v>1.1514999999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="1" t="s">
         <v>6</v>
@@ -5985,8 +6650,11 @@
       <c r="D171" s="5">
         <v>0.12164</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="5">
+        <v>7.8311000000000006E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="1" t="s">
         <v>8</v>
@@ -5997,8 +6665,11 @@
       <c r="D172" s="5">
         <v>5.2798000000000003E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="5">
+        <v>4.7356000000000004E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="1" t="s">
         <v>9</v>
@@ -6009,8 +6680,11 @@
       <c r="D173" s="5">
         <v>7.4045999999999999E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="5">
+        <v>7.7476999999999997E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="1" t="s">
         <v>10</v>
@@ -6021,8 +6695,11 @@
       <c r="D174" s="5">
         <v>1.7210999999999999E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="5">
+        <v>1.5345999999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="1" t="s">
         <v>11</v>
@@ -6033,8 +6710,11 @@
       <c r="D175" s="5">
         <v>6.6666E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="5">
+        <v>6.8179E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
         <v>12</v>
@@ -6045,8 +6725,11 @@
       <c r="D176" s="5">
         <v>2.2046000000000001E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="5">
+        <v>2.1738999999999999E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
         <v>15</v>
@@ -6057,8 +6740,11 @@
       <c r="D177" s="5">
         <v>9.0383000000000008E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="5">
+        <v>9.2875000000000006E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="1" t="s">
         <v>16</v>
@@ -6069,8 +6755,11 @@
       <c r="D178" s="5">
         <v>5.0267000000000003E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="5">
+        <v>5.9087999999999996E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="1" t="s">
         <v>17</v>
@@ -6081,8 +6770,11 @@
       <c r="D179" s="5">
         <v>3.1493E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="5">
+        <v>2.3497000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="1" t="s">
         <v>18</v>
@@ -6093,8 +6785,11 @@
       <c r="D180" s="5">
         <v>4.5645E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="5">
+        <v>5.4282999999999996E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="1" t="s">
         <v>19</v>
@@ -6105,8 +6800,11 @@
       <c r="D181" s="5">
         <v>3.2648999999999998E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="5">
+        <v>3.2127000000000002E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="1" t="s">
         <v>20</v>
@@ -6117,8 +6815,11 @@
       <c r="D182" s="5">
         <v>1.9241999999999999E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="5">
+        <v>1.0253E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
         <v>21</v>
@@ -6129,8 +6830,11 @@
       <c r="D183" s="5">
         <v>0.12321</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="5">
+        <v>0.32432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="1" t="s">
         <v>22</v>
@@ -6141,8 +6845,11 @@
       <c r="D184" s="5">
         <v>9.0422999999999996E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="5">
+        <v>9.2394999999999994E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
         <v>23</v>
@@ -6153,8 +6860,11 @@
       <c r="D185" s="5">
         <v>7.9494999999999996E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="5">
+        <v>0.11075</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
         <v>24</v>
@@ -6165,8 +6875,11 @@
       <c r="D186" s="5">
         <v>5.3036000000000003E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="5">
+        <v>4.5018999999999997E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
         <v>26</v>
@@ -6177,8 +6890,11 @@
       <c r="D187" s="5">
         <v>7.9132999999999998E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="5">
+        <v>6.8710999999999998E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="1" t="s">
         <v>27</v>
@@ -6189,8 +6905,11 @@
       <c r="D188" s="5">
         <v>1.5161E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="5">
+        <v>1.3261E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="1" t="s">
         <v>28</v>
@@ -6201,8 +6920,11 @@
       <c r="D189" s="5">
         <v>6.8234000000000003E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="5">
+        <v>6.5447999999999999E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="1" t="s">
         <v>29</v>
@@ -6213,8 +6935,11 @@
       <c r="D190" s="5">
         <v>2.4933999999999998E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="5">
+        <v>2.4699000000000001E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="1" t="s">
         <v>30</v>
@@ -6225,8 +6950,11 @@
       <c r="D191" s="5">
         <v>9.9951999999999992E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="5">
+        <v>9.1546000000000006E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
         <v>31</v>
@@ -6237,8 +6965,11 @@
       <c r="D192" s="5">
         <v>4.6503999999999998E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="5">
+        <v>5.1339000000000003E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="1" t="s">
         <v>32</v>
@@ -6249,8 +6980,11 @@
       <c r="D193" s="5">
         <v>3.5331000000000001E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="5">
+        <v>3.2953999999999997E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
         <v>33</v>
@@ -6260,6 +6994,9 @@
       </c>
       <c r="D194" s="5">
         <v>5.8969000000000001E-3</v>
+      </c>
+      <c r="E194" s="5">
+        <v>4.4870999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Algo_Compare.xlsx
+++ b/Algo_Compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D53AE-D11F-41A2-8C25-0A6494638A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BDDC99-7AEE-45B2-8472-A0B905CD5C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="2370" windowWidth="15795" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_CEC2021" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MaOEAC,10, 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MOEAD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,12 +406,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +414,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
@@ -726,11 +722,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>59</v>
@@ -747,7 +743,7 @@
       <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -759,7 +755,7 @@
       <c r="C2" s="5">
         <v>5.3654000000000002E-3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>6.6999E-3</v>
       </c>
       <c r="H2" s="5">
@@ -778,7 +774,7 @@
       <c r="C3" s="5">
         <v>3.7031E-4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2.5660000000000001E-3</v>
       </c>
       <c r="H3" s="5">
@@ -797,7 +793,7 @@
       <c r="C4" s="5">
         <v>1.0259000000000001E-2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1.702E-2</v>
       </c>
       <c r="H4" s="5">
@@ -816,7 +812,7 @@
       <c r="C5" s="5">
         <v>4.7952000000000003E-3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>4.6589999999999999E-3</v>
       </c>
       <c r="H5" s="5">
@@ -835,7 +831,7 @@
       <c r="C6" s="5">
         <v>1.1303000000000001E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>9.8264000000000008E-3</v>
       </c>
       <c r="H6" s="5">
@@ -856,7 +852,7 @@
       <c r="C7" s="5">
         <v>6.6731999999999998E-3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>3.8238E-3</v>
       </c>
       <c r="H7" s="5">
@@ -874,7 +870,7 @@
       <c r="C8" s="5">
         <v>2.8322999999999998E-4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>7.306E-3</v>
       </c>
       <c r="H8" s="5">
@@ -892,7 +888,7 @@
       <c r="C9" s="5">
         <v>1.4793000000000001E-2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>1.9272000000000001E-2</v>
       </c>
       <c r="H9" s="5">
@@ -910,7 +906,7 @@
       <c r="C10" s="5">
         <v>9.2798000000000002E-4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>1.2976999999999999E-3</v>
       </c>
       <c r="H10" s="5">
@@ -928,7 +924,7 @@
       <c r="C11" s="5">
         <v>1.1279000000000001E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>9.5805999999999999E-3</v>
       </c>
       <c r="H11" s="5">
@@ -946,7 +942,7 @@
       <c r="C12" s="5">
         <v>1.6689000000000001E-3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>1.294E-2</v>
       </c>
       <c r="H12" s="5">
@@ -964,7 +960,7 @@
       <c r="C13" s="5">
         <v>4.2561999999999998E-4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>2.1849999999999999E-3</v>
       </c>
       <c r="H13" s="5">
@@ -982,7 +978,7 @@
       <c r="C14" s="5">
         <v>1.0151E-2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>1.5573E-2</v>
       </c>
       <c r="H14" s="5">
@@ -1000,7 +996,7 @@
       <c r="C15" s="5">
         <v>4.5458E-3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>5.7473000000000003E-3</v>
       </c>
       <c r="H15" s="5">
@@ -1018,7 +1014,7 @@
       <c r="C16" s="5">
         <v>3.1637000000000002E-3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>1.5089E-2</v>
       </c>
       <c r="H16" s="5">
@@ -1038,7 +1034,7 @@
       <c r="C17" s="5">
         <v>5.2512000000000003E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>9.5549999999999996E-2</v>
       </c>
       <c r="H17" s="5">
@@ -1056,7 +1052,7 @@
       <c r="C18" s="5">
         <v>1.4683E-2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>3.9981000000000001E-3</v>
       </c>
       <c r="H18" s="5">
@@ -1074,7 +1070,7 @@
       <c r="C19" s="5">
         <v>1.8950000000000002E-2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>6.0409000000000001E-3</v>
       </c>
       <c r="H19" s="5">
@@ -1092,7 +1088,7 @@
       <c r="C20" s="5">
         <v>7.4800999999999999E-3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>3.2702E-3</v>
       </c>
       <c r="H20" s="5">
@@ -1110,7 +1106,7 @@
       <c r="C21" s="5">
         <v>1.6985E-2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>1.1641E-2</v>
       </c>
       <c r="H21" s="5">
@@ -1128,7 +1124,7 @@
       <c r="C22" s="5">
         <v>5.6321999999999997E-2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>5.5729000000000001E-2</v>
       </c>
       <c r="H22" s="5">
@@ -1146,7 +1142,7 @@
       <c r="C23" s="5">
         <v>7.5131E-3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>2.9849999999999998E-3</v>
       </c>
       <c r="H23" s="5">
@@ -1164,7 +1160,7 @@
       <c r="C24" s="5">
         <v>0.10238</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>6.0774000000000002E-3</v>
       </c>
       <c r="H24" s="5">
@@ -1182,7 +1178,7 @@
       <c r="C25" s="5">
         <v>1.0834999999999999E-2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>6.9296000000000002E-3</v>
       </c>
       <c r="H25" s="5">
@@ -1200,7 +1196,7 @@
       <c r="C26" s="5">
         <v>0.35579</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>3.1586000000000001E-3</v>
       </c>
       <c r="H26" s="5">
@@ -1217,10 +1213,10 @@
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>3.8455999999999998E-3</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="H27" s="5">
         <v>2.0181999999999999E-3</v>
       </c>
@@ -1233,10 +1229,10 @@
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>0.80801999999999996</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="8"/>
       <c r="H28" s="5">
         <v>0.47394999999999998</v>
       </c>
@@ -1249,10 +1245,10 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>9.3999999999999994E-5</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="8"/>
       <c r="H29" s="5">
         <v>5.8728000000000003E-4</v>
       </c>
@@ -1265,10 +1261,10 @@
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>7.9784000000000001E-3</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="H30" s="5">
         <v>1.4107E-3</v>
       </c>
@@ -1281,10 +1277,10 @@
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>2.9620000000000002</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="8"/>
       <c r="H31" s="5">
         <v>1.3056999999999999E-3</v>
       </c>
@@ -1297,10 +1293,10 @@
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>2.3535000000000001E-3</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
       <c r="H32" s="5">
         <v>5.2892E-4</v>
       </c>
@@ -1313,10 +1309,10 @@
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>2.4340999999999999</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="H33" s="5">
         <v>1.8556999999999999</v>
       </c>
@@ -1329,10 +1325,10 @@
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>1.8138000000000001E-2</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="H34" s="5">
         <v>8.8582000000000005E-4</v>
       </c>
@@ -1345,10 +1341,10 @@
       <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>1.0524E-3</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
       <c r="H35" s="5">
         <v>5.5971000000000005E-4</v>
       </c>
@@ -1361,10 +1357,10 @@
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>4.2663000000000002</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
       <c r="H36" s="5">
         <v>1.5337E-3</v>
       </c>
@@ -1377,10 +1373,10 @@
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>1.6199000000000001E-3</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
       <c r="H37" s="5">
         <v>9.1881000000000005E-4</v>
       </c>
@@ -1393,10 +1389,10 @@
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>0.40604000000000001</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="8"/>
       <c r="H38" s="5">
         <v>0.14313999999999999</v>
       </c>
@@ -1409,10 +1405,10 @@
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>6.8029000000000006E-2</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
       <c r="H39" s="5">
         <v>1.4078999999999999E-3</v>
       </c>
@@ -1425,10 +1421,10 @@
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>4.0422000000000001E-3</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="8"/>
       <c r="H40" s="5">
         <v>8.8831999999999995E-4</v>
       </c>
@@ -1441,10 +1437,10 @@
       <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>3.0253999999999999</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="8"/>
       <c r="H41" s="5">
         <v>1.4446000000000001E-3</v>
       </c>
@@ -1457,10 +1453,10 @@
       <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>6.7257000000000003E-3</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="8"/>
       <c r="H42" s="5">
         <v>1.3761999999999999E-3</v>
       </c>
@@ -1473,10 +1469,10 @@
       <c r="B43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>1.569</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="8"/>
       <c r="H43" s="5">
         <v>0.81830999999999998</v>
       </c>
@@ -1489,10 +1485,10 @@
       <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>9.1599000000000003E-3</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="8"/>
       <c r="H44" s="5">
         <v>5.1665999999999995E-4</v>
       </c>
@@ -1505,10 +1501,10 @@
       <c r="B45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>2.8249E-3</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="8"/>
       <c r="H45" s="5">
         <v>1.3802E-3</v>
       </c>
@@ -1521,10 +1517,10 @@
       <c r="B46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>2.14</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="8"/>
       <c r="H46" s="5">
         <v>1.0778000000000001E-3</v>
       </c>
@@ -1539,10 +1535,10 @@
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>2.5306999999999999E-3</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="8"/>
       <c r="H47" s="5">
         <v>1.7897E-3</v>
       </c>
@@ -1556,10 +1552,10 @@
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>2.4729000000000001</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="8"/>
       <c r="H48" s="5">
         <v>3.2149000000000001</v>
       </c>
@@ -1573,10 +1569,10 @@
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>1.0487999999999999E-3</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="8"/>
       <c r="H49" s="5">
         <v>5.9234999999999995E-4</v>
       </c>
@@ -1590,10 +1586,10 @@
       <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>1.6756E-3</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="8"/>
       <c r="H50" s="5">
         <v>7.7006999999999998E-4</v>
       </c>
@@ -1607,10 +1603,10 @@
       <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>2.7732000000000001</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="8"/>
       <c r="H51" s="5">
         <v>3.7852999999999999</v>
       </c>
@@ -1624,10 +1620,10 @@
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>1.1179E-3</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="8"/>
       <c r="H52" s="5">
         <v>8.0455000000000001E-4</v>
       </c>
@@ -1641,10 +1637,10 @@
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <v>2.6489E-3</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="8"/>
       <c r="H53" s="5">
         <v>5.9546000000000002E-4</v>
       </c>
@@ -1658,10 +1654,10 @@
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="10">
         <v>2.0846</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="8"/>
       <c r="H54" s="5">
         <v>3.6844000000000001</v>
       </c>
@@ -1675,10 +1671,10 @@
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>1.0485E-3</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="8"/>
       <c r="H55" s="5">
         <v>6.1795000000000003E-4</v>
       </c>
@@ -1692,10 +1688,10 @@
       <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <v>1.6919000000000001E-3</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="8"/>
       <c r="H56" s="5">
         <v>7.8708000000000001E-4</v>
       </c>
@@ -1709,10 +1705,10 @@
       <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>2.6989000000000001</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="8"/>
       <c r="H57" s="5">
         <v>3.2913000000000001</v>
       </c>
@@ -1726,10 +1722,10 @@
       <c r="B58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>1.1337000000000001E-3</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="8"/>
       <c r="H58" s="5">
         <v>7.9918999999999997E-4</v>
       </c>
@@ -1743,10 +1739,10 @@
       <c r="B59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="10">
         <v>2.6930999999999999E-3</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="8"/>
       <c r="H59" s="5">
         <v>5.9497E-4</v>
       </c>
@@ -1760,10 +1756,10 @@
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="10">
         <v>2.2797000000000001</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="8"/>
       <c r="H60" s="5">
         <v>3.0150000000000001</v>
       </c>
@@ -1777,10 +1773,10 @@
       <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="10">
         <v>1.0118E-3</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="8"/>
       <c r="H61" s="5">
         <v>5.9522999999999998E-4</v>
       </c>
@@ -1794,10 +1790,10 @@
       <c r="B62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="10">
         <v>1.7279999999999999E-3</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="8"/>
       <c r="H62" s="5">
         <v>7.8010000000000004E-4</v>
       </c>
@@ -1811,10 +1807,10 @@
       <c r="B63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="10">
         <v>2.8803999999999998</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="8"/>
       <c r="H63" s="5">
         <v>3.1840000000000002</v>
       </c>
@@ -1828,10 +1824,10 @@
       <c r="B64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="10">
         <v>1.1368000000000001E-3</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="8"/>
       <c r="H64" s="5">
         <v>7.8346999999999998E-4</v>
       </c>
@@ -1845,10 +1841,10 @@
       <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="10">
         <v>2.7843999999999998E-3</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="8"/>
       <c r="H65" s="5">
         <v>5.9400000000000002E-4</v>
       </c>
@@ -1862,10 +1858,10 @@
       <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="10">
         <v>2.1539000000000001</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="8"/>
       <c r="H66" s="5">
         <v>3.3193999999999999</v>
       </c>
@@ -1879,10 +1875,10 @@
       <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="10">
         <v>1.0476000000000001E-3</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="8"/>
       <c r="H67" s="5">
         <v>5.9774000000000003E-4</v>
       </c>
@@ -1896,10 +1892,10 @@
       <c r="B68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="10">
         <v>1.6919000000000001E-3</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="8"/>
       <c r="H68" s="5">
         <v>7.8983999999999999E-4</v>
       </c>
@@ -1913,10 +1909,10 @@
       <c r="B69" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="10">
         <v>2.9857999999999998</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="8"/>
       <c r="H69" s="5">
         <v>3.9462999999999999</v>
       </c>
@@ -1930,10 +1926,10 @@
       <c r="B70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="10">
         <v>1.1310999999999999E-3</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="8"/>
       <c r="H70" s="5">
         <v>8.2967999999999996E-4</v>
       </c>
@@ -1947,10 +1943,10 @@
       <c r="B71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="10">
         <v>2.6809999999999998E-3</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="8"/>
       <c r="H71" s="5">
         <v>5.8494999999999999E-4</v>
       </c>
@@ -1964,10 +1960,10 @@
       <c r="B72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="10">
         <v>2.238</v>
       </c>
-      <c r="D72" s="10"/>
+      <c r="D72" s="8"/>
       <c r="H72" s="5">
         <v>2.8921000000000001</v>
       </c>
@@ -1981,10 +1977,10 @@
       <c r="B73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="10">
         <v>1.0382E-3</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="8"/>
       <c r="H73" s="5">
         <v>5.8452999999999999E-4</v>
       </c>
@@ -1998,10 +1994,10 @@
       <c r="B74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="10">
         <v>1.7126000000000001E-3</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="8"/>
       <c r="H74" s="5">
         <v>8.0106000000000003E-4</v>
       </c>
@@ -2015,10 +2011,10 @@
       <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="10">
         <v>3.0116999999999998</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="8"/>
       <c r="H75" s="5">
         <v>4.0260999999999996</v>
       </c>
@@ -2032,10 +2028,10 @@
       <c r="B76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="10">
         <v>1.1271E-3</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="8"/>
       <c r="H76" s="5">
         <v>7.7610000000000005E-4</v>
       </c>
@@ -2051,10 +2047,10 @@
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="10">
         <v>39.761000000000003</v>
       </c>
-      <c r="D77" s="10"/>
+      <c r="D77" s="8"/>
       <c r="H77" s="5">
         <v>80.805999999999997</v>
       </c>
@@ -2068,10 +2064,10 @@
       <c r="B78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="10">
         <v>3.2419999999999997E-2</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="8"/>
       <c r="H78" s="5">
         <v>7.6222999999999999E-2</v>
       </c>
@@ -2085,10 +2081,10 @@
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="10">
         <v>4.4762000000000004</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="8"/>
       <c r="H79" s="5">
         <v>8.9868000000000006</v>
       </c>
@@ -2102,10 +2098,10 @@
       <c r="B80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="10">
         <v>1.7271000000000001</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="8"/>
       <c r="H80" s="5">
         <v>2.1562000000000001</v>
       </c>
@@ -2119,10 +2115,10 @@
       <c r="B81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="10">
         <v>1.6808E-4</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="8"/>
       <c r="H81" s="5">
         <v>3.0562999999999999E-4</v>
       </c>
@@ -2136,10 +2132,10 @@
       <c r="B82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="10">
         <v>2.2341000000000002</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="8"/>
       <c r="H82" s="5">
         <v>6.2770000000000001</v>
       </c>
@@ -2153,10 +2149,10 @@
       <c r="B83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="10">
         <v>3.3457000000000001E-2</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="8"/>
       <c r="H83" s="5">
         <v>7.6520000000000005E-2</v>
       </c>
@@ -2170,10 +2166,10 @@
       <c r="B84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="10">
         <v>5.6783999999999999</v>
       </c>
-      <c r="D84" s="10"/>
+      <c r="D84" s="8"/>
       <c r="H84" s="5">
         <v>8.0263000000000009</v>
       </c>
@@ -2187,10 +2183,10 @@
       <c r="B85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="10">
         <v>1.7690999999999999</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="8"/>
       <c r="H85" s="5">
         <v>2.1478999999999999</v>
       </c>
@@ -2204,10 +2200,10 @@
       <c r="B86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="10">
         <v>1.6872E-4</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="8"/>
       <c r="H86" s="5">
         <v>3.4139000000000001E-4</v>
       </c>
@@ -2221,10 +2217,10 @@
       <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="10">
         <v>8.5648</v>
       </c>
-      <c r="D87" s="10"/>
+      <c r="D87" s="8"/>
       <c r="H87" s="5">
         <v>3.9857999999999998</v>
       </c>
@@ -2238,10 +2234,10 @@
       <c r="B88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="10">
         <v>3.2604000000000001E-2</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="8"/>
       <c r="H88" s="5">
         <v>7.5036000000000005E-2</v>
       </c>
@@ -2255,10 +2251,10 @@
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="10">
         <v>5.5197000000000003</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="8"/>
       <c r="H89" s="5">
         <v>7.3672000000000004</v>
       </c>
@@ -2272,10 +2268,10 @@
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="11">
         <v>1.7130000000000001</v>
       </c>
-      <c r="D90" s="11"/>
+      <c r="D90" s="9"/>
       <c r="H90" s="5">
         <v>2.1606999999999998</v>
       </c>
@@ -2289,10 +2285,10 @@
       <c r="B91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="11">
         <v>1.6647E-4</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="9"/>
       <c r="H91" s="5">
         <v>3.3409999999999999E-4</v>
       </c>
@@ -2306,10 +2302,10 @@
       <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="11">
         <v>7.7817999999999996</v>
       </c>
-      <c r="D92" s="11"/>
+      <c r="D92" s="9"/>
       <c r="H92" s="5">
         <v>8.7939000000000007</v>
       </c>
@@ -2323,10 +2319,10 @@
       <c r="B93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="11">
         <v>3.5480999999999999E-2</v>
       </c>
-      <c r="D93" s="11"/>
+      <c r="D93" s="9"/>
       <c r="H93" s="5">
         <v>6.8469000000000002E-2</v>
       </c>
@@ -2340,10 +2336,10 @@
       <c r="B94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="11">
         <v>5.0951000000000004</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="9"/>
       <c r="H94" s="5">
         <v>7.7446000000000002</v>
       </c>
@@ -2357,10 +2353,10 @@
       <c r="B95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="11">
         <v>1.8357000000000001</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="9"/>
       <c r="H95" s="5">
         <v>2.1495000000000002</v>
       </c>
@@ -2374,10 +2370,10 @@
       <c r="B96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="11">
         <v>1.6768999999999999E-4</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="9"/>
       <c r="H96" s="5">
         <v>3.3157E-4</v>
       </c>
@@ -2391,10 +2387,10 @@
       <c r="B97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="11">
         <v>21.516999999999999</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="9"/>
       <c r="H97" s="5">
         <v>25.841999999999999</v>
       </c>
@@ -2408,10 +2404,10 @@
       <c r="B98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="11">
         <v>3.6734000000000003E-2</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="9"/>
       <c r="H98" s="5">
         <v>7.1648000000000003E-2</v>
       </c>
@@ -2425,10 +2421,10 @@
       <c r="B99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="11">
         <v>4.7122999999999999</v>
       </c>
-      <c r="D99" s="11"/>
+      <c r="D99" s="9"/>
       <c r="H99" s="5">
         <v>6.6839000000000004</v>
       </c>
@@ -2442,10 +2438,10 @@
       <c r="B100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="11">
         <v>1.7823</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="9"/>
       <c r="H100" s="5">
         <v>2.1642999999999999</v>
       </c>
@@ -2459,10 +2455,10 @@
       <c r="B101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="11">
         <v>1.6668E-4</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="9"/>
       <c r="H101" s="5">
         <v>3.2346000000000002E-4</v>
       </c>
@@ -2476,10 +2472,10 @@
       <c r="B102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="11">
         <v>8.4154999999999998</v>
       </c>
-      <c r="D102" s="11"/>
+      <c r="D102" s="9"/>
       <c r="H102" s="5">
         <v>27.273</v>
       </c>
@@ -2493,10 +2489,10 @@
       <c r="B103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="11">
         <v>3.6491000000000003E-2</v>
       </c>
-      <c r="D103" s="11"/>
+      <c r="D103" s="9"/>
       <c r="H103" s="5">
         <v>7.8874E-2</v>
       </c>
@@ -2510,10 +2506,10 @@
       <c r="B104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="11">
         <v>5.4519000000000002</v>
       </c>
-      <c r="D104" s="11"/>
+      <c r="D104" s="9"/>
       <c r="H104" s="5">
         <v>8.4459</v>
       </c>
@@ -2527,10 +2523,10 @@
       <c r="B105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="11">
         <v>1.7490000000000001</v>
       </c>
-      <c r="D105" s="11"/>
+      <c r="D105" s="9"/>
       <c r="H105" s="5">
         <v>2.1316999999999999</v>
       </c>
@@ -2544,10 +2540,10 @@
       <c r="B106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="11">
         <v>1.6736999999999999E-4</v>
       </c>
-      <c r="D106" s="11"/>
+      <c r="D106" s="9"/>
       <c r="H106" s="5">
         <v>3.3401999999999998E-4</v>
       </c>
@@ -2561,10 +2557,10 @@
       <c r="B107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="11">
         <v>10.741</v>
       </c>
-      <c r="D107" s="11"/>
+      <c r="D107" s="9"/>
       <c r="H107" s="5">
         <v>11.106999999999999</v>
       </c>
@@ -2578,10 +2574,10 @@
       <c r="B108" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="11">
         <v>4.0145E-2</v>
       </c>
-      <c r="D108" s="11"/>
+      <c r="D108" s="9"/>
       <c r="H108" s="5">
         <v>6.9958999999999993E-2</v>
       </c>
@@ -2595,10 +2591,10 @@
       <c r="B109" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="11">
         <v>5.3339999999999996</v>
       </c>
-      <c r="D109" s="11"/>
+      <c r="D109" s="9"/>
       <c r="H109" s="5">
         <v>7.7163000000000004</v>
       </c>
@@ -2612,10 +2608,10 @@
       <c r="B110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="11">
         <v>1.8364</v>
       </c>
-      <c r="D110" s="11"/>
+      <c r="D110" s="9"/>
       <c r="H110" s="5">
         <v>2.1219999999999999</v>
       </c>
@@ -2629,10 +2625,10 @@
       <c r="B111" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="11">
         <v>1.6801000000000001E-4</v>
       </c>
-      <c r="D111" s="11"/>
+      <c r="D111" s="9"/>
       <c r="H111" s="5">
         <v>3.1378999999999999E-4</v>
       </c>
@@ -2646,10 +2642,10 @@
       <c r="B112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="11">
         <v>5.0650000000000004</v>
       </c>
-      <c r="D112" s="11"/>
+      <c r="D112" s="9"/>
       <c r="H112" s="5">
         <v>12.093999999999999</v>
       </c>
@@ -2663,10 +2659,10 @@
       <c r="B113" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="11">
         <v>3.4845000000000001E-2</v>
       </c>
-      <c r="D113" s="11"/>
+      <c r="D113" s="9"/>
       <c r="H113" s="5">
         <v>7.7617000000000005E-2</v>
       </c>
@@ -2680,10 +2676,10 @@
       <c r="B114" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="11">
         <v>4.9654999999999996</v>
       </c>
-      <c r="D114" s="11"/>
+      <c r="D114" s="9"/>
       <c r="H114" s="5">
         <v>7.2382999999999997</v>
       </c>
@@ -2697,10 +2693,10 @@
       <c r="B115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="11">
         <v>1.7347999999999999</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="9"/>
       <c r="H115" s="5">
         <v>2.1583000000000001</v>
       </c>
@@ -2714,10 +2710,10 @@
       <c r="B116" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="11">
         <v>1.6709E-4</v>
       </c>
-      <c r="D116" s="11"/>
+      <c r="D116" s="9"/>
       <c r="H116" s="5">
         <v>3.4888999999999997E-4</v>
       </c>
@@ -2733,10 +2729,10 @@
       <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="11">
         <v>7.2740000000000001E-3</v>
       </c>
-      <c r="D117" s="11"/>
+      <c r="D117" s="9"/>
       <c r="H117" s="5">
         <v>1.8458000000000001E-3</v>
       </c>
@@ -2750,10 +2746,10 @@
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <v>5.9697000000000005E-4</v>
       </c>
-      <c r="D118" s="11"/>
+      <c r="D118" s="9"/>
       <c r="H118" s="5">
         <v>9.6869999999999996E-4</v>
       </c>
@@ -2767,10 +2763,10 @@
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="11">
         <v>9.1675999999999997E-3</v>
       </c>
-      <c r="D119" s="11"/>
+      <c r="D119" s="9"/>
       <c r="H119" s="5">
         <v>7.0416999999999997E-3</v>
       </c>
@@ -2784,10 +2780,10 @@
       <c r="B120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="11">
         <v>8.4246000000000008E-3</v>
       </c>
-      <c r="D120" s="11"/>
+      <c r="D120" s="9"/>
       <c r="H120" s="5">
         <v>2.8092E-3</v>
       </c>
@@ -2801,10 +2797,10 @@
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="11">
         <v>6.6947999999999999E-3</v>
       </c>
-      <c r="D121" s="11"/>
+      <c r="D121" s="9"/>
       <c r="H121" s="5">
         <v>2.5902E-3</v>
       </c>
@@ -2818,10 +2814,10 @@
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="11">
         <v>9.7482999999999997E-3</v>
       </c>
-      <c r="D122" s="11"/>
+      <c r="D122" s="9"/>
       <c r="H122" s="5">
         <v>3.3273E-3</v>
       </c>
@@ -2835,10 +2831,10 @@
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="11">
         <v>6.4580999999999996E-3</v>
       </c>
-      <c r="D123" s="11"/>
+      <c r="D123" s="9"/>
       <c r="H123" s="5">
         <v>2.3373999999999999E-3</v>
       </c>
@@ -2852,10 +2848,10 @@
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="11">
         <v>5.7410000000000002E-4</v>
       </c>
-      <c r="D124" s="11"/>
+      <c r="D124" s="9"/>
       <c r="H124" s="5">
         <v>1.0227999999999999E-3</v>
       </c>
@@ -2869,10 +2865,10 @@
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="11">
         <v>8.7440999999999994E-3</v>
       </c>
-      <c r="D125" s="11"/>
+      <c r="D125" s="9"/>
       <c r="H125" s="5">
         <v>7.1339999999999997E-3</v>
       </c>
@@ -2886,10 +2882,10 @@
       <c r="B126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="11">
         <v>8.7466999999999996E-3</v>
       </c>
-      <c r="D126" s="11"/>
+      <c r="D126" s="9"/>
       <c r="H126" s="5">
         <v>2.4754999999999998E-3</v>
       </c>
@@ -2903,10 +2899,10 @@
       <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="11">
         <v>8.1192999999999994E-3</v>
       </c>
-      <c r="D127" s="11"/>
+      <c r="D127" s="9"/>
       <c r="H127" s="5">
         <v>2.5092999999999999E-3</v>
       </c>
@@ -2920,10 +2916,10 @@
       <c r="B128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="11">
         <v>1.18E-2</v>
       </c>
-      <c r="D128" s="11"/>
+      <c r="D128" s="9"/>
       <c r="H128" s="5">
         <v>3.4841E-3</v>
       </c>
@@ -2937,10 +2933,10 @@
       <c r="B129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="11">
         <v>8.8214000000000001E-3</v>
       </c>
-      <c r="D129" s="11"/>
+      <c r="D129" s="9"/>
       <c r="H129" s="5">
         <v>2.4803999999999998E-3</v>
       </c>
@@ -2954,10 +2950,10 @@
       <c r="B130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="11">
         <v>6.6310999999999996E-4</v>
       </c>
-      <c r="D130" s="11"/>
+      <c r="D130" s="9"/>
       <c r="H130" s="5">
         <v>1.1153000000000001E-3</v>
       </c>
@@ -2971,10 +2967,10 @@
       <c r="B131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="11">
         <v>8.4612000000000003E-3</v>
       </c>
-      <c r="D131" s="11"/>
+      <c r="D131" s="9"/>
       <c r="H131" s="5">
         <v>7.1117999999999997E-3</v>
       </c>
@@ -2988,10 +2984,10 @@
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="11">
         <v>9.5107000000000004E-3</v>
       </c>
-      <c r="D132" s="11"/>
+      <c r="D132" s="9"/>
       <c r="H132" s="5">
         <v>2.4556000000000001E-3</v>
       </c>
@@ -3005,10 +3001,10 @@
       <c r="B133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="11">
         <v>7.2737000000000001E-3</v>
       </c>
-      <c r="D133" s="11"/>
+      <c r="D133" s="9"/>
       <c r="H133" s="5">
         <v>2.4637999999999999E-3</v>
       </c>
@@ -3022,10 +3018,10 @@
       <c r="B134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="11">
         <v>8.8477999999999994E-3</v>
       </c>
-      <c r="D134" s="11"/>
+      <c r="D134" s="9"/>
       <c r="H134" s="5">
         <v>3.0771000000000001E-3</v>
       </c>
@@ -3039,10 +3035,10 @@
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="11">
         <v>7.9054999999999993E-3</v>
       </c>
-      <c r="D135" s="11"/>
+      <c r="D135" s="9"/>
       <c r="H135" s="5">
         <v>2.1101000000000002E-3</v>
       </c>
@@ -3056,10 +3052,10 @@
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="11">
         <v>5.9380999999999995E-4</v>
       </c>
-      <c r="D136" s="11"/>
+      <c r="D136" s="9"/>
       <c r="H136" s="5">
         <v>1.1685000000000001E-3</v>
       </c>
@@ -3073,10 +3069,10 @@
       <c r="B137" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="11">
         <v>8.4735000000000001E-3</v>
       </c>
-      <c r="D137" s="11"/>
+      <c r="D137" s="9"/>
       <c r="H137" s="5">
         <v>7.0834000000000001E-3</v>
       </c>
@@ -3090,10 +3086,10 @@
       <c r="B138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="11">
         <v>9.1327999999999999E-3</v>
       </c>
-      <c r="D138" s="11"/>
+      <c r="D138" s="9"/>
       <c r="H138" s="5">
         <v>2.2650999999999999E-3</v>
       </c>
@@ -3107,10 +3103,10 @@
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="11">
         <v>5.5890000000000002E-3</v>
       </c>
-      <c r="D139" s="11"/>
+      <c r="D139" s="9"/>
       <c r="H139" s="5">
         <v>2.4919999999999999E-3</v>
       </c>
@@ -3124,10 +3120,10 @@
       <c r="B140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="11">
         <v>9.7689000000000005E-3</v>
       </c>
-      <c r="D140" s="11"/>
+      <c r="D140" s="9"/>
       <c r="H140" s="5">
         <v>3.4466000000000002E-3</v>
       </c>
@@ -3141,10 +3137,10 @@
       <c r="B141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>6.9728999999999998E-3</v>
       </c>
-      <c r="D141" s="11"/>
+      <c r="D141" s="9"/>
       <c r="H141" s="5">
         <v>2.3440000000000002E-3</v>
       </c>
@@ -3158,10 +3154,10 @@
       <c r="B142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="11">
         <v>6.0546000000000005E-4</v>
       </c>
-      <c r="D142" s="11"/>
+      <c r="D142" s="9"/>
       <c r="H142" s="5">
         <v>1.3638999999999999E-3</v>
       </c>
@@ -3175,10 +3171,10 @@
       <c r="B143" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="11">
         <v>8.8132000000000002E-3</v>
       </c>
-      <c r="D143" s="11"/>
+      <c r="D143" s="9"/>
       <c r="H143" s="5">
         <v>7.1041999999999998E-3</v>
       </c>
@@ -3192,10 +3188,10 @@
       <c r="B144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="11">
         <v>7.2297999999999998E-3</v>
       </c>
-      <c r="D144" s="11"/>
+      <c r="D144" s="9"/>
       <c r="H144" s="5">
         <v>2.2437999999999998E-3</v>
       </c>
@@ -3209,10 +3205,10 @@
       <c r="B145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="11">
         <v>7.8762999999999993E-3</v>
       </c>
-      <c r="D145" s="11"/>
+      <c r="D145" s="9"/>
       <c r="H145" s="5">
         <v>2.3473999999999999E-3</v>
       </c>
@@ -3226,10 +3222,10 @@
       <c r="B146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="11">
         <v>1.0486000000000001E-2</v>
       </c>
-      <c r="D146" s="11"/>
+      <c r="D146" s="9"/>
       <c r="H146" s="5">
         <v>3.2054000000000002E-3</v>
       </c>
@@ -3243,10 +3239,10 @@
       <c r="B147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="11">
         <v>7.1057000000000004E-3</v>
       </c>
-      <c r="D147" s="11"/>
+      <c r="D147" s="9"/>
       <c r="H147" s="5">
         <v>2.3016E-3</v>
       </c>
@@ -3260,10 +3256,10 @@
       <c r="B148" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="11">
         <v>5.9666999999999999E-4</v>
       </c>
-      <c r="D148" s="11"/>
+      <c r="D148" s="9"/>
       <c r="H148" s="5">
         <v>1.031E-3</v>
       </c>
@@ -3277,10 +3273,10 @@
       <c r="B149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="11">
         <v>1.0214000000000001E-2</v>
       </c>
-      <c r="D149" s="11"/>
+      <c r="D149" s="9"/>
       <c r="H149" s="5">
         <v>7.0108999999999996E-3</v>
       </c>
@@ -3294,10 +3290,10 @@
       <c r="B150" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="11">
         <v>7.6131000000000002E-3</v>
       </c>
-      <c r="D150" s="11"/>
+      <c r="D150" s="9"/>
       <c r="H150" s="5">
         <v>2.3633E-3</v>
       </c>
@@ -3311,10 +3307,10 @@
       <c r="B151" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <v>8.0259000000000007E-3</v>
       </c>
-      <c r="D151" s="11"/>
+      <c r="D151" s="9"/>
       <c r="H151" s="5">
         <v>2.5132000000000002E-3</v>
       </c>
@@ -3328,10 +3324,10 @@
       <c r="B152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="11">
         <v>9.5230000000000002E-3</v>
       </c>
-      <c r="D152" s="11"/>
+      <c r="D152" s="9"/>
       <c r="H152" s="5">
         <v>3.2439000000000001E-3</v>
       </c>
@@ -3345,10 +3341,10 @@
       <c r="B153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="11">
         <v>6.4989999999999996E-3</v>
       </c>
-      <c r="D153" s="11"/>
+      <c r="D153" s="9"/>
       <c r="H153" s="5">
         <v>2.3341E-3</v>
       </c>
@@ -3362,10 +3358,10 @@
       <c r="B154" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="11">
         <v>6.0612000000000003E-4</v>
       </c>
-      <c r="D154" s="11"/>
+      <c r="D154" s="9"/>
       <c r="H154" s="5">
         <v>9.6279000000000004E-4</v>
       </c>
@@ -3379,10 +3375,10 @@
       <c r="B155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="11">
         <v>8.7048000000000004E-3</v>
       </c>
-      <c r="D155" s="11"/>
+      <c r="D155" s="9"/>
       <c r="H155" s="5">
         <v>7.1428999999999998E-3</v>
       </c>
@@ -3396,10 +3392,10 @@
       <c r="B156" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="11">
         <v>7.8534E-3</v>
       </c>
-      <c r="D156" s="11"/>
+      <c r="D156" s="9"/>
       <c r="H156" s="5">
         <v>2.6308999999999998E-3</v>
       </c>
@@ -3413,10 +3409,10 @@
       <c r="B157" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="11">
         <v>9.2571000000000007E-3</v>
       </c>
-      <c r="D157" s="11"/>
+      <c r="D157" s="9"/>
       <c r="H157" s="5">
         <v>2.2950000000000002E-3</v>
       </c>
@@ -3430,10 +3426,10 @@
       <c r="B158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="11">
         <v>1.1147000000000001E-2</v>
       </c>
-      <c r="D158" s="11"/>
+      <c r="D158" s="9"/>
       <c r="H158" s="5">
         <v>3.8084999999999998E-3</v>
       </c>
@@ -3447,10 +3443,10 @@
       <c r="B159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="11">
         <v>7.3122999999999999E-3</v>
       </c>
-      <c r="D159" s="11"/>
+      <c r="D159" s="9"/>
       <c r="H159" s="5">
         <v>2.1703E-3</v>
       </c>
@@ -3464,10 +3460,10 @@
       <c r="B160" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="11">
         <v>5.6944000000000005E-4</v>
       </c>
-      <c r="D160" s="11"/>
+      <c r="D160" s="9"/>
       <c r="H160" s="5">
         <v>1.0529999999999999E-3</v>
       </c>
@@ -3481,10 +3477,10 @@
       <c r="B161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="11">
         <v>8.5337E-3</v>
       </c>
-      <c r="D161" s="11"/>
+      <c r="D161" s="9"/>
       <c r="H161" s="5">
         <v>7.0990000000000003E-3</v>
       </c>
@@ -3498,10 +3494,10 @@
       <c r="B162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="11">
         <v>8.9020999999999996E-3</v>
       </c>
-      <c r="D162" s="11"/>
+      <c r="D162" s="9"/>
       <c r="H162" s="5">
         <v>2.2935999999999998E-3</v>
       </c>
@@ -3515,10 +3511,10 @@
       <c r="B163" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="11">
         <v>6.8446999999999996E-3</v>
       </c>
-      <c r="D163" s="11"/>
+      <c r="D163" s="9"/>
       <c r="H163" s="5">
         <v>2.5844000000000002E-3</v>
       </c>
@@ -3532,10 +3528,10 @@
       <c r="B164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C164" s="13">
+      <c r="C164" s="11">
         <v>1.1783999999999999E-2</v>
       </c>
-      <c r="D164" s="11"/>
+      <c r="D164" s="9"/>
       <c r="H164" s="5">
         <v>3.5044E-3</v>
       </c>
@@ -3549,10 +3545,10 @@
       <c r="B165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="11">
         <v>7.6236000000000003E-3</v>
       </c>
-      <c r="D165" s="11"/>
+      <c r="D165" s="9"/>
       <c r="H165" s="5">
         <v>2.3262000000000001E-3</v>
       </c>
@@ -3566,10 +3562,10 @@
       <c r="B166" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C166" s="13">
+      <c r="C166" s="11">
         <v>5.1385000000000005E-4</v>
       </c>
-      <c r="D166" s="11"/>
+      <c r="D166" s="9"/>
       <c r="H166" s="5">
         <v>1.2823000000000001E-3</v>
       </c>
@@ -3585,10 +3581,10 @@
       <c r="B167" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="13">
+      <c r="C167" s="11">
         <v>6.7448999999999999E-3</v>
       </c>
-      <c r="D167" s="11"/>
+      <c r="D167" s="9"/>
       <c r="H167" s="5">
         <v>8.2063999999999998E-2</v>
       </c>
@@ -3602,10 +3598,10 @@
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="11">
         <v>4.1230000000000003E-2</v>
       </c>
-      <c r="D168" s="11"/>
+      <c r="D168" s="9"/>
       <c r="H168" s="5">
         <v>2.2662</v>
       </c>
@@ -3619,10 +3615,10 @@
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="11">
         <v>0.38189000000000001</v>
       </c>
-      <c r="D169" s="11"/>
+      <c r="D169" s="9"/>
       <c r="H169" s="5">
         <v>89.966999999999999</v>
       </c>
@@ -3636,10 +3632,10 @@
       <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C170" s="13">
+      <c r="C170" s="11">
         <v>1.6261000000000001E-2</v>
       </c>
-      <c r="D170" s="11"/>
+      <c r="D170" s="9"/>
       <c r="H170" s="5">
         <v>2.1068E-2</v>
       </c>
@@ -3653,10 +3649,10 @@
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="11">
         <v>3.8591E-2</v>
       </c>
-      <c r="D171" s="11"/>
+      <c r="D171" s="9"/>
       <c r="H171" s="5">
         <v>0.10281999999999999</v>
       </c>
@@ -3670,10 +3666,10 @@
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="13">
+      <c r="C172" s="11">
         <v>6.8240000000000002E-3</v>
       </c>
-      <c r="D172" s="11"/>
+      <c r="D172" s="9"/>
       <c r="H172" s="5">
         <v>1.1494000000000001E-2</v>
       </c>
@@ -3687,10 +3683,10 @@
       <c r="B173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="13">
+      <c r="C173" s="11">
         <v>1.0855999999999999E-2</v>
       </c>
-      <c r="D173" s="11"/>
+      <c r="D173" s="9"/>
       <c r="H173" s="5">
         <v>5.8616000000000001E-2</v>
       </c>
@@ -3704,10 +3700,10 @@
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="13">
+      <c r="C174" s="11">
         <v>5.8028000000000003E-3</v>
       </c>
-      <c r="D174" s="11"/>
+      <c r="D174" s="9"/>
       <c r="H174" s="5">
         <v>2.7241000000000001E-3</v>
       </c>
@@ -3721,10 +3717,10 @@
       <c r="B175" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="13">
+      <c r="C175" s="11">
         <v>7.0952999999999997E-3</v>
       </c>
-      <c r="D175" s="11"/>
+      <c r="D175" s="9"/>
       <c r="H175" s="5">
         <v>7.5882000000000005E-2</v>
       </c>
@@ -3738,10 +3734,10 @@
       <c r="B176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="13">
+      <c r="C176" s="11">
         <v>4.9715000000000002E-3</v>
       </c>
-      <c r="D176" s="11"/>
+      <c r="D176" s="9"/>
       <c r="H176" s="5">
         <v>1.8071000000000001E-3</v>
       </c>
@@ -3755,10 +3751,10 @@
       <c r="B177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="11">
         <v>1.0305999999999999E-2</v>
       </c>
-      <c r="D177" s="11"/>
+      <c r="D177" s="9"/>
       <c r="H177" s="5">
         <v>0.60699999999999998</v>
       </c>
@@ -3772,10 +3768,10 @@
       <c r="B178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="13">
+      <c r="C178" s="11">
         <v>9.0384000000000003E-3</v>
       </c>
-      <c r="D178" s="11"/>
+      <c r="D178" s="9"/>
       <c r="H178" s="5">
         <v>8.3405000000000007E-3</v>
       </c>
@@ -3789,10 +3785,10 @@
       <c r="B179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="13">
+      <c r="C179" s="11">
         <v>1.2289E-2</v>
       </c>
-      <c r="D179" s="11"/>
+      <c r="D179" s="9"/>
       <c r="H179" s="5">
         <v>3.2465000000000001E-2</v>
       </c>
@@ -3806,10 +3802,10 @@
       <c r="B180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="13">
+      <c r="C180" s="11">
         <v>6.7965999999999999E-3</v>
       </c>
-      <c r="D180" s="11"/>
+      <c r="D180" s="9"/>
       <c r="H180" s="5">
         <v>1.0397E-2</v>
       </c>
@@ -3823,10 +3819,10 @@
       <c r="B181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C181" s="13">
+      <c r="C181" s="11">
         <v>6.5566000000000001E-3</v>
       </c>
-      <c r="D181" s="11"/>
+      <c r="D181" s="9"/>
       <c r="H181" s="5">
         <v>4.8006000000000004E-3</v>
       </c>
@@ -3840,10 +3836,10 @@
       <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C182" s="13">
+      <c r="C182" s="11">
         <v>2.4412E-2</v>
       </c>
-      <c r="D182" s="11"/>
+      <c r="D182" s="9"/>
       <c r="H182" s="5">
         <v>4.4549000000000003</v>
       </c>
@@ -3857,10 +3853,10 @@
       <c r="B183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C183" s="13">
+      <c r="C183" s="11">
         <v>1.5333000000000001</v>
       </c>
-      <c r="D183" s="11"/>
+      <c r="D183" s="9"/>
       <c r="H183" s="5">
         <v>113.47</v>
       </c>
@@ -3874,10 +3870,10 @@
       <c r="B184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C184" s="13">
+      <c r="C184" s="11">
         <v>1.1906999999999999E-2</v>
       </c>
-      <c r="D184" s="11"/>
+      <c r="D184" s="9"/>
       <c r="H184" s="5">
         <v>4.1451000000000002E-2</v>
       </c>
@@ -3891,10 +3887,10 @@
       <c r="B185" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="13">
+      <c r="C185" s="11">
         <v>3.4356999999999999E-2</v>
       </c>
-      <c r="D185" s="11"/>
+      <c r="D185" s="9"/>
       <c r="H185" s="5">
         <v>0.10266</v>
       </c>
@@ -3908,10 +3904,10 @@
       <c r="B186" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C186" s="13">
+      <c r="C186" s="11">
         <v>6.8718E-3</v>
       </c>
-      <c r="D186" s="11"/>
+      <c r="D186" s="9"/>
       <c r="H186" s="5">
         <v>1.1717E-2</v>
       </c>
@@ -3925,10 +3921,10 @@
       <c r="B187" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C187" s="13">
+      <c r="C187" s="11">
         <v>1.1479E-2</v>
       </c>
-      <c r="D187" s="11"/>
+      <c r="D187" s="9"/>
       <c r="H187" s="5">
         <v>6.1216E-2</v>
       </c>
@@ -3941,10 +3937,10 @@
       <c r="B188" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C188" s="13">
+      <c r="C188" s="11">
         <v>6.0930000000000003E-3</v>
       </c>
-      <c r="D188" s="11"/>
+      <c r="D188" s="9"/>
       <c r="H188" s="5">
         <v>2.5647000000000001E-3</v>
       </c>
@@ -3957,10 +3953,10 @@
       <c r="B189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C189" s="13">
+      <c r="C189" s="11">
         <v>7.3514000000000001E-3</v>
       </c>
-      <c r="D189" s="11"/>
+      <c r="D189" s="9"/>
       <c r="H189" s="5">
         <v>7.9982999999999999E-2</v>
       </c>
@@ -3973,10 +3969,10 @@
       <c r="B190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C190" s="13">
+      <c r="C190" s="11">
         <v>4.6719999999999999E-3</v>
       </c>
-      <c r="D190" s="11"/>
+      <c r="D190" s="9"/>
       <c r="H190" s="5">
         <v>1.7551999999999999E-3</v>
       </c>
@@ -3989,10 +3985,10 @@
       <c r="B191" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="13">
+      <c r="C191" s="11">
         <v>2.4112999999999999E-2</v>
       </c>
-      <c r="D191" s="11"/>
+      <c r="D191" s="9"/>
       <c r="H191" s="5">
         <v>1.7910999999999999</v>
       </c>
@@ -4005,10 +4001,10 @@
       <c r="B192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="13">
+      <c r="C192" s="11">
         <v>8.7650000000000002E-3</v>
       </c>
-      <c r="D192" s="11"/>
+      <c r="D192" s="9"/>
       <c r="H192" s="5">
         <v>7.9754000000000005E-3</v>
       </c>
@@ -4021,10 +4017,10 @@
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C193" s="13">
+      <c r="C193" s="11">
         <v>1.302E-2</v>
       </c>
-      <c r="D193" s="11"/>
+      <c r="D193" s="9"/>
       <c r="H193" s="5">
         <v>3.4986999999999997E-2</v>
       </c>
@@ -4037,10 +4033,10 @@
       <c r="B194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C194" s="13">
+      <c r="C194" s="11">
         <v>6.7723000000000002E-3</v>
       </c>
-      <c r="D194" s="11"/>
+      <c r="D194" s="9"/>
       <c r="H194" s="5">
         <v>9.9121999999999995E-3</v>
       </c>
@@ -4057,21 +4053,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8574390-C923-428B-BCCC-9F0A2438484C}">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7:E16"/>
+      <selection pane="bottomRight" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -4081,14 +4074,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4099,13 +4089,10 @@
         <v>4.3638999999999997E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>3.4795E-3</v>
-      </c>
-      <c r="E2" s="5">
         <v>2.1307000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -4114,13 +4101,10 @@
         <v>4.7001000000000001E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>3.4642000000000002E-3</v>
-      </c>
-      <c r="E3" s="5">
         <v>2.6708999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -4129,13 +4113,10 @@
         <v>0.39302999999999999</v>
       </c>
       <c r="D4" s="5">
-        <v>1.6372000000000001E-2</v>
-      </c>
-      <c r="E4" s="5">
         <v>1.6917999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -4144,13 +4125,10 @@
         <v>8.9268E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>3.362E-3</v>
-      </c>
-      <c r="E5" s="5">
         <v>2.6245999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -4159,13 +4137,10 @@
         <v>0.10782</v>
       </c>
       <c r="D6" s="5">
-        <v>7.1985E-3</v>
-      </c>
-      <c r="E6" s="5">
         <v>5.3239000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -4176,13 +4151,10 @@
         <v>3.9198999999999998E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>3.1231000000000002E-3</v>
-      </c>
-      <c r="E7" s="5">
         <v>2.6283000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -4191,13 +4163,10 @@
         <v>1.5161000000000001E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>8.1466999999999998E-3</v>
-      </c>
-      <c r="E8" s="5">
         <v>4.2788000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -4206,13 +4175,10 @@
         <v>0.45029000000000002</v>
       </c>
       <c r="D9" s="5">
-        <v>1.9788E-2</v>
-      </c>
-      <c r="E9" s="5">
         <v>2.0330000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -4221,13 +4187,10 @@
         <v>5.7181999999999997E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>1.1456000000000001E-3</v>
-      </c>
-      <c r="E10" s="5">
         <v>1.4483E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -4236,13 +4199,10 @@
         <v>0.10446</v>
       </c>
       <c r="D11" s="5">
-        <v>6.5973999999999998E-3</v>
-      </c>
-      <c r="E11" s="5">
         <v>5.8104000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -4251,13 +4211,10 @@
         <v>3.6093E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>1.0311000000000001E-2</v>
-      </c>
-      <c r="E12" s="5">
         <v>8.6958000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -4266,13 +4223,10 @@
         <v>3.4197999999999999E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>2.5474999999999999E-3</v>
-      </c>
-      <c r="E13" s="5">
         <v>2.2396999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -4281,13 +4235,10 @@
         <v>0.42714000000000002</v>
       </c>
       <c r="D14" s="5">
-        <v>1.5755999999999999E-2</v>
-      </c>
-      <c r="E14" s="5">
         <v>1.6154999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -4296,13 +4247,10 @@
         <v>9.5734E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>2.0284999999999999E-3</v>
-      </c>
-      <c r="E15" s="5">
         <v>2.0387999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -4311,13 +4259,10 @@
         <v>9.0043999999999999E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>1.2276E-2</v>
-      </c>
-      <c r="E16" s="5">
         <v>7.4878999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -4328,13 +4273,10 @@
         <v>5.0510000000000002</v>
       </c>
       <c r="D17" s="5">
-        <v>1.4192E-2</v>
-      </c>
-      <c r="E17" s="5">
         <v>1.6587999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>3</v>
@@ -4343,13 +4285,10 @@
         <v>0.27662999999999999</v>
       </c>
       <c r="D18" s="5">
-        <v>3.3841000000000001E-3</v>
-      </c>
-      <c r="E18" s="5">
         <v>4.0835000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -4358,13 +4297,10 @@
         <v>1.6408</v>
       </c>
       <c r="D19" s="5">
-        <v>5.8292999999999999E-3</v>
-      </c>
-      <c r="E19" s="5">
         <v>6.4872999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -4373,13 +4309,10 @@
         <v>0.13213</v>
       </c>
       <c r="D20" s="5">
-        <v>2.5917000000000002E-3</v>
-      </c>
-      <c r="E20" s="5">
         <v>2.5268000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
@@ -4388,13 +4321,10 @@
         <v>1.3499000000000001</v>
       </c>
       <c r="D21" s="5">
-        <v>7.9506000000000004E-3</v>
-      </c>
-      <c r="E21" s="5">
         <v>1.1048000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -4403,13 +4333,10 @@
         <v>3.3176999999999999</v>
       </c>
       <c r="D22" s="5">
-        <v>1.2759E-2</v>
-      </c>
-      <c r="E22" s="5">
         <v>2.4660999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -4418,13 +4345,10 @@
         <v>0.36825999999999998</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0095999999999999E-3</v>
-      </c>
-      <c r="E23" s="5">
         <v>2.9261000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -4433,13 +4357,10 @@
         <v>0.40986</v>
       </c>
       <c r="D24" s="5">
-        <v>5.3749999999999996E-3</v>
-      </c>
-      <c r="E24" s="5">
         <v>5.9960999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -4448,13 +4369,10 @@
         <v>0.16772999999999999</v>
       </c>
       <c r="D25" s="5">
-        <v>2.97E-3</v>
-      </c>
-      <c r="E25" s="5">
         <v>2.8605000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -4463,13 +4381,10 @@
         <v>0.44120999999999999</v>
       </c>
       <c r="D26" s="5">
-        <v>3.3666E-3</v>
-      </c>
-      <c r="E26" s="5">
         <v>3.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -4480,13 +4395,10 @@
         <v>5.0970000000000001E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>1.3553E-3</v>
-      </c>
-      <c r="E27" s="5">
         <v>1.2700999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>3</v>
@@ -4495,13 +4407,10 @@
         <v>47.3</v>
       </c>
       <c r="D28" s="5">
-        <v>0.51619000000000004</v>
-      </c>
-      <c r="E28" s="5">
         <v>2.2305999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -4510,13 +4419,10 @@
         <v>5.3212000000000002E-2</v>
       </c>
       <c r="D29" s="5">
-        <v>1.0150999999999999E-3</v>
-      </c>
-      <c r="E29" s="5">
         <v>9.7936000000000008E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -4525,13 +4431,10 @@
         <v>5.3874999999999999E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>1.2818E-3</v>
-      </c>
-      <c r="E30" s="5">
         <v>1.2187999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -4540,13 +4443,10 @@
         <v>8.1057000000000004E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>0.60170000000000001</v>
-      </c>
-      <c r="E31" s="5">
         <v>2.1003999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>8</v>
@@ -4555,13 +4455,10 @@
         <v>4.5476000000000003E-2</v>
       </c>
       <c r="D32" s="5">
-        <v>8.9302999999999995E-4</v>
-      </c>
-      <c r="E32" s="5">
         <v>9.9653999999999997E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
@@ -4570,13 +4467,10 @@
         <v>81.837000000000003</v>
       </c>
       <c r="D33" s="5">
-        <v>2.5404</v>
-      </c>
-      <c r="E33" s="5">
         <v>1.8593</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -4585,13 +4479,10 @@
         <v>7.8768000000000005E-2</v>
       </c>
       <c r="D34" s="5">
-        <v>5.7448999999999998E-3</v>
-      </c>
-      <c r="E34" s="5">
         <v>3.5455E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -4600,13 +4491,10 @@
         <v>5.1766E-2</v>
       </c>
       <c r="D35" s="5">
-        <v>6.7387999999999997E-4</v>
-      </c>
-      <c r="E35" s="5">
         <v>9.5051000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -4615,13 +4503,10 @@
         <v>5.3367999999999999E-2</v>
       </c>
       <c r="D36" s="5">
-        <v>3.1768000000000001</v>
-      </c>
-      <c r="E36" s="5">
         <v>2.1831999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -4630,13 +4515,10 @@
         <v>7.6732999999999996E-2</v>
       </c>
       <c r="D37" s="5">
-        <v>7.0962E-4</v>
-      </c>
-      <c r="E37" s="5">
         <v>6.8796000000000005E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
@@ -4645,13 +4527,10 @@
         <v>14.147</v>
       </c>
       <c r="D38" s="5">
-        <v>0.14485999999999999</v>
-      </c>
-      <c r="E38" s="5">
         <v>0.20888999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>17</v>
@@ -4660,13 +4539,10 @@
         <v>5.0404999999999998E-2</v>
       </c>
       <c r="D39" s="5">
-        <v>3.4329999999999999E-3</v>
-      </c>
-      <c r="E39" s="5">
         <v>1.4686E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>18</v>
@@ -4675,13 +4551,10 @@
         <v>7.8065999999999997E-2</v>
       </c>
       <c r="D40" s="5">
-        <v>6.9612999999999999E-4</v>
-      </c>
-      <c r="E40" s="5">
         <v>6.8559000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -4690,13 +4563,10 @@
         <v>5.0881999999999997E-2</v>
       </c>
       <c r="D41" s="5">
-        <v>0.66815000000000002</v>
-      </c>
-      <c r="E41" s="5">
         <v>2.2908000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>20</v>
@@ -4705,13 +4575,10 @@
         <v>5.1809000000000001E-2</v>
       </c>
       <c r="D42" s="5">
-        <v>1.5644999999999999E-3</v>
-      </c>
-      <c r="E42" s="5">
         <v>1.6012000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>21</v>
@@ -4720,13 +4587,10 @@
         <v>81.671000000000006</v>
       </c>
       <c r="D43" s="5">
-        <v>5.7198000000000002</v>
-      </c>
-      <c r="E43" s="5">
         <v>0.81888000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>22</v>
@@ -4735,13 +4599,10 @@
         <v>4.4274000000000001E-2</v>
       </c>
       <c r="D44" s="5">
-        <v>1.3967999999999999E-3</v>
-      </c>
-      <c r="E44" s="5">
         <v>1.3133000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>23</v>
@@ -4750,13 +4611,10 @@
         <v>5.1789000000000002E-2</v>
       </c>
       <c r="D45" s="5">
-        <v>1.2110000000000001E-3</v>
-      </c>
-      <c r="E45" s="5">
         <v>1.2083E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>24</v>
@@ -4765,13 +4623,10 @@
         <v>7.8157000000000004E-2</v>
       </c>
       <c r="D46" s="5">
-        <v>0.99512</v>
-      </c>
-      <c r="E46" s="5">
         <v>1.3007</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -4782,13 +4637,10 @@
         <v>5.6665E-2</v>
       </c>
       <c r="D47" s="5">
-        <v>9.9869999999999994E-4</v>
-      </c>
-      <c r="E47" s="5">
         <v>1.0761E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>3</v>
@@ -4797,13 +4649,10 @@
         <v>303.89</v>
       </c>
       <c r="D48" s="5">
-        <v>2.0316000000000001</v>
-      </c>
-      <c r="E48" s="5">
         <v>1.7747999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>4</v>
@@ -4812,13 +4661,10 @@
         <v>5.0264999999999997E-2</v>
       </c>
       <c r="D49" s="5">
-        <v>4.7424000000000001E-4</v>
-      </c>
-      <c r="E49" s="5">
         <v>4.6880000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>5</v>
@@ -4827,13 +4673,10 @@
         <v>6.9147E-2</v>
       </c>
       <c r="D50" s="5">
-        <v>2.3040000000000001E-3</v>
-      </c>
-      <c r="E50" s="5">
         <v>2.1592999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>6</v>
@@ -4842,13 +4685,10 @@
         <v>310.43</v>
       </c>
       <c r="D51" s="5">
-        <v>2.5152000000000001</v>
-      </c>
-      <c r="E51" s="5">
         <v>2.9582000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>8</v>
@@ -4857,13 +4697,10 @@
         <v>6.8581000000000003E-2</v>
       </c>
       <c r="D52" s="5">
-        <v>1.4291E-3</v>
-      </c>
-      <c r="E52" s="5">
         <v>1.3814999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>9</v>
@@ -4872,13 +4709,10 @@
         <v>5.0861000000000003E-2</v>
       </c>
       <c r="D53" s="5">
-        <v>1.2172000000000001E-3</v>
-      </c>
-      <c r="E53" s="5">
         <v>1.6161000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -4887,13 +4721,10 @@
         <v>273.17</v>
       </c>
       <c r="D54" s="5">
-        <v>2.7978000000000001</v>
-      </c>
-      <c r="E54" s="5">
         <v>1.8381000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -4902,13 +4733,10 @@
         <v>5.1560000000000002E-2</v>
       </c>
       <c r="D55" s="5">
-        <v>4.7328000000000002E-4</v>
-      </c>
-      <c r="E55" s="5">
         <v>4.7744999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -4917,13 +4745,10 @@
         <v>7.1439000000000002E-2</v>
       </c>
       <c r="D56" s="5">
-        <v>2.0731E-3</v>
-      </c>
-      <c r="E56" s="5">
         <v>2.9591999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -4932,13 +4757,10 @@
         <v>270.92</v>
       </c>
       <c r="D57" s="5">
-        <v>2.2404999999999999</v>
-      </c>
-      <c r="E57" s="5">
         <v>2.1939000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>16</v>
@@ -4947,13 +4769,10 @@
         <v>6.9903000000000007E-2</v>
       </c>
       <c r="D58" s="5">
-        <v>1.2378999999999999E-3</v>
-      </c>
-      <c r="E58" s="5">
         <v>1.3131E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>17</v>
@@ -4962,13 +4781,10 @@
         <v>5.0800999999999999E-2</v>
       </c>
       <c r="D59" s="5">
-        <v>1.0824000000000001E-3</v>
-      </c>
-      <c r="E59" s="5">
         <v>1.6971E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>18</v>
@@ -4977,13 +4793,10 @@
         <v>258.81</v>
       </c>
       <c r="D60" s="5">
-        <v>2.4033000000000002</v>
-      </c>
-      <c r="E60" s="5">
         <v>1.3514999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>19</v>
@@ -4992,13 +4805,10 @@
         <v>5.1250999999999998E-2</v>
       </c>
       <c r="D61" s="5">
-        <v>4.7937000000000001E-4</v>
-      </c>
-      <c r="E61" s="5">
         <v>4.7224000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>20</v>
@@ -5007,13 +4817,10 @@
         <v>6.7714999999999997E-2</v>
       </c>
       <c r="D62" s="5">
-        <v>2.0496999999999998E-3</v>
-      </c>
-      <c r="E62" s="5">
         <v>2.4299E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>21</v>
@@ -5022,13 +4829,10 @@
         <v>279.31</v>
       </c>
       <c r="D63" s="5">
-        <v>2.2231000000000001</v>
-      </c>
-      <c r="E63" s="5">
         <v>3.1356000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>22</v>
@@ -5037,13 +4841,10 @@
         <v>6.8642999999999996E-2</v>
       </c>
       <c r="D64" s="5">
-        <v>1.2537E-3</v>
-      </c>
-      <c r="E64" s="5">
         <v>1.3741000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>23</v>
@@ -5052,13 +4853,10 @@
         <v>5.1443000000000003E-2</v>
       </c>
       <c r="D65" s="5">
-        <v>1.4579E-3</v>
-      </c>
-      <c r="E65" s="5">
         <v>1.1257999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>24</v>
@@ -5067,13 +4865,10 @@
         <v>259.08999999999997</v>
       </c>
       <c r="D66" s="5">
-        <v>2.8420999999999998</v>
-      </c>
-      <c r="E66" s="5">
         <v>1.8952</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>26</v>
@@ -5082,13 +4877,10 @@
         <v>5.0901000000000002E-2</v>
       </c>
       <c r="D67" s="5">
-        <v>4.7420999999999997E-4</v>
-      </c>
-      <c r="E67" s="5">
         <v>4.7551000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>27</v>
@@ -5097,13 +4889,10 @@
         <v>6.8544999999999995E-2</v>
       </c>
       <c r="D68" s="5">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="E68" s="5">
         <v>2.7028999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>28</v>
@@ -5112,13 +4901,10 @@
         <v>278.23</v>
       </c>
       <c r="D69" s="5">
-        <v>2.1648000000000001</v>
-      </c>
-      <c r="E69" s="5">
         <v>1.87</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>29</v>
@@ -5127,13 +4913,10 @@
         <v>6.8641999999999995E-2</v>
       </c>
       <c r="D70" s="5">
-        <v>1.3638999999999999E-3</v>
-      </c>
-      <c r="E70" s="5">
         <v>1.3454999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>30</v>
@@ -5142,13 +4925,10 @@
         <v>5.1207999999999997E-2</v>
       </c>
       <c r="D71" s="5">
-        <v>1.2439E-3</v>
-      </c>
-      <c r="E71" s="5">
         <v>1.1418000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>31</v>
@@ -5157,13 +4937,10 @@
         <v>285.10000000000002</v>
       </c>
       <c r="D72" s="5">
-        <v>2.1819999999999999</v>
-      </c>
-      <c r="E72" s="5">
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>32</v>
@@ -5172,13 +4949,10 @@
         <v>5.0542999999999998E-2</v>
       </c>
       <c r="D73" s="5">
-        <v>4.86E-4</v>
-      </c>
-      <c r="E73" s="5">
         <v>4.7004000000000002E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>33</v>
@@ -5187,13 +4961,10 @@
         <v>6.9473999999999994E-2</v>
       </c>
       <c r="D74" s="5">
-        <v>2.1026E-3</v>
-      </c>
-      <c r="E74" s="5">
         <v>2.4269999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>34</v>
@@ -5202,13 +4973,10 @@
         <v>262.89</v>
       </c>
       <c r="D75" s="5">
-        <v>2.5754000000000001</v>
-      </c>
-      <c r="E75" s="5">
         <v>2.2351000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>35</v>
@@ -5217,13 +4985,10 @@
         <v>6.9832000000000005E-2</v>
       </c>
       <c r="D76" s="5">
-        <v>1.2936E-3</v>
-      </c>
-      <c r="E76" s="5">
         <v>1.2198000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>36</v>
       </c>
@@ -5234,13 +4999,10 @@
         <v>2264.1999999999998</v>
       </c>
       <c r="D77" s="5">
-        <v>60.243000000000002</v>
-      </c>
-      <c r="E77" s="5">
         <v>85.069000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>3</v>
@@ -5249,13 +5011,10 @@
         <v>1.9397</v>
       </c>
       <c r="D78" s="5">
-        <v>4.6942999999999999E-2</v>
-      </c>
-      <c r="E78" s="5">
         <v>4.2549999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -5264,13 +5023,10 @@
         <v>239.3</v>
       </c>
       <c r="D79" s="5">
-        <v>3.6398000000000001</v>
-      </c>
-      <c r="E79" s="5">
         <v>3.7446000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>5</v>
@@ -5279,13 +5035,10 @@
         <v>68.141000000000005</v>
       </c>
       <c r="D80" s="5">
-        <v>2.1259000000000001</v>
-      </c>
-      <c r="E80" s="5">
         <v>2.1873999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>6</v>
@@ -5294,13 +5047,10 @@
         <v>7.5360999999999996E-3</v>
       </c>
       <c r="D81" s="5">
-        <v>2.9506999999999998E-4</v>
-      </c>
-      <c r="E81" s="5">
         <v>2.8547000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>8</v>
@@ -5309,13 +5059,10 @@
         <v>257.68</v>
       </c>
       <c r="D82" s="5">
-        <v>11.291</v>
-      </c>
-      <c r="E82" s="5">
         <v>12.183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>9</v>
@@ -5324,13 +5071,10 @@
         <v>2.2523</v>
       </c>
       <c r="D83" s="5">
-        <v>3.5374999999999997E-2</v>
-      </c>
-      <c r="E83" s="5">
         <v>3.6774000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>10</v>
@@ -5339,13 +5083,10 @@
         <v>249.37</v>
       </c>
       <c r="D84" s="5">
-        <v>3.2153999999999998</v>
-      </c>
-      <c r="E84" s="5">
         <v>3.3079000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>11</v>
@@ -5354,13 +5095,10 @@
         <v>68.037000000000006</v>
       </c>
       <c r="D85" s="5">
-        <v>2.1242000000000001</v>
-      </c>
-      <c r="E85" s="5">
         <v>2.1760999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -5369,13 +5107,10 @@
         <v>7.4454999999999999E-3</v>
       </c>
       <c r="D86" s="5">
-        <v>2.7662999999999999E-4</v>
-      </c>
-      <c r="E86" s="5">
         <v>2.9006000000000002E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>15</v>
@@ -5384,13 +5119,10 @@
         <v>176.59</v>
       </c>
       <c r="D87" s="5">
-        <v>5.7117000000000004</v>
-      </c>
-      <c r="E87" s="5">
         <v>13.722</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>16</v>
@@ -5399,13 +5131,10 @@
         <v>2.4005999999999998</v>
       </c>
       <c r="D88" s="5">
-        <v>3.4688999999999998E-2</v>
-      </c>
-      <c r="E88" s="5">
         <v>3.7808000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>17</v>
@@ -5414,13 +5143,10 @@
         <v>263.97000000000003</v>
       </c>
       <c r="D89" s="5">
-        <v>3.5232999999999999</v>
-      </c>
-      <c r="E89" s="5">
         <v>4.1914999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
@@ -5429,13 +5155,10 @@
         <v>67.744</v>
       </c>
       <c r="D90" s="5">
-        <v>2.1459000000000001</v>
-      </c>
-      <c r="E90" s="5">
         <v>2.2071000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
@@ -5444,13 +5167,10 @@
         <v>7.234E-3</v>
       </c>
       <c r="D91" s="5">
-        <v>3.3065999999999998E-4</v>
-      </c>
-      <c r="E91" s="5">
         <v>3.2288E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
         <v>20</v>
@@ -5459,13 +5179,10 @@
         <v>309.97000000000003</v>
       </c>
       <c r="D92" s="5">
-        <v>37.850999999999999</v>
-      </c>
-      <c r="E92" s="5">
         <v>73.820999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="1" t="s">
         <v>21</v>
@@ -5474,13 +5191,10 @@
         <v>2.3477999999999999</v>
       </c>
       <c r="D93" s="5">
-        <v>3.3267999999999999E-2</v>
-      </c>
-      <c r="E93" s="5">
         <v>3.5323E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
         <v>22</v>
@@ -5489,13 +5203,10 @@
         <v>274.64999999999998</v>
       </c>
       <c r="D94" s="5">
-        <v>3.2475000000000001</v>
-      </c>
-      <c r="E94" s="5">
         <v>3.6573000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
         <v>23</v>
@@ -5504,13 +5215,10 @@
         <v>66.293000000000006</v>
       </c>
       <c r="D95" s="5">
-        <v>2.1112000000000002</v>
-      </c>
-      <c r="E95" s="5">
         <v>2.1343999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
         <v>24</v>
@@ -5519,13 +5227,10 @@
         <v>7.5306000000000001E-3</v>
       </c>
       <c r="D96" s="5">
-        <v>2.7922E-4</v>
-      </c>
-      <c r="E96" s="5">
         <v>3.0407999999999998E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
         <v>26</v>
@@ -5534,13 +5239,10 @@
         <v>723.07</v>
       </c>
       <c r="D97" s="5">
-        <v>47.859000000000002</v>
-      </c>
-      <c r="E97" s="5">
         <v>34.328000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
         <v>27</v>
@@ -5549,13 +5251,10 @@
         <v>2.0891999999999999</v>
       </c>
       <c r="D98" s="5">
-        <v>3.0810000000000001E-2</v>
-      </c>
-      <c r="E98" s="5">
         <v>3.9537999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
         <v>28</v>
@@ -5564,13 +5263,10 @@
         <v>239.38</v>
       </c>
       <c r="D99" s="5">
-        <v>3.5411000000000001</v>
-      </c>
-      <c r="E99" s="5">
         <v>3.1137999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
         <v>29</v>
@@ -5579,13 +5275,10 @@
         <v>67.843000000000004</v>
       </c>
       <c r="D100" s="5">
-        <v>2.1581999999999999</v>
-      </c>
-      <c r="E100" s="5">
         <v>2.1728000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
         <v>30</v>
@@ -5594,13 +5287,10 @@
         <v>7.3788999999999999E-3</v>
       </c>
       <c r="D101" s="5">
-        <v>2.6499999999999999E-4</v>
-      </c>
-      <c r="E101" s="5">
         <v>3.0384999999999999E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
         <v>31</v>
@@ -5609,13 +5299,10 @@
         <v>629</v>
       </c>
       <c r="D102" s="5">
-        <v>5.4915000000000003</v>
-      </c>
-      <c r="E102" s="5">
         <v>9.4492999999999991</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
         <v>32</v>
@@ -5624,13 +5311,10 @@
         <v>2.1915</v>
       </c>
       <c r="D103" s="5">
-        <v>3.4282E-2</v>
-      </c>
-      <c r="E103" s="5">
         <v>3.5470000000000002E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
         <v>33</v>
@@ -5639,13 +5323,10 @@
         <v>249.88</v>
       </c>
       <c r="D104" s="5">
-        <v>3.7551999999999999</v>
-      </c>
-      <c r="E104" s="5">
         <v>3.3773</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
         <v>34</v>
@@ -5654,13 +5335,10 @@
         <v>68.010999999999996</v>
       </c>
       <c r="D105" s="5">
-        <v>2.1576</v>
-      </c>
-      <c r="E105" s="5">
         <v>2.2183000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
         <v>35</v>
@@ -5669,13 +5347,10 @@
         <v>7.3454999999999996E-3</v>
       </c>
       <c r="D106" s="5">
-        <v>2.7692999999999999E-4</v>
-      </c>
-      <c r="E106" s="5">
         <v>2.8599000000000002E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
         <v>37</v>
@@ -5684,13 +5359,10 @@
         <v>390.33</v>
       </c>
       <c r="D107" s="5">
-        <v>30.16</v>
-      </c>
-      <c r="E107" s="5">
         <v>38.968000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
         <v>38</v>
@@ -5699,13 +5371,10 @@
         <v>1.883</v>
       </c>
       <c r="D108" s="5">
-        <v>4.3449000000000002E-2</v>
-      </c>
-      <c r="E108" s="5">
         <v>4.3945999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="1" t="s">
         <v>39</v>
@@ -5714,13 +5383,10 @@
         <v>249.12</v>
       </c>
       <c r="D109" s="5">
-        <v>3.649</v>
-      </c>
-      <c r="E109" s="5">
         <v>3.2444999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="1" t="s">
         <v>40</v>
@@ -5729,13 +5395,10 @@
         <v>68.022999999999996</v>
       </c>
       <c r="D110" s="5">
-        <v>2.1674000000000002</v>
-      </c>
-      <c r="E110" s="5">
         <v>2.1425999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="1" t="s">
         <v>41</v>
@@ -5744,13 +5407,10 @@
         <v>7.6644E-3</v>
       </c>
       <c r="D111" s="5">
-        <v>2.9892999999999999E-4</v>
-      </c>
-      <c r="E111" s="5">
         <v>2.4895000000000001E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="1" t="s">
         <v>42</v>
@@ -5759,13 +5419,10 @@
         <v>388.21</v>
       </c>
       <c r="D112" s="5">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="E112" s="5">
         <v>14.395</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="1" t="s">
         <v>43</v>
@@ -5774,13 +5431,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="D113" s="5">
-        <v>4.2791999999999997E-2</v>
-      </c>
-      <c r="E113" s="5">
         <v>3.9044000000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="1" t="s">
         <v>44</v>
@@ -5789,13 +5443,10 @@
         <v>252.93</v>
       </c>
       <c r="D114" s="5">
-        <v>3.4218000000000002</v>
-      </c>
-      <c r="E114" s="5">
         <v>3.7143999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
         <v>45</v>
@@ -5804,13 +5455,10 @@
         <v>67.78</v>
       </c>
       <c r="D115" s="5">
-        <v>2.1097000000000001</v>
-      </c>
-      <c r="E115" s="5">
         <v>2.1139000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
         <v>46</v>
@@ -5819,13 +5467,10 @@
         <v>7.2383999999999999E-3</v>
       </c>
       <c r="D116" s="5">
-        <v>2.7380999999999998E-4</v>
-      </c>
-      <c r="E116" s="5">
         <v>2.9234999999999998E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
@@ -5836,13 +5481,10 @@
         <v>3.2620000000000003E-2</v>
       </c>
       <c r="D117" s="5">
-        <v>2.1243E-3</v>
-      </c>
-      <c r="E117" s="5">
         <v>2.4202999999999998E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
         <v>3</v>
@@ -5851,13 +5493,10 @@
         <v>1.8383E-2</v>
       </c>
       <c r="D118" s="5">
-        <v>4.4988E-4</v>
-      </c>
-      <c r="E118" s="5">
         <v>5.1121999999999995E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -5866,13 +5505,10 @@
         <v>0.18998000000000001</v>
       </c>
       <c r="D119" s="5">
-        <v>7.3638000000000002E-3</v>
-      </c>
-      <c r="E119" s="5">
         <v>7.8816000000000008E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
         <v>5</v>
@@ -5881,13 +5517,10 @@
         <v>4.9429000000000001E-2</v>
       </c>
       <c r="D120" s="5">
-        <v>1.7041000000000001E-3</v>
-      </c>
-      <c r="E120" s="5">
         <v>1.9962999999999999E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="1" t="s">
         <v>6</v>
@@ -5896,13 +5529,10 @@
         <v>5.0471000000000002E-2</v>
       </c>
       <c r="D121" s="5">
-        <v>1.6938000000000001E-3</v>
-      </c>
-      <c r="E121" s="5">
         <v>2.2133999999999999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
         <v>8</v>
@@ -5911,13 +5541,10 @@
         <v>7.3745000000000005E-2</v>
       </c>
       <c r="D122" s="5">
-        <v>1.6471999999999999E-3</v>
-      </c>
-      <c r="E122" s="5">
         <v>2.2642000000000001E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="1" t="s">
         <v>9</v>
@@ -5926,13 +5553,10 @@
         <v>4.0930000000000001E-2</v>
       </c>
       <c r="D123" s="5">
-        <v>1.9754E-3</v>
-      </c>
-      <c r="E123" s="5">
         <v>2.3326000000000002E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
@@ -5941,13 +5565,10 @@
         <v>1.6997999999999999E-2</v>
       </c>
       <c r="D124" s="5">
-        <v>4.3563E-4</v>
-      </c>
-      <c r="E124" s="5">
         <v>5.1431999999999997E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
@@ -5956,13 +5577,10 @@
         <v>0.19114</v>
       </c>
       <c r="D125" s="5">
-        <v>7.3793000000000001E-3</v>
-      </c>
-      <c r="E125" s="5">
         <v>7.5607000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="1" t="s">
         <v>12</v>
@@ -5971,13 +5589,10 @@
         <v>4.6786000000000001E-2</v>
       </c>
       <c r="D126" s="5">
-        <v>1.6401E-3</v>
-      </c>
-      <c r="E126" s="5">
         <v>1.8892E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="1" t="s">
         <v>15</v>
@@ -5986,13 +5601,10 @@
         <v>5.3115000000000002E-2</v>
       </c>
       <c r="D127" s="5">
-        <v>1.7202000000000001E-3</v>
-      </c>
-      <c r="E127" s="5">
         <v>2.0458E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
         <v>16</v>
@@ -6001,13 +5613,10 @@
         <v>7.0878999999999998E-2</v>
       </c>
       <c r="D128" s="5">
-        <v>1.6909E-3</v>
-      </c>
-      <c r="E128" s="5">
         <v>2.2407999999999998E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
         <v>17</v>
@@ -6016,13 +5625,10 @@
         <v>4.0129999999999999E-2</v>
       </c>
       <c r="D129" s="5">
-        <v>1.9788000000000002E-3</v>
-      </c>
-      <c r="E129" s="5">
         <v>2.2796000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
         <v>18</v>
@@ -6031,13 +5637,10 @@
         <v>1.8443999999999999E-2</v>
       </c>
       <c r="D130" s="5">
-        <v>4.1433000000000003E-4</v>
-      </c>
-      <c r="E130" s="5">
         <v>4.9109999999999996E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
         <v>19</v>
@@ -6046,13 +5649,10 @@
         <v>0.19288</v>
       </c>
       <c r="D131" s="5">
-        <v>7.3959999999999998E-3</v>
-      </c>
-      <c r="E131" s="5">
         <v>7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
         <v>20</v>
@@ -6061,13 +5661,10 @@
         <v>4.6852999999999999E-2</v>
       </c>
       <c r="D132" s="5">
-        <v>1.6289E-3</v>
-      </c>
-      <c r="E132" s="5">
         <v>1.9224999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
         <v>21</v>
@@ -6076,13 +5673,10 @@
         <v>4.9390000000000003E-2</v>
       </c>
       <c r="D133" s="5">
-        <v>1.6749E-3</v>
-      </c>
-      <c r="E133" s="5">
         <v>2.0741000000000002E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
         <v>22</v>
@@ -6091,13 +5685,10 @@
         <v>6.6607E-2</v>
       </c>
       <c r="D134" s="5">
-        <v>1.6974E-3</v>
-      </c>
-      <c r="E134" s="5">
         <v>2.2575999999999998E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
@@ -6106,13 +5697,10 @@
         <v>4.2450000000000002E-2</v>
       </c>
       <c r="D135" s="5">
-        <v>1.9521E-3</v>
-      </c>
-      <c r="E135" s="5">
         <v>2.3603999999999999E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
@@ -6121,13 +5709,10 @@
         <v>1.8022E-2</v>
       </c>
       <c r="D136" s="5">
-        <v>4.3228E-4</v>
-      </c>
-      <c r="E136" s="5">
         <v>5.3171000000000002E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
         <v>26</v>
@@ -6136,13 +5721,10 @@
         <v>0.18955</v>
       </c>
       <c r="D137" s="5">
-        <v>7.3087999999999998E-3</v>
-      </c>
-      <c r="E137" s="5">
         <v>7.5180999999999998E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="1" t="s">
         <v>27</v>
@@ -6151,13 +5733,10 @@
         <v>4.9082000000000001E-2</v>
       </c>
       <c r="D138" s="5">
-        <v>1.6151E-3</v>
-      </c>
-      <c r="E138" s="5">
         <v>1.8875999999999999E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
         <v>28</v>
@@ -6166,13 +5745,10 @@
         <v>5.0797000000000002E-2</v>
       </c>
       <c r="D139" s="5">
-        <v>1.6923000000000001E-3</v>
-      </c>
-      <c r="E139" s="5">
         <v>2.0642999999999998E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="1" t="s">
         <v>29</v>
@@ -6181,13 +5757,10 @@
         <v>6.8310999999999997E-2</v>
       </c>
       <c r="D140" s="5">
-        <v>1.6187E-3</v>
-      </c>
-      <c r="E140" s="5">
         <v>2.2612000000000001E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="1" t="s">
         <v>30</v>
@@ -6196,13 +5769,10 @@
         <v>4.1852E-2</v>
       </c>
       <c r="D141" s="5">
-        <v>1.9597E-3</v>
-      </c>
-      <c r="E141" s="5">
         <v>2.3221000000000001E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="1" t="s">
         <v>31</v>
@@ -6211,13 +5781,10 @@
         <v>1.9414000000000001E-2</v>
       </c>
       <c r="D142" s="5">
-        <v>4.3195000000000001E-4</v>
-      </c>
-      <c r="E142" s="5">
         <v>5.2990000000000003E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="1" t="s">
         <v>32</v>
@@ -6226,13 +5793,10 @@
         <v>0.18739</v>
       </c>
       <c r="D143" s="5">
-        <v>7.4117000000000002E-3</v>
-      </c>
-      <c r="E143" s="5">
         <v>7.5775E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="1" t="s">
         <v>33</v>
@@ -6241,13 +5805,10 @@
         <v>4.7945000000000002E-2</v>
       </c>
       <c r="D144" s="5">
-        <v>1.5989000000000001E-3</v>
-      </c>
-      <c r="E144" s="5">
         <v>1.8986000000000001E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="1" t="s">
         <v>34</v>
@@ -6256,13 +5817,10 @@
         <v>5.296E-2</v>
       </c>
       <c r="D145" s="5">
-        <v>1.8105E-3</v>
-      </c>
-      <c r="E145" s="5">
         <v>2.0660000000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="1" t="s">
         <v>35</v>
@@ -6271,13 +5829,10 @@
         <v>6.6410999999999998E-2</v>
       </c>
       <c r="D146" s="5">
-        <v>2.1285000000000002E-3</v>
-      </c>
-      <c r="E146" s="5">
         <v>2.1971E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="1" t="s">
         <v>37</v>
@@ -6286,13 +5841,10 @@
         <v>4.1683999999999999E-2</v>
       </c>
       <c r="D147" s="5">
-        <v>1.9895999999999998E-3</v>
-      </c>
-      <c r="E147" s="5">
         <v>2.3086999999999999E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="1" t="s">
         <v>38</v>
@@ -6301,13 +5853,10 @@
         <v>1.7357000000000001E-2</v>
       </c>
       <c r="D148" s="5">
-        <v>4.4105000000000001E-4</v>
-      </c>
-      <c r="E148" s="5">
         <v>4.9989999999999995E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
         <v>39</v>
@@ -6316,13 +5865,10 @@
         <v>0.18953</v>
       </c>
       <c r="D149" s="5">
-        <v>7.3578999999999997E-3</v>
-      </c>
-      <c r="E149" s="5">
         <v>7.5373999999999997E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="1" t="s">
         <v>40</v>
@@ -6331,13 +5877,10 @@
         <v>4.7649999999999998E-2</v>
       </c>
       <c r="D150" s="5">
-        <v>1.6232E-3</v>
-      </c>
-      <c r="E150" s="5">
         <v>1.8866E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="1" t="s">
         <v>41</v>
@@ -6346,13 +5889,10 @@
         <v>5.1322E-2</v>
       </c>
       <c r="D151" s="5">
-        <v>1.7053000000000001E-3</v>
-      </c>
-      <c r="E151" s="5">
         <v>2.0588E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="1" t="s">
         <v>42</v>
@@ -6361,13 +5901,10 @@
         <v>6.1946000000000001E-2</v>
       </c>
       <c r="D152" s="5">
-        <v>1.5956E-3</v>
-      </c>
-      <c r="E152" s="5">
         <v>2.2582000000000001E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="1" t="s">
         <v>43</v>
@@ -6376,13 +5913,10 @@
         <v>4.1181000000000002E-2</v>
       </c>
       <c r="D153" s="5">
-        <v>2.0338000000000001E-3</v>
-      </c>
-      <c r="E153" s="5">
         <v>2.3370000000000001E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="1" t="s">
         <v>44</v>
@@ -6391,13 +5925,10 @@
         <v>1.7471E-2</v>
       </c>
       <c r="D154" s="5">
-        <v>4.1141000000000002E-4</v>
-      </c>
-      <c r="E154" s="5">
         <v>4.8357000000000001E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="1" t="s">
         <v>45</v>
@@ -6406,13 +5937,10 @@
         <v>0.18828</v>
       </c>
       <c r="D155" s="5">
-        <v>7.2874999999999997E-3</v>
-      </c>
-      <c r="E155" s="5">
         <v>7.5144000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="1" t="s">
         <v>46</v>
@@ -6421,13 +5949,10 @@
         <v>4.7102999999999999E-2</v>
       </c>
       <c r="D156" s="5">
-        <v>1.6244E-3</v>
-      </c>
-      <c r="E156" s="5">
         <v>1.9154E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="1" t="s">
         <v>48</v>
@@ -6436,13 +5961,10 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D157" s="5">
-        <v>1.6838000000000001E-3</v>
-      </c>
-      <c r="E157" s="5">
         <v>2.0953E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="1" t="s">
         <v>49</v>
@@ -6451,13 +5973,10 @@
         <v>7.5468999999999994E-2</v>
       </c>
       <c r="D158" s="5">
-        <v>1.7428000000000001E-3</v>
-      </c>
-      <c r="E158" s="5">
         <v>2.2696000000000001E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="1" t="s">
         <v>50</v>
@@ -6466,13 +5985,10 @@
         <v>4.1556000000000003E-2</v>
       </c>
       <c r="D159" s="5">
-        <v>1.9908E-3</v>
-      </c>
-      <c r="E159" s="5">
         <v>2.3184E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="1" t="s">
         <v>51</v>
@@ -6481,13 +5997,10 @@
         <v>1.7441999999999999E-2</v>
       </c>
       <c r="D160" s="5">
-        <v>4.2864999999999998E-4</v>
-      </c>
-      <c r="E160" s="5">
         <v>4.9817000000000004E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="1" t="s">
         <v>52</v>
@@ -6496,13 +6009,10 @@
         <v>0.19338</v>
       </c>
       <c r="D161" s="5">
-        <v>7.4330000000000004E-3</v>
-      </c>
-      <c r="E161" s="5">
         <v>7.4814E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="1" t="s">
         <v>53</v>
@@ -6511,13 +6021,10 @@
         <v>4.7291E-2</v>
       </c>
       <c r="D162" s="5">
-        <v>1.6335E-3</v>
-      </c>
-      <c r="E162" s="5">
         <v>1.8799000000000001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="1" t="s">
         <v>54</v>
@@ -6526,13 +6033,10 @@
         <v>5.0283000000000001E-2</v>
       </c>
       <c r="D163" s="5">
-        <v>1.6907999999999999E-3</v>
-      </c>
-      <c r="E163" s="5">
         <v>2.0768000000000002E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="1" t="s">
         <v>55</v>
@@ -6541,13 +6045,10 @@
         <v>7.4936000000000003E-2</v>
       </c>
       <c r="D164" s="5">
-        <v>1.6976999999999999E-3</v>
-      </c>
-      <c r="E164" s="5">
         <v>2.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="1" t="s">
         <v>56</v>
@@ -6556,13 +6057,10 @@
         <v>4.1735000000000001E-2</v>
       </c>
       <c r="D165" s="5">
-        <v>1.9616E-3</v>
-      </c>
-      <c r="E165" s="5">
         <v>2.2989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="1" t="s">
         <v>57</v>
@@ -6571,13 +6069,10 @@
         <v>1.8006999999999999E-2</v>
       </c>
       <c r="D166" s="5">
-        <v>4.6456999999999998E-4</v>
-      </c>
-      <c r="E166" s="5">
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>58</v>
       </c>
@@ -6588,13 +6083,10 @@
         <v>1.6738999999999999</v>
       </c>
       <c r="D167" s="5">
-        <v>2.7563000000000002E-3</v>
-      </c>
-      <c r="E167" s="5">
         <v>2.8249999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -6603,13 +6095,10 @@
         <v>46.896000000000001</v>
       </c>
       <c r="D168" s="5">
-        <v>1.187E-2</v>
-      </c>
-      <c r="E168" s="5">
         <v>1.1899E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="1" t="s">
         <v>4</v>
@@ -6618,13 +6107,10 @@
         <v>4859.6000000000004</v>
       </c>
       <c r="D169" s="5">
-        <v>5.0118999999999997E-2</v>
-      </c>
-      <c r="E169" s="5">
         <v>9.8526000000000002E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="1" t="s">
         <v>5</v>
@@ -6633,13 +6119,10 @@
         <v>1.8245</v>
       </c>
       <c r="D170" s="5">
-        <v>1.0779E-2</v>
-      </c>
-      <c r="E170" s="5">
         <v>1.1514999999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="1" t="s">
         <v>6</v>
@@ -6648,13 +6131,10 @@
         <v>7.2503000000000002</v>
       </c>
       <c r="D171" s="5">
-        <v>0.12164</v>
-      </c>
-      <c r="E171" s="5">
         <v>7.8311000000000006E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="1" t="s">
         <v>8</v>
@@ -6663,13 +6143,10 @@
         <v>0.89175000000000004</v>
       </c>
       <c r="D172" s="5">
-        <v>5.2798000000000003E-3</v>
-      </c>
-      <c r="E172" s="5">
         <v>4.7356000000000004E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="1" t="s">
         <v>9</v>
@@ -6678,13 +6155,10 @@
         <v>5.4798999999999998</v>
       </c>
       <c r="D173" s="5">
-        <v>7.4045999999999999E-3</v>
-      </c>
-      <c r="E173" s="5">
         <v>7.7476999999999997E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="1" t="s">
         <v>10</v>
@@ -6693,13 +6167,10 @@
         <v>0.21826999999999999</v>
       </c>
       <c r="D174" s="5">
-        <v>1.7210999999999999E-3</v>
-      </c>
-      <c r="E174" s="5">
         <v>1.5345999999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="1" t="s">
         <v>11</v>
@@ -6708,13 +6179,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D175" s="5">
-        <v>6.6666E-3</v>
-      </c>
-      <c r="E175" s="5">
         <v>6.8179E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
         <v>12</v>
@@ -6723,13 +6191,10 @@
         <v>0.15507000000000001</v>
       </c>
       <c r="D176" s="5">
-        <v>2.2046000000000001E-3</v>
-      </c>
-      <c r="E176" s="5">
         <v>2.1738999999999999E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="1" t="s">
         <v>15</v>
@@ -6738,13 +6203,10 @@
         <v>46.423999999999999</v>
       </c>
       <c r="D177" s="5">
-        <v>9.0383000000000008E-3</v>
-      </c>
-      <c r="E177" s="5">
         <v>9.2875000000000006E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="1" t="s">
         <v>16</v>
@@ -6753,13 +6215,10 @@
         <v>0.78342999999999996</v>
       </c>
       <c r="D178" s="5">
-        <v>5.0267000000000003E-3</v>
-      </c>
-      <c r="E178" s="5">
         <v>5.9087999999999996E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="1" t="s">
         <v>17</v>
@@ -6768,13 +6227,10 @@
         <v>2.7261000000000002</v>
       </c>
       <c r="D179" s="5">
-        <v>3.1493E-2</v>
-      </c>
-      <c r="E179" s="5">
         <v>2.3497000000000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="1" t="s">
         <v>18</v>
@@ -6783,13 +6239,10 @@
         <v>0.89412000000000003</v>
       </c>
       <c r="D180" s="5">
-        <v>4.5645E-3</v>
-      </c>
-      <c r="E180" s="5">
         <v>5.4282999999999996E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="1" t="s">
         <v>19</v>
@@ -6798,13 +6251,10 @@
         <v>0.34087000000000001</v>
       </c>
       <c r="D181" s="5">
-        <v>3.2648999999999998E-3</v>
-      </c>
-      <c r="E181" s="5">
         <v>3.2127000000000002E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="1" t="s">
         <v>20</v>
@@ -6813,13 +6263,10 @@
         <v>90.575000000000003</v>
       </c>
       <c r="D182" s="5">
-        <v>1.9241999999999999E-2</v>
-      </c>
-      <c r="E182" s="5">
         <v>1.0253E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="1" t="s">
         <v>21</v>
@@ -6828,13 +6275,10 @@
         <v>5677.2</v>
       </c>
       <c r="D183" s="5">
-        <v>0.12321</v>
-      </c>
-      <c r="E183" s="5">
         <v>0.32432</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="1" t="s">
         <v>22</v>
@@ -6843,13 +6287,10 @@
         <v>2.3828999999999998</v>
       </c>
       <c r="D184" s="5">
-        <v>9.0422999999999996E-3</v>
-      </c>
-      <c r="E184" s="5">
         <v>9.2394999999999994E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="1" t="s">
         <v>23</v>
@@ -6858,13 +6299,10 @@
         <v>7.3966000000000003</v>
       </c>
       <c r="D185" s="5">
-        <v>7.9494999999999996E-2</v>
-      </c>
-      <c r="E185" s="5">
         <v>0.11075</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
         <v>24</v>
@@ -6873,13 +6311,10 @@
         <v>0.90759999999999996</v>
       </c>
       <c r="D186" s="5">
-        <v>5.3036000000000003E-3</v>
-      </c>
-      <c r="E186" s="5">
         <v>4.5018999999999997E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="1" t="s">
         <v>26</v>
@@ -6888,13 +6323,10 @@
         <v>5.4592000000000001</v>
       </c>
       <c r="D187" s="5">
-        <v>7.9132999999999998E-3</v>
-      </c>
-      <c r="E187" s="5">
         <v>6.8710999999999998E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="1" t="s">
         <v>27</v>
@@ -6903,13 +6335,10 @@
         <v>0.21154999999999999</v>
       </c>
       <c r="D188" s="5">
-        <v>1.5161E-3</v>
-      </c>
-      <c r="E188" s="5">
         <v>1.3261E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="1" t="s">
         <v>28</v>
@@ -6918,13 +6347,10 @@
         <v>5.5038999999999998</v>
       </c>
       <c r="D189" s="5">
-        <v>6.8234000000000003E-3</v>
-      </c>
-      <c r="E189" s="5">
         <v>6.5447999999999999E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="1" t="s">
         <v>29</v>
@@ -6933,13 +6359,10 @@
         <v>0.14224999999999999</v>
       </c>
       <c r="D190" s="5">
-        <v>2.4933999999999998E-3</v>
-      </c>
-      <c r="E190" s="5">
         <v>2.4699000000000001E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="1" t="s">
         <v>30</v>
@@ -6948,13 +6371,10 @@
         <v>124.54</v>
       </c>
       <c r="D191" s="5">
-        <v>9.9951999999999992E-3</v>
-      </c>
-      <c r="E191" s="5">
         <v>9.1546000000000006E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="1" t="s">
         <v>31</v>
@@ -6963,13 +6383,10 @@
         <v>0.77248000000000006</v>
       </c>
       <c r="D192" s="5">
-        <v>4.6503999999999998E-3</v>
-      </c>
-      <c r="E192" s="5">
         <v>5.1339000000000003E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="1" t="s">
         <v>32</v>
@@ -6978,13 +6395,10 @@
         <v>2.8168000000000002</v>
       </c>
       <c r="D193" s="5">
-        <v>3.5331000000000001E-2</v>
-      </c>
-      <c r="E193" s="5">
         <v>3.2953999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="1" t="s">
         <v>33</v>
@@ -6993,9 +6407,6 @@
         <v>0.85562000000000005</v>
       </c>
       <c r="D194" s="5">
-        <v>5.8969000000000001E-3</v>
-      </c>
-      <c r="E194" s="5">
         <v>4.4870999999999999E-3</v>
       </c>
     </row>
@@ -7043,7 +6454,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B2">
@@ -7063,7 +6474,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="13"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -7081,7 +6492,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -7099,7 +6510,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="13"/>
       <c r="B5">
         <v>4</v>
       </c>
@@ -7117,7 +6528,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -7135,7 +6546,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -7153,7 +6564,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>7</v>
       </c>
@@ -7171,7 +6582,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>8</v>
       </c>
@@ -7189,7 +6600,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="13"/>
       <c r="B10">
         <v>9</v>
       </c>
@@ -7207,7 +6618,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="13"/>
       <c r="B11">
         <v>10</v>
       </c>
@@ -7225,7 +6636,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="13"/>
       <c r="B12">
         <v>11</v>
       </c>
@@ -7243,7 +6654,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="13"/>
       <c r="B13">
         <v>12</v>
       </c>
@@ -7261,7 +6672,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="13"/>
       <c r="B14">
         <v>13</v>
       </c>
@@ -7279,7 +6690,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="13"/>
       <c r="B15">
         <v>14</v>
       </c>
@@ -7297,7 +6708,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="13"/>
       <c r="B16">
         <v>15</v>
       </c>
@@ -7315,7 +6726,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="13"/>
       <c r="B17">
         <v>16</v>
       </c>
@@ -7333,7 +6744,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="13"/>
       <c r="B18">
         <v>17</v>
       </c>
@@ -7351,7 +6762,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="13"/>
       <c r="B19">
         <v>18</v>
       </c>
@@ -7369,7 +6780,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="13"/>
       <c r="B20">
         <v>19</v>
       </c>
@@ -7387,7 +6798,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="13"/>
       <c r="B21">
         <v>20</v>
       </c>
@@ -7405,7 +6816,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="13"/>
       <c r="B22">
         <v>21</v>
       </c>
@@ -7423,7 +6834,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="13"/>
       <c r="B23">
         <v>22</v>
       </c>
@@ -7441,7 +6852,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="13"/>
       <c r="B24">
         <v>23</v>
       </c>
@@ -7459,7 +6870,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="13"/>
       <c r="B25">
         <v>24</v>
       </c>
@@ -7477,7 +6888,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="13"/>
       <c r="B26">
         <v>25</v>
       </c>
@@ -7495,7 +6906,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="13"/>
       <c r="B27">
         <v>26</v>
       </c>
@@ -7513,7 +6924,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="13"/>
       <c r="B28">
         <v>27</v>
       </c>
@@ -7531,7 +6942,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="13"/>
       <c r="B29">
         <v>28</v>
       </c>
@@ -7549,7 +6960,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="13"/>
       <c r="B30">
         <v>29</v>
       </c>
@@ -7567,7 +6978,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="13"/>
       <c r="B31">
         <v>30</v>
       </c>
@@ -7585,7 +6996,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="13"/>
       <c r="B32">
         <v>31</v>
       </c>
@@ -7603,7 +7014,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="13"/>
       <c r="B33">
         <v>32</v>
       </c>
@@ -7621,7 +7032,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="13"/>
       <c r="B34">
         <v>33</v>
       </c>
@@ -7639,7 +7050,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="13"/>
       <c r="B35">
         <v>34</v>
       </c>
@@ -7657,7 +7068,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="13"/>
       <c r="B36">
         <v>35</v>
       </c>
@@ -7675,7 +7086,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="13"/>
       <c r="B37">
         <v>36</v>
       </c>
@@ -7693,7 +7104,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="13"/>
       <c r="B38">
         <v>37</v>
       </c>
@@ -7711,7 +7122,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="13"/>
       <c r="B39">
         <v>38</v>
       </c>
@@ -7729,7 +7140,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="13"/>
       <c r="B40">
         <v>39</v>
       </c>
@@ -7747,7 +7158,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="13"/>
       <c r="B41">
         <v>40</v>
       </c>
@@ -7765,7 +7176,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="13"/>
       <c r="B42">
         <v>41</v>
       </c>
@@ -7783,7 +7194,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="13"/>
       <c r="B43">
         <v>42</v>
       </c>
@@ -7801,7 +7212,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="13"/>
       <c r="B44">
         <v>43</v>
       </c>
@@ -7819,7 +7230,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="13"/>
       <c r="B45">
         <v>44</v>
       </c>
@@ -7837,7 +7248,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="13"/>
       <c r="B46">
         <v>45</v>
       </c>
@@ -7855,7 +7266,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="13"/>
       <c r="B47">
         <v>46</v>
       </c>
@@ -7873,7 +7284,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="13"/>
       <c r="B48">
         <v>47</v>
       </c>
@@ -7891,7 +7302,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="13"/>
       <c r="B49">
         <v>48</v>
       </c>
@@ -7909,7 +7320,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="13"/>
       <c r="B50">
         <v>49</v>
       </c>
@@ -7927,7 +7338,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="13"/>
       <c r="B51">
         <v>50</v>
       </c>
@@ -7945,7 +7356,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B52">
@@ -7965,7 +7376,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="13"/>
       <c r="B53">
         <v>2</v>
       </c>
@@ -7983,7 +7394,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="13"/>
       <c r="B54">
         <v>3</v>
       </c>
@@ -8001,7 +7412,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="13"/>
       <c r="B55">
         <v>4</v>
       </c>
@@ -8019,7 +7430,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="13"/>
       <c r="B56">
         <v>5</v>
       </c>
@@ -8037,7 +7448,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="13"/>
       <c r="B57">
         <v>6</v>
       </c>
@@ -8055,7 +7466,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="A58" s="13"/>
       <c r="B58">
         <v>7</v>
       </c>
@@ -8073,7 +7484,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="13"/>
       <c r="B59">
         <v>8</v>
       </c>
@@ -8091,7 +7502,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="13"/>
       <c r="B60">
         <v>9</v>
       </c>
@@ -8109,7 +7520,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="13"/>
       <c r="B61">
         <v>10</v>
       </c>
@@ -8127,7 +7538,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="13"/>
       <c r="B62">
         <v>11</v>
       </c>
@@ -8145,7 +7556,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="13"/>
       <c r="B63">
         <v>12</v>
       </c>
@@ -8163,7 +7574,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="13"/>
       <c r="B64">
         <v>13</v>
       </c>
@@ -8181,7 +7592,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="13"/>
       <c r="B65">
         <v>14</v>
       </c>
@@ -8199,7 +7610,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="13"/>
       <c r="B66">
         <v>15</v>
       </c>
@@ -8217,7 +7628,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="13"/>
       <c r="B67">
         <v>16</v>
       </c>
@@ -8235,7 +7646,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="13"/>
       <c r="B68">
         <v>17</v>
       </c>
@@ -8253,7 +7664,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="13"/>
       <c r="B69">
         <v>18</v>
       </c>
@@ -8271,7 +7682,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="13"/>
       <c r="B70">
         <v>19</v>
       </c>
@@ -8289,7 +7700,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="13"/>
       <c r="B71">
         <v>20</v>
       </c>
@@ -8307,7 +7718,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="13"/>
       <c r="B72">
         <v>21</v>
       </c>
@@ -8325,7 +7736,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="13"/>
       <c r="B73">
         <v>22</v>
       </c>
@@ -8343,7 +7754,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="13"/>
       <c r="B74">
         <v>23</v>
       </c>
@@ -8361,7 +7772,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="13"/>
       <c r="B75">
         <v>24</v>
       </c>
@@ -8379,7 +7790,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="13"/>
       <c r="B76">
         <v>25</v>
       </c>
@@ -8397,7 +7808,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="13"/>
       <c r="B77">
         <v>26</v>
       </c>
@@ -8415,7 +7826,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="13"/>
       <c r="B78">
         <v>27</v>
       </c>
@@ -8433,7 +7844,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="13"/>
       <c r="B79">
         <v>28</v>
       </c>
@@ -8451,7 +7862,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="13"/>
       <c r="B80">
         <v>29</v>
       </c>
@@ -8469,7 +7880,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="13"/>
       <c r="B81">
         <v>30</v>
       </c>
@@ -8487,7 +7898,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="13"/>
       <c r="B82">
         <v>31</v>
       </c>
@@ -8505,7 +7916,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="13"/>
       <c r="B83">
         <v>32</v>
       </c>
@@ -8523,7 +7934,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="13"/>
       <c r="B84">
         <v>33</v>
       </c>
@@ -8541,7 +7952,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="13"/>
       <c r="B85">
         <v>34</v>
       </c>
@@ -8559,7 +7970,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="A86" s="13"/>
       <c r="B86">
         <v>35</v>
       </c>
@@ -8577,7 +7988,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="13"/>
       <c r="B87">
         <v>36</v>
       </c>
@@ -8595,7 +8006,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="13"/>
       <c r="B88">
         <v>37</v>
       </c>
@@ -8613,7 +8024,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+      <c r="A89" s="13"/>
       <c r="B89">
         <v>38</v>
       </c>
@@ -8631,7 +8042,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="13"/>
       <c r="B90">
         <v>39</v>
       </c>
@@ -8649,7 +8060,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="A91" s="13"/>
       <c r="B91">
         <v>40</v>
       </c>
@@ -8667,7 +8078,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="A92" s="13"/>
       <c r="B92">
         <v>41</v>
       </c>
@@ -8685,7 +8096,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
+      <c r="A93" s="13"/>
       <c r="B93">
         <v>42</v>
       </c>
@@ -8703,7 +8114,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+      <c r="A94" s="13"/>
       <c r="B94">
         <v>43</v>
       </c>
@@ -8721,7 +8132,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="A95" s="13"/>
       <c r="B95">
         <v>44</v>
       </c>
@@ -8739,7 +8150,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="13"/>
       <c r="B96">
         <v>45</v>
       </c>
@@ -8757,7 +8168,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="A97" s="13"/>
       <c r="B97">
         <v>46</v>
       </c>
@@ -8775,7 +8186,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="A98" s="13"/>
       <c r="B98">
         <v>47</v>
       </c>
@@ -8793,7 +8204,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="A99" s="13"/>
       <c r="B99">
         <v>48</v>
       </c>
@@ -8811,7 +8222,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
+      <c r="A100" s="13"/>
       <c r="B100">
         <v>49</v>
       </c>
@@ -8829,7 +8240,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="13"/>
       <c r="B101">
         <v>50</v>
       </c>
@@ -8847,7 +8258,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B102">
@@ -8867,7 +8278,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="13"/>
       <c r="B103">
         <v>2</v>
       </c>
@@ -8885,7 +8296,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="13"/>
       <c r="B104">
         <v>3</v>
       </c>
@@ -8903,7 +8314,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="13"/>
       <c r="B105">
         <v>4</v>
       </c>
@@ -8921,7 +8332,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="13"/>
       <c r="B106">
         <v>5</v>
       </c>
@@ -8939,7 +8350,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="13"/>
       <c r="B107">
         <v>6</v>
       </c>
@@ -8957,7 +8368,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="A108" s="13"/>
       <c r="B108">
         <v>7</v>
       </c>
@@ -8975,7 +8386,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="13"/>
       <c r="B109">
         <v>8</v>
       </c>
@@ -8993,7 +8404,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
+      <c r="A110" s="13"/>
       <c r="B110">
         <v>9</v>
       </c>
@@ -9011,7 +8422,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+      <c r="A111" s="13"/>
       <c r="B111">
         <v>10</v>
       </c>
@@ -9029,7 +8440,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="13"/>
       <c r="B112">
         <v>11</v>
       </c>
@@ -9047,7 +8458,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="A113" s="13"/>
       <c r="B113">
         <v>12</v>
       </c>
@@ -9065,7 +8476,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="A114" s="13"/>
       <c r="B114">
         <v>13</v>
       </c>
@@ -9083,7 +8494,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="13"/>
       <c r="B115">
         <v>14</v>
       </c>
@@ -9101,7 +8512,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="A116" s="13"/>
       <c r="B116">
         <v>15</v>
       </c>
@@ -9119,7 +8530,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="13"/>
       <c r="B117">
         <v>16</v>
       </c>
@@ -9137,7 +8548,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="13"/>
       <c r="B118">
         <v>17</v>
       </c>
@@ -9155,7 +8566,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="A119" s="13"/>
       <c r="B119">
         <v>18</v>
       </c>
@@ -9173,7 +8584,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="A120" s="13"/>
       <c r="B120">
         <v>19</v>
       </c>
@@ -9191,7 +8602,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
+      <c r="A121" s="13"/>
       <c r="B121">
         <v>20</v>
       </c>
@@ -9209,7 +8620,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="A122" s="13"/>
       <c r="B122">
         <v>21</v>
       </c>
@@ -9227,7 +8638,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
+      <c r="A123" s="13"/>
       <c r="B123">
         <v>22</v>
       </c>
@@ -9245,7 +8656,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
+      <c r="A124" s="13"/>
       <c r="B124">
         <v>23</v>
       </c>
@@ -9263,7 +8674,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
+      <c r="A125" s="13"/>
       <c r="B125">
         <v>24</v>
       </c>
@@ -9281,7 +8692,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
+      <c r="A126" s="13"/>
       <c r="B126">
         <v>25</v>
       </c>
@@ -9299,7 +8710,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
+      <c r="A127" s="13"/>
       <c r="B127">
         <v>26</v>
       </c>
@@ -9317,7 +8728,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
+      <c r="A128" s="13"/>
       <c r="B128">
         <v>27</v>
       </c>
@@ -9335,7 +8746,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
+      <c r="A129" s="13"/>
       <c r="B129">
         <v>28</v>
       </c>
@@ -9353,7 +8764,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
+      <c r="A130" s="13"/>
       <c r="B130">
         <v>29</v>
       </c>
@@ -9371,7 +8782,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
+      <c r="A131" s="13"/>
       <c r="B131">
         <v>30</v>
       </c>
@@ -9389,7 +8800,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
+      <c r="A132" s="13"/>
       <c r="B132">
         <v>31</v>
       </c>
@@ -9407,7 +8818,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
+      <c r="A133" s="13"/>
       <c r="B133">
         <v>32</v>
       </c>
@@ -9425,7 +8836,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
+      <c r="A134" s="13"/>
       <c r="B134">
         <v>33</v>
       </c>
@@ -9443,7 +8854,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
+      <c r="A135" s="13"/>
       <c r="B135">
         <v>34</v>
       </c>
@@ -9461,7 +8872,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
+      <c r="A136" s="13"/>
       <c r="B136">
         <v>35</v>
       </c>
@@ -9479,7 +8890,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
+      <c r="A137" s="13"/>
       <c r="B137">
         <v>36</v>
       </c>
@@ -9497,7 +8908,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="13"/>
       <c r="B138">
         <v>37</v>
       </c>
@@ -9515,7 +8926,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
+      <c r="A139" s="13"/>
       <c r="B139">
         <v>38</v>
       </c>
@@ -9533,7 +8944,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
+      <c r="A140" s="13"/>
       <c r="B140">
         <v>39</v>
       </c>
@@ -9551,7 +8962,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
+      <c r="A141" s="13"/>
       <c r="B141">
         <v>40</v>
       </c>
@@ -9569,7 +8980,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
+      <c r="A142" s="13"/>
       <c r="B142">
         <v>41</v>
       </c>
@@ -9587,7 +8998,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
+      <c r="A143" s="13"/>
       <c r="B143">
         <v>42</v>
       </c>
@@ -9605,7 +9016,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
+      <c r="A144" s="13"/>
       <c r="B144">
         <v>43</v>
       </c>
@@ -9623,7 +9034,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
+      <c r="A145" s="13"/>
       <c r="B145">
         <v>44</v>
       </c>
@@ -9641,7 +9052,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
+      <c r="A146" s="13"/>
       <c r="B146">
         <v>45</v>
       </c>
@@ -9659,7 +9070,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
+      <c r="A147" s="13"/>
       <c r="B147">
         <v>46</v>
       </c>
@@ -9677,7 +9088,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
+      <c r="A148" s="13"/>
       <c r="B148">
         <v>47</v>
       </c>
@@ -9695,7 +9106,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
+      <c r="A149" s="13"/>
       <c r="B149">
         <v>48</v>
       </c>
@@ -9713,7 +9124,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
+      <c r="A150" s="13"/>
       <c r="B150">
         <v>49</v>
       </c>
@@ -9731,7 +9142,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
+      <c r="A151" s="13"/>
       <c r="B151">
         <v>50</v>
       </c>
@@ -9749,7 +9160,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B152">
@@ -9769,7 +9180,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
+      <c r="A153" s="13"/>
       <c r="B153">
         <v>2</v>
       </c>
@@ -9787,7 +9198,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="7"/>
+      <c r="A154" s="13"/>
       <c r="B154">
         <v>3</v>
       </c>
@@ -9805,7 +9216,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
+      <c r="A155" s="13"/>
       <c r="B155">
         <v>4</v>
       </c>
@@ -9823,7 +9234,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
+      <c r="A156" s="13"/>
       <c r="B156">
         <v>5</v>
       </c>
@@ -9841,7 +9252,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
+      <c r="A157" s="13"/>
       <c r="B157">
         <v>6</v>
       </c>
@@ -9859,7 +9270,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
+      <c r="A158" s="13"/>
       <c r="B158">
         <v>7</v>
       </c>
@@ -9877,7 +9288,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
+      <c r="A159" s="13"/>
       <c r="B159">
         <v>8</v>
       </c>
@@ -9895,7 +9306,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
+      <c r="A160" s="13"/>
       <c r="B160">
         <v>9</v>
       </c>
@@ -9913,7 +9324,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
+      <c r="A161" s="13"/>
       <c r="B161">
         <v>10</v>
       </c>
@@ -9931,7 +9342,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
+      <c r="A162" s="13"/>
       <c r="B162">
         <v>11</v>
       </c>
@@ -9949,7 +9360,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
+      <c r="A163" s="13"/>
       <c r="B163">
         <v>12</v>
       </c>
@@ -9967,7 +9378,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
+      <c r="A164" s="13"/>
       <c r="B164">
         <v>13</v>
       </c>
@@ -9985,7 +9396,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
+      <c r="A165" s="13"/>
       <c r="B165">
         <v>14</v>
       </c>
@@ -10003,7 +9414,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
+      <c r="A166" s="13"/>
       <c r="B166">
         <v>15</v>
       </c>
@@ -10021,7 +9432,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="7"/>
+      <c r="A167" s="13"/>
       <c r="B167">
         <v>16</v>
       </c>
@@ -10039,7 +9450,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
+      <c r="A168" s="13"/>
       <c r="B168">
         <v>17</v>
       </c>
@@ -10057,7 +9468,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
+      <c r="A169" s="13"/>
       <c r="B169">
         <v>18</v>
       </c>
@@ -10075,7 +9486,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
+      <c r="A170" s="13"/>
       <c r="B170">
         <v>19</v>
       </c>
@@ -10093,7 +9504,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
+      <c r="A171" s="13"/>
       <c r="B171">
         <v>20</v>
       </c>
@@ -10111,7 +9522,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
+      <c r="A172" s="13"/>
       <c r="B172">
         <v>21</v>
       </c>
@@ -10129,7 +9540,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
+      <c r="A173" s="13"/>
       <c r="B173">
         <v>22</v>
       </c>
@@ -10147,7 +9558,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
+      <c r="A174" s="13"/>
       <c r="B174">
         <v>23</v>
       </c>
@@ -10165,7 +9576,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
+      <c r="A175" s="13"/>
       <c r="B175">
         <v>24</v>
       </c>
@@ -10183,7 +9594,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
+      <c r="A176" s="13"/>
       <c r="B176">
         <v>25</v>
       </c>
@@ -10201,7 +9612,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
+      <c r="A177" s="13"/>
       <c r="B177">
         <v>26</v>
       </c>
@@ -10219,7 +9630,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
+      <c r="A178" s="13"/>
       <c r="B178">
         <v>27</v>
       </c>
@@ -10237,7 +9648,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
+      <c r="A179" s="13"/>
       <c r="B179">
         <v>28</v>
       </c>
@@ -10255,7 +9666,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
+      <c r="A180" s="13"/>
       <c r="B180">
         <v>29</v>
       </c>
@@ -10273,7 +9684,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
+      <c r="A181" s="13"/>
       <c r="B181">
         <v>30</v>
       </c>
@@ -10291,7 +9702,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
+      <c r="A182" s="13"/>
       <c r="B182">
         <v>31</v>
       </c>
@@ -10309,7 +9720,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="7"/>
+      <c r="A183" s="13"/>
       <c r="B183">
         <v>32</v>
       </c>
@@ -10327,7 +9738,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
+      <c r="A184" s="13"/>
       <c r="B184">
         <v>33</v>
       </c>
@@ -10345,7 +9756,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
+      <c r="A185" s="13"/>
       <c r="B185">
         <v>34</v>
       </c>
@@ -10363,7 +9774,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
+      <c r="A186" s="13"/>
       <c r="B186">
         <v>35</v>
       </c>
@@ -10381,7 +9792,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
+      <c r="A187" s="13"/>
       <c r="B187">
         <v>36</v>
       </c>
@@ -10399,7 +9810,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
+      <c r="A188" s="13"/>
       <c r="B188">
         <v>37</v>
       </c>
@@ -10417,7 +9828,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
+      <c r="A189" s="13"/>
       <c r="B189">
         <v>38</v>
       </c>
@@ -10435,7 +9846,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
+      <c r="A190" s="13"/>
       <c r="B190">
         <v>39</v>
       </c>
@@ -10453,7 +9864,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
+      <c r="A191" s="13"/>
       <c r="B191">
         <v>40</v>
       </c>
@@ -10471,7 +9882,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="7"/>
+      <c r="A192" s="13"/>
       <c r="B192">
         <v>41</v>
       </c>
@@ -10489,7 +9900,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
+      <c r="A193" s="13"/>
       <c r="B193">
         <v>42</v>
       </c>
@@ -10507,7 +9918,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
+      <c r="A194" s="13"/>
       <c r="B194">
         <v>43</v>
       </c>
@@ -10525,7 +9936,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
+      <c r="A195" s="13"/>
       <c r="B195">
         <v>44</v>
       </c>
@@ -10543,7 +9954,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
+      <c r="A196" s="13"/>
       <c r="B196">
         <v>45</v>
       </c>
@@ -10561,7 +9972,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
+      <c r="A197" s="13"/>
       <c r="B197">
         <v>46</v>
       </c>
@@ -10579,7 +9990,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="7"/>
+      <c r="A198" s="13"/>
       <c r="B198">
         <v>47</v>
       </c>
@@ -10597,7 +10008,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="7"/>
+      <c r="A199" s="13"/>
       <c r="B199">
         <v>48</v>
       </c>
@@ -10615,7 +10026,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="7"/>
+      <c r="A200" s="13"/>
       <c r="B200">
         <v>49</v>
       </c>
@@ -10633,7 +10044,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="7"/>
+      <c r="A201" s="13"/>
       <c r="B201">
         <v>50</v>
       </c>
@@ -10651,7 +10062,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B202">
@@ -10671,7 +10082,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
+      <c r="A203" s="13"/>
       <c r="B203">
         <v>2</v>
       </c>
@@ -10689,7 +10100,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="7"/>
+      <c r="A204" s="13"/>
       <c r="B204">
         <v>3</v>
       </c>
@@ -10707,7 +10118,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="7"/>
+      <c r="A205" s="13"/>
       <c r="B205">
         <v>4</v>
       </c>
@@ -10725,7 +10136,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="7"/>
+      <c r="A206" s="13"/>
       <c r="B206">
         <v>5</v>
       </c>
@@ -10743,7 +10154,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
+      <c r="A207" s="13"/>
       <c r="B207">
         <v>6</v>
       </c>
@@ -10761,7 +10172,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="7"/>
+      <c r="A208" s="13"/>
       <c r="B208">
         <v>7</v>
       </c>
@@ -10779,7 +10190,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="7"/>
+      <c r="A209" s="13"/>
       <c r="B209">
         <v>8</v>
       </c>
@@ -10797,7 +10208,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="7"/>
+      <c r="A210" s="13"/>
       <c r="B210">
         <v>9</v>
       </c>
@@ -10815,7 +10226,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
+      <c r="A211" s="13"/>
       <c r="B211">
         <v>10</v>
       </c>
@@ -10833,7 +10244,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
+      <c r="A212" s="13"/>
       <c r="B212">
         <v>11</v>
       </c>
@@ -10851,7 +10262,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="7"/>
+      <c r="A213" s="13"/>
       <c r="B213">
         <v>12</v>
       </c>
@@ -10869,7 +10280,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="7"/>
+      <c r="A214" s="13"/>
       <c r="B214">
         <v>13</v>
       </c>
@@ -10887,7 +10298,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="7"/>
+      <c r="A215" s="13"/>
       <c r="B215">
         <v>14</v>
       </c>
@@ -10905,7 +10316,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="7"/>
+      <c r="A216" s="13"/>
       <c r="B216">
         <v>15</v>
       </c>
@@ -10923,7 +10334,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="7"/>
+      <c r="A217" s="13"/>
       <c r="B217">
         <v>16</v>
       </c>
@@ -10941,7 +10352,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="7"/>
+      <c r="A218" s="13"/>
       <c r="B218">
         <v>17</v>
       </c>
@@ -10959,7 +10370,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="7"/>
+      <c r="A219" s="13"/>
       <c r="B219">
         <v>18</v>
       </c>
@@ -10977,7 +10388,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="7"/>
+      <c r="A220" s="13"/>
       <c r="B220">
         <v>19</v>
       </c>
@@ -10995,7 +10406,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="7"/>
+      <c r="A221" s="13"/>
       <c r="B221">
         <v>20</v>
       </c>
@@ -11013,7 +10424,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="7"/>
+      <c r="A222" s="13"/>
       <c r="B222">
         <v>21</v>
       </c>
@@ -11031,7 +10442,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
+      <c r="A223" s="13"/>
       <c r="B223">
         <v>22</v>
       </c>
@@ -11049,7 +10460,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
+      <c r="A224" s="13"/>
       <c r="B224">
         <v>23</v>
       </c>
@@ -11067,7 +10478,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="7"/>
+      <c r="A225" s="13"/>
       <c r="B225">
         <v>24</v>
       </c>
@@ -11085,7 +10496,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="7"/>
+      <c r="A226" s="13"/>
       <c r="B226">
         <v>25</v>
       </c>
@@ -11103,7 +10514,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="7"/>
+      <c r="A227" s="13"/>
       <c r="B227">
         <v>26</v>
       </c>
@@ -11121,7 +10532,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
+      <c r="A228" s="13"/>
       <c r="B228">
         <v>27</v>
       </c>
@@ -11139,7 +10550,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="7"/>
+      <c r="A229" s="13"/>
       <c r="B229">
         <v>28</v>
       </c>
@@ -11157,7 +10568,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="7"/>
+      <c r="A230" s="13"/>
       <c r="B230">
         <v>29</v>
       </c>
@@ -11175,7 +10586,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="7"/>
+      <c r="A231" s="13"/>
       <c r="B231">
         <v>30</v>
       </c>
@@ -11193,7 +10604,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="7"/>
+      <c r="A232" s="13"/>
       <c r="B232">
         <v>31</v>
       </c>
@@ -11211,7 +10622,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
+      <c r="A233" s="13"/>
       <c r="B233">
         <v>32</v>
       </c>
@@ -11229,7 +10640,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="7"/>
+      <c r="A234" s="13"/>
       <c r="B234">
         <v>33</v>
       </c>
@@ -11247,7 +10658,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="7"/>
+      <c r="A235" s="13"/>
       <c r="B235">
         <v>34</v>
       </c>
@@ -11265,7 +10676,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
+      <c r="A236" s="13"/>
       <c r="B236">
         <v>35</v>
       </c>
@@ -11283,7 +10694,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="7"/>
+      <c r="A237" s="13"/>
       <c r="B237">
         <v>36</v>
       </c>
@@ -11301,7 +10712,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="7"/>
+      <c r="A238" s="13"/>
       <c r="B238">
         <v>37</v>
       </c>
@@ -11319,7 +10730,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="7"/>
+      <c r="A239" s="13"/>
       <c r="B239">
         <v>38</v>
       </c>
@@ -11337,7 +10748,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="7"/>
+      <c r="A240" s="13"/>
       <c r="B240">
         <v>39</v>
       </c>
@@ -11355,7 +10766,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="7"/>
+      <c r="A241" s="13"/>
       <c r="B241">
         <v>40</v>
       </c>
@@ -11373,7 +10784,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="7"/>
+      <c r="A242" s="13"/>
       <c r="B242">
         <v>41</v>
       </c>
@@ -11391,7 +10802,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="7"/>
+      <c r="A243" s="13"/>
       <c r="B243">
         <v>42</v>
       </c>
@@ -11409,7 +10820,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="7"/>
+      <c r="A244" s="13"/>
       <c r="B244">
         <v>43</v>
       </c>
@@ -11427,7 +10838,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="7"/>
+      <c r="A245" s="13"/>
       <c r="B245">
         <v>44</v>
       </c>
@@ -11445,7 +10856,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="7"/>
+      <c r="A246" s="13"/>
       <c r="B246">
         <v>45</v>
       </c>
@@ -11463,7 +10874,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="7"/>
+      <c r="A247" s="13"/>
       <c r="B247">
         <v>46</v>
       </c>
@@ -11481,7 +10892,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="7"/>
+      <c r="A248" s="13"/>
       <c r="B248">
         <v>47</v>
       </c>
@@ -11499,7 +10910,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="7"/>
+      <c r="A249" s="13"/>
       <c r="B249">
         <v>48</v>
       </c>
@@ -11517,7 +10928,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="7"/>
+      <c r="A250" s="13"/>
       <c r="B250">
         <v>49</v>
       </c>
@@ -11535,7 +10946,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="7"/>
+      <c r="A251" s="13"/>
       <c r="B251">
         <v>50</v>
       </c>
@@ -11553,7 +10964,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B252">
@@ -11573,7 +10984,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="7"/>
+      <c r="A253" s="13"/>
       <c r="B253">
         <v>2</v>
       </c>
@@ -11591,7 +11002,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="7"/>
+      <c r="A254" s="13"/>
       <c r="B254">
         <v>3</v>
       </c>
@@ -11609,7 +11020,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="7"/>
+      <c r="A255" s="13"/>
       <c r="B255">
         <v>4</v>
       </c>
@@ -11627,7 +11038,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="7"/>
+      <c r="A256" s="13"/>
       <c r="B256">
         <v>5</v>
       </c>
@@ -11645,7 +11056,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="7"/>
+      <c r="A257" s="13"/>
       <c r="B257">
         <v>6</v>
       </c>
@@ -11663,7 +11074,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="7"/>
+      <c r="A258" s="13"/>
       <c r="B258">
         <v>7</v>
       </c>
@@ -11681,7 +11092,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="7"/>
+      <c r="A259" s="13"/>
       <c r="B259">
         <v>8</v>
       </c>
@@ -11699,7 +11110,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="7"/>
+      <c r="A260" s="13"/>
       <c r="B260">
         <v>9</v>
       </c>
@@ -11717,7 +11128,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="7"/>
+      <c r="A261" s="13"/>
       <c r="B261">
         <v>10</v>
       </c>
@@ -11735,7 +11146,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="7"/>
+      <c r="A262" s="13"/>
       <c r="B262">
         <v>11</v>
       </c>
@@ -11753,7 +11164,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="7"/>
+      <c r="A263" s="13"/>
       <c r="B263">
         <v>12</v>
       </c>
@@ -11771,7 +11182,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="7"/>
+      <c r="A264" s="13"/>
       <c r="B264">
         <v>13</v>
       </c>
@@ -11789,7 +11200,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="7"/>
+      <c r="A265" s="13"/>
       <c r="B265">
         <v>14</v>
       </c>
@@ -11807,7 +11218,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="7"/>
+      <c r="A266" s="13"/>
       <c r="B266">
         <v>15</v>
       </c>
@@ -11825,7 +11236,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="7"/>
+      <c r="A267" s="13"/>
       <c r="B267">
         <v>16</v>
       </c>
@@ -11843,7 +11254,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="7"/>
+      <c r="A268" s="13"/>
       <c r="B268">
         <v>17</v>
       </c>
@@ -11861,7 +11272,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="7"/>
+      <c r="A269" s="13"/>
       <c r="B269">
         <v>18</v>
       </c>
@@ -11879,7 +11290,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="7"/>
+      <c r="A270" s="13"/>
       <c r="B270">
         <v>19</v>
       </c>
@@ -11897,7 +11308,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="7"/>
+      <c r="A271" s="13"/>
       <c r="B271">
         <v>20</v>
       </c>
@@ -11915,7 +11326,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="7"/>
+      <c r="A272" s="13"/>
       <c r="B272">
         <v>21</v>
       </c>
@@ -11933,7 +11344,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="7"/>
+      <c r="A273" s="13"/>
       <c r="B273">
         <v>22</v>
       </c>
@@ -11951,7 +11362,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="7"/>
+      <c r="A274" s="13"/>
       <c r="B274">
         <v>23</v>
       </c>
@@ -11969,7 +11380,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="7"/>
+      <c r="A275" s="13"/>
       <c r="B275">
         <v>24</v>
       </c>
@@ -11987,7 +11398,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="7"/>
+      <c r="A276" s="13"/>
       <c r="B276">
         <v>25</v>
       </c>
@@ -12005,7 +11416,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="7"/>
+      <c r="A277" s="13"/>
       <c r="B277">
         <v>26</v>
       </c>
@@ -12023,7 +11434,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="7"/>
+      <c r="A278" s="13"/>
       <c r="B278">
         <v>27</v>
       </c>
@@ -12041,7 +11452,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="7"/>
+      <c r="A279" s="13"/>
       <c r="B279">
         <v>28</v>
       </c>
@@ -12059,7 +11470,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="7"/>
+      <c r="A280" s="13"/>
       <c r="B280">
         <v>29</v>
       </c>
@@ -12077,7 +11488,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="7"/>
+      <c r="A281" s="13"/>
       <c r="B281">
         <v>30</v>
       </c>
@@ -12095,7 +11506,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="7"/>
+      <c r="A282" s="13"/>
       <c r="B282">
         <v>31</v>
       </c>
@@ -12113,7 +11524,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="7"/>
+      <c r="A283" s="13"/>
       <c r="B283">
         <v>32</v>
       </c>
@@ -12131,7 +11542,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="7"/>
+      <c r="A284" s="13"/>
       <c r="B284">
         <v>33</v>
       </c>
@@ -12149,7 +11560,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="7"/>
+      <c r="A285" s="13"/>
       <c r="B285">
         <v>34</v>
       </c>
@@ -12167,7 +11578,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="7"/>
+      <c r="A286" s="13"/>
       <c r="B286">
         <v>35</v>
       </c>
@@ -12185,7 +11596,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="7"/>
+      <c r="A287" s="13"/>
       <c r="B287">
         <v>36</v>
       </c>
@@ -12203,7 +11614,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="7"/>
+      <c r="A288" s="13"/>
       <c r="B288">
         <v>37</v>
       </c>
@@ -12221,7 +11632,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="7"/>
+      <c r="A289" s="13"/>
       <c r="B289">
         <v>38</v>
       </c>
@@ -12239,7 +11650,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="7"/>
+      <c r="A290" s="13"/>
       <c r="B290">
         <v>39</v>
       </c>
@@ -12257,7 +11668,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="7"/>
+      <c r="A291" s="13"/>
       <c r="B291">
         <v>40</v>
       </c>
@@ -12275,7 +11686,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="7"/>
+      <c r="A292" s="13"/>
       <c r="B292">
         <v>41</v>
       </c>
@@ -12293,7 +11704,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="7"/>
+      <c r="A293" s="13"/>
       <c r="B293">
         <v>42</v>
       </c>
@@ -12311,7 +11722,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" s="7"/>
+      <c r="A294" s="13"/>
       <c r="B294">
         <v>43</v>
       </c>
@@ -12329,7 +11740,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A295" s="7"/>
+      <c r="A295" s="13"/>
       <c r="B295">
         <v>44</v>
       </c>
@@ -12347,7 +11758,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A296" s="7"/>
+      <c r="A296" s="13"/>
       <c r="B296">
         <v>45</v>
       </c>
@@ -12365,7 +11776,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A297" s="7"/>
+      <c r="A297" s="13"/>
       <c r="B297">
         <v>46</v>
       </c>
@@ -12383,7 +11794,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A298" s="7"/>
+      <c r="A298" s="13"/>
       <c r="B298">
         <v>47</v>
       </c>
@@ -12401,7 +11812,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A299" s="7"/>
+      <c r="A299" s="13"/>
       <c r="B299">
         <v>48</v>
       </c>
@@ -12419,7 +11830,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A300" s="7"/>
+      <c r="A300" s="13"/>
       <c r="B300">
         <v>49</v>
       </c>
@@ -12437,7 +11848,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A301" s="7"/>
+      <c r="A301" s="13"/>
       <c r="B301">
         <v>50</v>
       </c>
@@ -12455,7 +11866,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B302">
@@ -12475,7 +11886,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A303" s="7"/>
+      <c r="A303" s="13"/>
       <c r="B303">
         <v>2</v>
       </c>
@@ -12493,7 +11904,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A304" s="7"/>
+      <c r="A304" s="13"/>
       <c r="B304">
         <v>3</v>
       </c>
@@ -12511,7 +11922,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A305" s="7"/>
+      <c r="A305" s="13"/>
       <c r="B305">
         <v>4</v>
       </c>
@@ -12529,7 +11940,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A306" s="7"/>
+      <c r="A306" s="13"/>
       <c r="B306">
         <v>5</v>
       </c>
@@ -12547,7 +11958,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A307" s="7"/>
+      <c r="A307" s="13"/>
       <c r="B307">
         <v>6</v>
       </c>
@@ -12565,7 +11976,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
+      <c r="A308" s="13"/>
       <c r="B308">
         <v>7</v>
       </c>
@@ -12583,7 +11994,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A309" s="7"/>
+      <c r="A309" s="13"/>
       <c r="B309">
         <v>8</v>
       </c>
@@ -12601,7 +12012,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A310" s="7"/>
+      <c r="A310" s="13"/>
       <c r="B310">
         <v>9</v>
       </c>
@@ -12619,7 +12030,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A311" s="7"/>
+      <c r="A311" s="13"/>
       <c r="B311">
         <v>10</v>
       </c>
@@ -12637,7 +12048,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A312" s="7"/>
+      <c r="A312" s="13"/>
       <c r="B312">
         <v>11</v>
       </c>
@@ -12655,7 +12066,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A313" s="7"/>
+      <c r="A313" s="13"/>
       <c r="B313">
         <v>12</v>
       </c>
@@ -12673,7 +12084,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A314" s="7"/>
+      <c r="A314" s="13"/>
       <c r="B314">
         <v>13</v>
       </c>
@@ -12691,7 +12102,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A315" s="7"/>
+      <c r="A315" s="13"/>
       <c r="B315">
         <v>14</v>
       </c>
@@ -12709,7 +12120,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A316" s="7"/>
+      <c r="A316" s="13"/>
       <c r="B316">
         <v>15</v>
       </c>
@@ -12727,7 +12138,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A317" s="7"/>
+      <c r="A317" s="13"/>
       <c r="B317">
         <v>16</v>
       </c>
@@ -12745,7 +12156,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A318" s="7"/>
+      <c r="A318" s="13"/>
       <c r="B318">
         <v>17</v>
       </c>
@@ -12763,7 +12174,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A319" s="7"/>
+      <c r="A319" s="13"/>
       <c r="B319">
         <v>18</v>
       </c>
@@ -12781,7 +12192,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A320" s="7"/>
+      <c r="A320" s="13"/>
       <c r="B320">
         <v>19</v>
       </c>
@@ -12799,7 +12210,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A321" s="7"/>
+      <c r="A321" s="13"/>
       <c r="B321">
         <v>20</v>
       </c>
@@ -12817,7 +12228,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A322" s="7"/>
+      <c r="A322" s="13"/>
       <c r="B322">
         <v>21</v>
       </c>
@@ -12835,7 +12246,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A323" s="7"/>
+      <c r="A323" s="13"/>
       <c r="B323">
         <v>22</v>
       </c>
@@ -12853,7 +12264,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A324" s="7"/>
+      <c r="A324" s="13"/>
       <c r="B324">
         <v>23</v>
       </c>
@@ -12871,7 +12282,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A325" s="7"/>
+      <c r="A325" s="13"/>
       <c r="B325">
         <v>24</v>
       </c>
@@ -12889,7 +12300,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A326" s="7"/>
+      <c r="A326" s="13"/>
       <c r="B326">
         <v>25</v>
       </c>
@@ -12907,7 +12318,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A327" s="7"/>
+      <c r="A327" s="13"/>
       <c r="B327">
         <v>26</v>
       </c>
@@ -12925,7 +12336,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A328" s="7"/>
+      <c r="A328" s="13"/>
       <c r="B328">
         <v>27</v>
       </c>
@@ -12943,7 +12354,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A329" s="7"/>
+      <c r="A329" s="13"/>
       <c r="B329">
         <v>28</v>
       </c>
@@ -12961,7 +12372,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A330" s="7"/>
+      <c r="A330" s="13"/>
       <c r="B330">
         <v>29</v>
       </c>
@@ -12979,7 +12390,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A331" s="7"/>
+      <c r="A331" s="13"/>
       <c r="B331">
         <v>30</v>
       </c>
@@ -12997,7 +12408,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A332" s="7"/>
+      <c r="A332" s="13"/>
       <c r="B332">
         <v>31</v>
       </c>
@@ -13015,7 +12426,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A333" s="7"/>
+      <c r="A333" s="13"/>
       <c r="B333">
         <v>32</v>
       </c>
@@ -13033,7 +12444,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A334" s="7"/>
+      <c r="A334" s="13"/>
       <c r="B334">
         <v>33</v>
       </c>
@@ -13051,7 +12462,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A335" s="7"/>
+      <c r="A335" s="13"/>
       <c r="B335">
         <v>34</v>
       </c>
@@ -13069,7 +12480,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A336" s="7"/>
+      <c r="A336" s="13"/>
       <c r="B336">
         <v>35</v>
       </c>
@@ -13087,7 +12498,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A337" s="7"/>
+      <c r="A337" s="13"/>
       <c r="B337">
         <v>36</v>
       </c>
@@ -13105,7 +12516,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A338" s="7"/>
+      <c r="A338" s="13"/>
       <c r="B338">
         <v>37</v>
       </c>
@@ -13123,7 +12534,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A339" s="7"/>
+      <c r="A339" s="13"/>
       <c r="B339">
         <v>38</v>
       </c>
@@ -13141,7 +12552,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A340" s="7"/>
+      <c r="A340" s="13"/>
       <c r="B340">
         <v>39</v>
       </c>
@@ -13159,7 +12570,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A341" s="7"/>
+      <c r="A341" s="13"/>
       <c r="B341">
         <v>40</v>
       </c>
@@ -13177,7 +12588,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A342" s="7"/>
+      <c r="A342" s="13"/>
       <c r="B342">
         <v>41</v>
       </c>
@@ -13195,7 +12606,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A343" s="7"/>
+      <c r="A343" s="13"/>
       <c r="B343">
         <v>42</v>
       </c>
@@ -13213,7 +12624,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A344" s="7"/>
+      <c r="A344" s="13"/>
       <c r="B344">
         <v>43</v>
       </c>
@@ -13231,7 +12642,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A345" s="7"/>
+      <c r="A345" s="13"/>
       <c r="B345">
         <v>44</v>
       </c>
@@ -13249,7 +12660,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A346" s="7"/>
+      <c r="A346" s="13"/>
       <c r="B346">
         <v>45</v>
       </c>
@@ -13267,7 +12678,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A347" s="7"/>
+      <c r="A347" s="13"/>
       <c r="B347">
         <v>46</v>
       </c>
@@ -13285,7 +12696,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A348" s="7"/>
+      <c r="A348" s="13"/>
       <c r="B348">
         <v>47</v>
       </c>
@@ -13303,7 +12714,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A349" s="7"/>
+      <c r="A349" s="13"/>
       <c r="B349">
         <v>48</v>
       </c>
@@ -13321,7 +12732,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A350" s="7"/>
+      <c r="A350" s="13"/>
       <c r="B350">
         <v>49</v>
       </c>
@@ -13339,7 +12750,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A351" s="7"/>
+      <c r="A351" s="13"/>
       <c r="B351">
         <v>50</v>
       </c>
@@ -13357,7 +12768,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A352" s="6" t="s">
+      <c r="A352" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B352">
@@ -13377,7 +12788,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A353" s="7"/>
+      <c r="A353" s="13"/>
       <c r="B353">
         <v>2</v>
       </c>
@@ -13395,7 +12806,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A354" s="7"/>
+      <c r="A354" s="13"/>
       <c r="B354">
         <v>3</v>
       </c>
@@ -13413,7 +12824,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A355" s="7"/>
+      <c r="A355" s="13"/>
       <c r="B355">
         <v>4</v>
       </c>
@@ -13431,7 +12842,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A356" s="7"/>
+      <c r="A356" s="13"/>
       <c r="B356">
         <v>5</v>
       </c>
@@ -13449,7 +12860,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A357" s="7"/>
+      <c r="A357" s="13"/>
       <c r="B357">
         <v>6</v>
       </c>
@@ -13467,7 +12878,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A358" s="7"/>
+      <c r="A358" s="13"/>
       <c r="B358">
         <v>7</v>
       </c>
@@ -13485,7 +12896,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A359" s="7"/>
+      <c r="A359" s="13"/>
       <c r="B359">
         <v>8</v>
       </c>
@@ -13503,7 +12914,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A360" s="7"/>
+      <c r="A360" s="13"/>
       <c r="B360">
         <v>9</v>
       </c>
@@ -13521,7 +12932,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A361" s="7"/>
+      <c r="A361" s="13"/>
       <c r="B361">
         <v>10</v>
       </c>
@@ -13539,7 +12950,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A362" s="7"/>
+      <c r="A362" s="13"/>
       <c r="B362">
         <v>11</v>
       </c>
@@ -13557,7 +12968,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A363" s="7"/>
+      <c r="A363" s="13"/>
       <c r="B363">
         <v>12</v>
       </c>
@@ -13575,7 +12986,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A364" s="7"/>
+      <c r="A364" s="13"/>
       <c r="B364">
         <v>13</v>
       </c>
@@ -13593,7 +13004,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A365" s="7"/>
+      <c r="A365" s="13"/>
       <c r="B365">
         <v>14</v>
       </c>
@@ -13611,7 +13022,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A366" s="7"/>
+      <c r="A366" s="13"/>
       <c r="B366">
         <v>15</v>
       </c>
@@ -13629,7 +13040,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A367" s="7"/>
+      <c r="A367" s="13"/>
       <c r="B367">
         <v>16</v>
       </c>
@@ -13647,7 +13058,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A368" s="7"/>
+      <c r="A368" s="13"/>
       <c r="B368">
         <v>17</v>
       </c>
@@ -13665,7 +13076,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A369" s="7"/>
+      <c r="A369" s="13"/>
       <c r="B369">
         <v>18</v>
       </c>
@@ -13683,7 +13094,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A370" s="7"/>
+      <c r="A370" s="13"/>
       <c r="B370">
         <v>19</v>
       </c>
@@ -13701,7 +13112,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A371" s="7"/>
+      <c r="A371" s="13"/>
       <c r="B371">
         <v>20</v>
       </c>
@@ -13719,7 +13130,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A372" s="7"/>
+      <c r="A372" s="13"/>
       <c r="B372">
         <v>21</v>
       </c>
@@ -13737,7 +13148,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A373" s="7"/>
+      <c r="A373" s="13"/>
       <c r="B373">
         <v>22</v>
       </c>
@@ -13755,7 +13166,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A374" s="7"/>
+      <c r="A374" s="13"/>
       <c r="B374">
         <v>23</v>
       </c>
@@ -13773,7 +13184,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A375" s="7"/>
+      <c r="A375" s="13"/>
       <c r="B375">
         <v>24</v>
       </c>
@@ -13791,7 +13202,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A376" s="7"/>
+      <c r="A376" s="13"/>
       <c r="B376">
         <v>25</v>
       </c>
@@ -13809,7 +13220,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A377" s="7"/>
+      <c r="A377" s="13"/>
       <c r="B377">
         <v>26</v>
       </c>
@@ -13827,7 +13238,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A378" s="7"/>
+      <c r="A378" s="13"/>
       <c r="B378">
         <v>27</v>
       </c>
@@ -13845,7 +13256,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A379" s="7"/>
+      <c r="A379" s="13"/>
       <c r="B379">
         <v>28</v>
       </c>
@@ -13863,7 +13274,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A380" s="7"/>
+      <c r="A380" s="13"/>
       <c r="B380">
         <v>29</v>
       </c>
@@ -13881,7 +13292,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A381" s="7"/>
+      <c r="A381" s="13"/>
       <c r="B381">
         <v>30</v>
       </c>
@@ -13899,7 +13310,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A382" s="7"/>
+      <c r="A382" s="13"/>
       <c r="B382">
         <v>31</v>
       </c>
@@ -13917,7 +13328,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A383" s="7"/>
+      <c r="A383" s="13"/>
       <c r="B383">
         <v>32</v>
       </c>
@@ -13935,7 +13346,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A384" s="7"/>
+      <c r="A384" s="13"/>
       <c r="B384">
         <v>33</v>
       </c>
@@ -13953,7 +13364,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A385" s="7"/>
+      <c r="A385" s="13"/>
       <c r="B385">
         <v>34</v>
       </c>
@@ -13971,7 +13382,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A386" s="7"/>
+      <c r="A386" s="13"/>
       <c r="B386">
         <v>35</v>
       </c>
@@ -13989,7 +13400,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A387" s="7"/>
+      <c r="A387" s="13"/>
       <c r="B387">
         <v>36</v>
       </c>
@@ -14007,7 +13418,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A388" s="7"/>
+      <c r="A388" s="13"/>
       <c r="B388">
         <v>37</v>
       </c>
@@ -14025,7 +13436,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A389" s="7"/>
+      <c r="A389" s="13"/>
       <c r="B389">
         <v>38</v>
       </c>
@@ -14043,7 +13454,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A390" s="7"/>
+      <c r="A390" s="13"/>
       <c r="B390">
         <v>39</v>
       </c>
@@ -14061,7 +13472,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A391" s="7"/>
+      <c r="A391" s="13"/>
       <c r="B391">
         <v>40</v>
       </c>
@@ -14079,7 +13490,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A392" s="7"/>
+      <c r="A392" s="13"/>
       <c r="B392">
         <v>41</v>
       </c>
@@ -14097,7 +13508,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A393" s="7"/>
+      <c r="A393" s="13"/>
       <c r="B393">
         <v>42</v>
       </c>
@@ -14115,7 +13526,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A394" s="7"/>
+      <c r="A394" s="13"/>
       <c r="B394">
         <v>43</v>
       </c>
@@ -14133,7 +13544,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A395" s="7"/>
+      <c r="A395" s="13"/>
       <c r="B395">
         <v>44</v>
       </c>
@@ -14151,7 +13562,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A396" s="7"/>
+      <c r="A396" s="13"/>
       <c r="B396">
         <v>45</v>
       </c>
@@ -14169,7 +13580,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A397" s="7"/>
+      <c r="A397" s="13"/>
       <c r="B397">
         <v>46</v>
       </c>
@@ -14187,7 +13598,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A398" s="7"/>
+      <c r="A398" s="13"/>
       <c r="B398">
         <v>47</v>
       </c>
@@ -14205,7 +13616,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A399" s="7"/>
+      <c r="A399" s="13"/>
       <c r="B399">
         <v>48</v>
       </c>
@@ -14223,7 +13634,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A400" s="7"/>
+      <c r="A400" s="13"/>
       <c r="B400">
         <v>49</v>
       </c>
@@ -14241,7 +13652,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A401" s="7"/>
+      <c r="A401" s="13"/>
       <c r="B401">
         <v>50</v>
       </c>
@@ -14259,7 +13670,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A402" s="6" t="s">
+      <c r="A402" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B402">
@@ -14276,7 +13687,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A403" s="7"/>
+      <c r="A403" s="13"/>
       <c r="B403">
         <v>2</v>
       </c>
@@ -14291,7 +13702,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A404" s="7"/>
+      <c r="A404" s="13"/>
       <c r="B404">
         <v>3</v>
       </c>
@@ -14306,7 +13717,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A405" s="7"/>
+      <c r="A405" s="13"/>
       <c r="B405">
         <v>4</v>
       </c>
@@ -14321,7 +13732,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A406" s="7"/>
+      <c r="A406" s="13"/>
       <c r="B406">
         <v>5</v>
       </c>
@@ -14336,7 +13747,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A407" s="7"/>
+      <c r="A407" s="13"/>
       <c r="B407">
         <v>6</v>
       </c>
@@ -14351,7 +13762,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A408" s="7"/>
+      <c r="A408" s="13"/>
       <c r="B408">
         <v>7</v>
       </c>
@@ -14366,7 +13777,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A409" s="7"/>
+      <c r="A409" s="13"/>
       <c r="B409">
         <v>8</v>
       </c>
@@ -14381,7 +13792,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A410" s="7"/>
+      <c r="A410" s="13"/>
       <c r="B410">
         <v>9</v>
       </c>
@@ -14396,7 +13807,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A411" s="7"/>
+      <c r="A411" s="13"/>
       <c r="B411">
         <v>10</v>
       </c>
@@ -14411,7 +13822,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A412" s="7"/>
+      <c r="A412" s="13"/>
       <c r="B412">
         <v>11</v>
       </c>
@@ -14426,7 +13837,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A413" s="7"/>
+      <c r="A413" s="13"/>
       <c r="B413">
         <v>12</v>
       </c>
@@ -14441,7 +13852,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A414" s="7"/>
+      <c r="A414" s="13"/>
       <c r="B414">
         <v>13</v>
       </c>
@@ -14456,7 +13867,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A415" s="7"/>
+      <c r="A415" s="13"/>
       <c r="B415">
         <v>14</v>
       </c>
@@ -14471,7 +13882,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A416" s="7"/>
+      <c r="A416" s="13"/>
       <c r="B416">
         <v>15</v>
       </c>
@@ -14486,7 +13897,7 @@
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A417" s="7"/>
+      <c r="A417" s="13"/>
       <c r="B417">
         <v>16</v>
       </c>
@@ -14501,7 +13912,7 @@
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A418" s="7"/>
+      <c r="A418" s="13"/>
       <c r="B418">
         <v>17</v>
       </c>
@@ -14516,7 +13927,7 @@
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A419" s="7"/>
+      <c r="A419" s="13"/>
       <c r="B419">
         <v>18</v>
       </c>
@@ -14531,7 +13942,7 @@
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A420" s="7"/>
+      <c r="A420" s="13"/>
       <c r="B420">
         <v>19</v>
       </c>
@@ -14546,7 +13957,7 @@
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A421" s="7"/>
+      <c r="A421" s="13"/>
       <c r="B421">
         <v>20</v>
       </c>
@@ -14561,7 +13972,7 @@
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A422" s="7"/>
+      <c r="A422" s="13"/>
       <c r="B422">
         <v>21</v>
       </c>
@@ -14576,7 +13987,7 @@
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A423" s="7"/>
+      <c r="A423" s="13"/>
       <c r="B423">
         <v>22</v>
       </c>
@@ -14591,7 +14002,7 @@
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A424" s="7"/>
+      <c r="A424" s="13"/>
       <c r="B424">
         <v>23</v>
       </c>
@@ -14606,7 +14017,7 @@
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A425" s="7"/>
+      <c r="A425" s="13"/>
       <c r="B425">
         <v>24</v>
       </c>
@@ -14621,7 +14032,7 @@
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A426" s="7"/>
+      <c r="A426" s="13"/>
       <c r="B426">
         <v>25</v>
       </c>
@@ -14636,7 +14047,7 @@
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A427" s="7"/>
+      <c r="A427" s="13"/>
       <c r="B427">
         <v>26</v>
       </c>
@@ -14651,7 +14062,7 @@
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A428" s="7"/>
+      <c r="A428" s="13"/>
       <c r="B428">
         <v>27</v>
       </c>
@@ -14666,7 +14077,7 @@
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A429" s="7"/>
+      <c r="A429" s="13"/>
       <c r="B429">
         <v>28</v>
       </c>
@@ -14681,7 +14092,7 @@
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A430" s="7"/>
+      <c r="A430" s="13"/>
       <c r="B430">
         <v>29</v>
       </c>
@@ -14696,7 +14107,7 @@
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A431" s="7"/>
+      <c r="A431" s="13"/>
       <c r="B431">
         <v>30</v>
       </c>
@@ -14711,7 +14122,7 @@
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A432" s="7"/>
+      <c r="A432" s="13"/>
       <c r="B432">
         <v>31</v>
       </c>
@@ -14726,7 +14137,7 @@
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A433" s="7"/>
+      <c r="A433" s="13"/>
       <c r="B433">
         <v>32</v>
       </c>
@@ -14741,7 +14152,7 @@
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A434" s="7"/>
+      <c r="A434" s="13"/>
       <c r="B434">
         <v>33</v>
       </c>
@@ -14756,7 +14167,7 @@
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A435" s="7"/>
+      <c r="A435" s="13"/>
       <c r="B435">
         <v>34</v>
       </c>
@@ -14771,7 +14182,7 @@
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A436" s="7"/>
+      <c r="A436" s="13"/>
       <c r="B436">
         <v>35</v>
       </c>
@@ -14786,7 +14197,7 @@
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A437" s="7"/>
+      <c r="A437" s="13"/>
       <c r="B437">
         <v>36</v>
       </c>
@@ -14801,7 +14212,7 @@
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A438" s="7"/>
+      <c r="A438" s="13"/>
       <c r="B438">
         <v>37</v>
       </c>
@@ -14816,7 +14227,7 @@
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A439" s="7"/>
+      <c r="A439" s="13"/>
       <c r="B439">
         <v>38</v>
       </c>
@@ -14831,7 +14242,7 @@
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A440" s="7"/>
+      <c r="A440" s="13"/>
       <c r="B440">
         <v>39</v>
       </c>
@@ -14846,7 +14257,7 @@
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A441" s="7"/>
+      <c r="A441" s="13"/>
       <c r="B441">
         <v>40</v>
       </c>
@@ -14861,7 +14272,7 @@
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A442" s="7"/>
+      <c r="A442" s="13"/>
       <c r="B442">
         <v>41</v>
       </c>
@@ -14876,7 +14287,7 @@
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A443" s="7"/>
+      <c r="A443" s="13"/>
       <c r="B443">
         <v>42</v>
       </c>
@@ -14891,7 +14302,7 @@
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A444" s="7"/>
+      <c r="A444" s="13"/>
       <c r="B444">
         <v>43</v>
       </c>
@@ -14906,7 +14317,7 @@
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A445" s="7"/>
+      <c r="A445" s="13"/>
       <c r="B445">
         <v>44</v>
       </c>
@@ -14921,7 +14332,7 @@
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A446" s="7"/>
+      <c r="A446" s="13"/>
       <c r="B446">
         <v>45</v>
       </c>
@@ -14936,7 +14347,7 @@
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A447" s="7"/>
+      <c r="A447" s="13"/>
       <c r="B447">
         <v>46</v>
       </c>
@@ -14951,7 +14362,7 @@
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A448" s="7"/>
+      <c r="A448" s="13"/>
       <c r="B448">
         <v>47</v>
       </c>
@@ -14966,7 +14377,7 @@
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A449" s="7"/>
+      <c r="A449" s="13"/>
       <c r="B449">
         <v>48</v>
       </c>
@@ -14981,7 +14392,7 @@
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" s="7"/>
+      <c r="A450" s="13"/>
       <c r="B450">
         <v>49</v>
       </c>
@@ -14996,7 +14407,7 @@
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" s="7"/>
+      <c r="A451" s="13"/>
       <c r="B451">
         <v>50</v>
       </c>
@@ -15011,7 +14422,7 @@
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A452" s="6" t="s">
+      <c r="A452" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B452">
@@ -15028,7 +14439,7 @@
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" s="7"/>
+      <c r="A453" s="13"/>
       <c r="B453">
         <v>2</v>
       </c>
@@ -15043,7 +14454,7 @@
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" s="7"/>
+      <c r="A454" s="13"/>
       <c r="B454">
         <v>3</v>
       </c>
@@ -15058,7 +14469,7 @@
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A455" s="7"/>
+      <c r="A455" s="13"/>
       <c r="B455">
         <v>4</v>
       </c>
@@ -15073,7 +14484,7 @@
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" s="7"/>
+      <c r="A456" s="13"/>
       <c r="B456">
         <v>5</v>
       </c>
@@ -15088,7 +14499,7 @@
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A457" s="7"/>
+      <c r="A457" s="13"/>
       <c r="B457">
         <v>6</v>
       </c>
@@ -15103,7 +14514,7 @@
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" s="7"/>
+      <c r="A458" s="13"/>
       <c r="B458">
         <v>7</v>
       </c>
@@ -15118,7 +14529,7 @@
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" s="7"/>
+      <c r="A459" s="13"/>
       <c r="B459">
         <v>8</v>
       </c>
@@ -15133,7 +14544,7 @@
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A460" s="7"/>
+      <c r="A460" s="13"/>
       <c r="B460">
         <v>9</v>
       </c>
@@ -15148,7 +14559,7 @@
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A461" s="7"/>
+      <c r="A461" s="13"/>
       <c r="B461">
         <v>10</v>
       </c>
@@ -15163,7 +14574,7 @@
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A462" s="7"/>
+      <c r="A462" s="13"/>
       <c r="B462">
         <v>11</v>
       </c>
@@ -15178,7 +14589,7 @@
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A463" s="7"/>
+      <c r="A463" s="13"/>
       <c r="B463">
         <v>12</v>
       </c>
@@ -15193,7 +14604,7 @@
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A464" s="7"/>
+      <c r="A464" s="13"/>
       <c r="B464">
         <v>13</v>
       </c>
@@ -15208,7 +14619,7 @@
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" s="7"/>
+      <c r="A465" s="13"/>
       <c r="B465">
         <v>14</v>
       </c>
@@ -15223,7 +14634,7 @@
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" s="7"/>
+      <c r="A466" s="13"/>
       <c r="B466">
         <v>15</v>
       </c>
@@ -15238,7 +14649,7 @@
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" s="7"/>
+      <c r="A467" s="13"/>
       <c r="B467">
         <v>16</v>
       </c>
@@ -15253,7 +14664,7 @@
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" s="7"/>
+      <c r="A468" s="13"/>
       <c r="B468">
         <v>17</v>
       </c>
@@ -15268,7 +14679,7 @@
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" s="7"/>
+      <c r="A469" s="13"/>
       <c r="B469">
         <v>18</v>
       </c>
@@ -15283,7 +14694,7 @@
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" s="7"/>
+      <c r="A470" s="13"/>
       <c r="B470">
         <v>19</v>
       </c>
@@ -15298,7 +14709,7 @@
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" s="7"/>
+      <c r="A471" s="13"/>
       <c r="B471">
         <v>20</v>
       </c>
@@ -15313,7 +14724,7 @@
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" s="7"/>
+      <c r="A472" s="13"/>
       <c r="B472">
         <v>21</v>
       </c>
@@ -15328,7 +14739,7 @@
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" s="7"/>
+      <c r="A473" s="13"/>
       <c r="B473">
         <v>22</v>
       </c>
@@ -15343,7 +14754,7 @@
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" s="7"/>
+      <c r="A474" s="13"/>
       <c r="B474">
         <v>23</v>
       </c>
@@ -15358,7 +14769,7 @@
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A475" s="7"/>
+      <c r="A475" s="13"/>
       <c r="B475">
         <v>24</v>
       </c>
@@ -15373,7 +14784,7 @@
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A476" s="7"/>
+      <c r="A476" s="13"/>
       <c r="B476">
         <v>25</v>
       </c>
@@ -15388,7 +14799,7 @@
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A477" s="7"/>
+      <c r="A477" s="13"/>
       <c r="B477">
         <v>26</v>
       </c>
@@ -15403,7 +14814,7 @@
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A478" s="7"/>
+      <c r="A478" s="13"/>
       <c r="B478">
         <v>27</v>
       </c>
@@ -15418,7 +14829,7 @@
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A479" s="7"/>
+      <c r="A479" s="13"/>
       <c r="B479">
         <v>28</v>
       </c>
@@ -15433,7 +14844,7 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A480" s="7"/>
+      <c r="A480" s="13"/>
       <c r="B480">
         <v>29</v>
       </c>
@@ -15448,7 +14859,7 @@
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A481" s="7"/>
+      <c r="A481" s="13"/>
       <c r="B481">
         <v>30</v>
       </c>
@@ -15463,7 +14874,7 @@
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A482" s="7"/>
+      <c r="A482" s="13"/>
       <c r="B482">
         <v>31</v>
       </c>
@@ -15478,7 +14889,7 @@
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A483" s="7"/>
+      <c r="A483" s="13"/>
       <c r="B483">
         <v>32</v>
       </c>
@@ -15493,7 +14904,7 @@
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A484" s="7"/>
+      <c r="A484" s="13"/>
       <c r="B484">
         <v>33</v>
       </c>
@@ -15508,7 +14919,7 @@
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A485" s="7"/>
+      <c r="A485" s="13"/>
       <c r="B485">
         <v>34</v>
       </c>
@@ -15523,7 +14934,7 @@
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A486" s="7"/>
+      <c r="A486" s="13"/>
       <c r="B486">
         <v>35</v>
       </c>
@@ -15538,7 +14949,7 @@
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A487" s="7"/>
+      <c r="A487" s="13"/>
       <c r="B487">
         <v>36</v>
       </c>
@@ -15553,7 +14964,7 @@
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A488" s="7"/>
+      <c r="A488" s="13"/>
       <c r="B488">
         <v>37</v>
       </c>
@@ -15568,7 +14979,7 @@
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A489" s="7"/>
+      <c r="A489" s="13"/>
       <c r="B489">
         <v>38</v>
       </c>
@@ -15583,7 +14994,7 @@
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A490" s="7"/>
+      <c r="A490" s="13"/>
       <c r="B490">
         <v>39</v>
       </c>
@@ -15598,7 +15009,7 @@
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A491" s="7"/>
+      <c r="A491" s="13"/>
       <c r="B491">
         <v>40</v>
       </c>
@@ -15613,7 +15024,7 @@
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A492" s="7"/>
+      <c r="A492" s="13"/>
       <c r="B492">
         <v>41</v>
       </c>
@@ -15628,7 +15039,7 @@
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A493" s="7"/>
+      <c r="A493" s="13"/>
       <c r="B493">
         <v>42</v>
       </c>
@@ -15643,7 +15054,7 @@
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A494" s="7"/>
+      <c r="A494" s="13"/>
       <c r="B494">
         <v>43</v>
       </c>
@@ -15658,7 +15069,7 @@
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A495" s="7"/>
+      <c r="A495" s="13"/>
       <c r="B495">
         <v>44</v>
       </c>
@@ -15673,7 +15084,7 @@
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A496" s="7"/>
+      <c r="A496" s="13"/>
       <c r="B496">
         <v>45</v>
       </c>
@@ -15688,7 +15099,7 @@
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A497" s="7"/>
+      <c r="A497" s="13"/>
       <c r="B497">
         <v>46</v>
       </c>
@@ -15703,7 +15114,7 @@
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A498" s="7"/>
+      <c r="A498" s="13"/>
       <c r="B498">
         <v>47</v>
       </c>
@@ -15718,7 +15129,7 @@
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A499" s="7"/>
+      <c r="A499" s="13"/>
       <c r="B499">
         <v>48</v>
       </c>
@@ -15733,7 +15144,7 @@
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A500" s="7"/>
+      <c r="A500" s="13"/>
       <c r="B500">
         <v>49</v>
       </c>
@@ -15748,7 +15159,7 @@
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A501" s="7"/>
+      <c r="A501" s="13"/>
       <c r="B501">
         <v>50</v>
       </c>
